--- a/IBNP Check/Unified_IBNP_ASL_Check.xlsx
+++ b/IBNP Check/Unified_IBNP_ASL_Check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\IBNP Check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244E9823-C05D-4A1D-A4D1-37C39F9DAD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B35777-4FFB-4921-BD3F-2F77DA9881D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Completion Factors" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="67">
   <si>
     <t>Paid Percentages</t>
   </si>
@@ -314,6 +314,36 @@
   <si>
     <t>Check</t>
   </si>
+  <si>
+    <t>LINK INCREMENTAL RATIOS</t>
+  </si>
+  <si>
+    <t>Inc Patter</t>
+  </si>
+  <si>
+    <t>Cum Pattern</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>UNIFIED</t>
+  </si>
+  <si>
+    <t>Cum % dev</t>
+  </si>
+  <si>
+    <t>Inc % Dev</t>
+  </si>
+  <si>
+    <t>Cum % Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>inc % dev</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +357,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +399,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -478,7 +516,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -536,6 +574,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -558,6 +599,853 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Completion Factors"/>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="8">
+          <cell r="B8">
+            <v>199.38</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+          <cell r="G8">
+            <v>199.38</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>4466.1799999999994</v>
+          </cell>
+          <cell r="J8">
+            <v>4.4642177431272367</v>
+          </cell>
+          <cell r="K8">
+            <v>4.4642177431272367</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>3164.83</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+          <cell r="G9">
+            <v>3164.83</v>
+          </cell>
+          <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
+            <v>4457.45</v>
+          </cell>
+          <cell r="J9">
+            <v>71.000908591234904</v>
+          </cell>
+          <cell r="K9">
+            <v>71.000908591234904</v>
+          </cell>
+          <cell r="L9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>320.14</v>
+          </cell>
+          <cell r="C10">
+            <v>1</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>320.14</v>
+          </cell>
+          <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
+            <v>4445.47</v>
+          </cell>
+          <cell r="J10">
+            <v>7.2014882565847929</v>
+          </cell>
+          <cell r="K10">
+            <v>7.2014882565847929</v>
+          </cell>
+          <cell r="L10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>694.98</v>
+          </cell>
+          <cell r="C11">
+            <v>1</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>0</v>
+          </cell>
+          <cell r="G11">
+            <v>694.98</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>4426.1266666666661</v>
+          </cell>
+          <cell r="J11">
+            <v>15.701764823720968</v>
+          </cell>
+          <cell r="K11">
+            <v>15.701764823720968</v>
+          </cell>
+          <cell r="L11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>823</v>
+          </cell>
+          <cell r="C12">
+            <v>1</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+          <cell r="E12">
+            <v>0</v>
+          </cell>
+          <cell r="G12">
+            <v>823</v>
+          </cell>
+          <cell r="H12">
+            <v>0</v>
+          </cell>
+          <cell r="I12">
+            <v>4393.6783333333333</v>
+          </cell>
+          <cell r="J12">
+            <v>18.731457734540573</v>
+          </cell>
+          <cell r="K12">
+            <v>18.731457734540573</v>
+          </cell>
+          <cell r="L12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>1086.57</v>
+          </cell>
+          <cell r="C13">
+            <v>1</v>
+          </cell>
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
+          <cell r="G13">
+            <v>1086.57</v>
+          </cell>
+          <cell r="H13">
+            <v>0</v>
+          </cell>
+          <cell r="I13">
+            <v>4373.916666666667</v>
+          </cell>
+          <cell r="J13">
+            <v>24.842037075847351</v>
+          </cell>
+          <cell r="K13">
+            <v>24.842037075847351</v>
+          </cell>
+          <cell r="L13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>2896.74</v>
+          </cell>
+          <cell r="C14">
+            <v>1</v>
+          </cell>
+          <cell r="D14">
+            <v>0</v>
+          </cell>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>2896.74</v>
+          </cell>
+          <cell r="H14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>4375.0616666666656</v>
+          </cell>
+          <cell r="J14">
+            <v>66.210266750525818</v>
+          </cell>
+          <cell r="K14">
+            <v>66.210266750525818</v>
+          </cell>
+          <cell r="L14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>8046.4600000000009</v>
+          </cell>
+          <cell r="C15">
+            <v>1</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>8046.4600000000009</v>
+          </cell>
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>4312.8950000000004</v>
+          </cell>
+          <cell r="J15">
+            <v>186.56749120950082</v>
+          </cell>
+          <cell r="K15">
+            <v>186.56749120950082</v>
+          </cell>
+          <cell r="L15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>473.41</v>
+          </cell>
+          <cell r="C16">
+            <v>1</v>
+          </cell>
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+          <cell r="G16">
+            <v>473.41</v>
+          </cell>
+          <cell r="H16">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>4277.5</v>
+          </cell>
+          <cell r="J16">
+            <v>11.067445938047925</v>
+          </cell>
+          <cell r="K16">
+            <v>11.067445938047927</v>
+          </cell>
+          <cell r="L16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>1454.97</v>
+          </cell>
+          <cell r="C17">
+            <v>1</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+          <cell r="G17">
+            <v>1454.97</v>
+          </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>4272.4449999999997</v>
+          </cell>
+          <cell r="J17">
+            <v>34.054739148192667</v>
+          </cell>
+          <cell r="K17">
+            <v>34.054739148192667</v>
+          </cell>
+          <cell r="L17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>2116.44</v>
+          </cell>
+          <cell r="C18">
+            <v>1</v>
+          </cell>
+          <cell r="D18">
+            <v>0</v>
+          </cell>
+          <cell r="E18">
+            <v>0</v>
+          </cell>
+          <cell r="G18">
+            <v>2116.44</v>
+          </cell>
+          <cell r="H18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>4233.7550000000001</v>
+          </cell>
+          <cell r="J18">
+            <v>49.989666383623991</v>
+          </cell>
+          <cell r="K18">
+            <v>49.989666383623991</v>
+          </cell>
+          <cell r="L18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>2681.73</v>
+          </cell>
+          <cell r="C19">
+            <v>0.98495456024210026</v>
+          </cell>
+          <cell r="D19">
+            <v>40.964130519924822</v>
+          </cell>
+          <cell r="E19">
+            <v>40.964130519924822</v>
+          </cell>
+          <cell r="G19">
+            <v>2722.6941305199248</v>
+          </cell>
+          <cell r="H19">
+            <v>40.964130519924765</v>
+          </cell>
+          <cell r="I19">
+            <v>4154.583333333333</v>
+          </cell>
+          <cell r="J19">
+            <v>65.53470979087173</v>
+          </cell>
+          <cell r="K19">
+            <v>64.548711262661726</v>
+          </cell>
+          <cell r="L19">
+            <v>0.98599852821000411</v>
+          </cell>
+          <cell r="M19">
+            <v>45.985908472174273</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>985.09</v>
+          </cell>
+          <cell r="C20">
+            <v>0.51313742659582562</v>
+          </cell>
+          <cell r="D20">
+            <v>934.64913603442812</v>
+          </cell>
+          <cell r="E20">
+            <v>934.64913603442812</v>
+          </cell>
+          <cell r="G20">
+            <v>1919.7391360344282</v>
+          </cell>
+          <cell r="H20">
+            <v>934.64913603442812</v>
+          </cell>
+          <cell r="I20">
+            <v>4124.0950000000003</v>
+          </cell>
+          <cell r="J20">
+            <v>46.549343214315577</v>
+          </cell>
+          <cell r="K20">
+            <v>23.886210186719754</v>
+          </cell>
+          <cell r="L20">
+            <v>22.663133027595823</v>
+          </cell>
+          <cell r="M20">
+            <v>49.607469750671463</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>950.99</v>
+          </cell>
+          <cell r="C21">
+            <v>0.4801338402903339</v>
+          </cell>
+          <cell r="D21">
+            <v>1029.6868867300466</v>
+          </cell>
+          <cell r="E21">
+            <v>1029.6868867300466</v>
+          </cell>
+          <cell r="G21">
+            <v>1980.6768867300466</v>
+          </cell>
+          <cell r="H21">
+            <v>1029.6868867300466</v>
+          </cell>
+          <cell r="I21">
+            <v>4092.936666666666</v>
+          </cell>
+          <cell r="J21">
+            <v>48.3925613328176</v>
+          </cell>
+          <cell r="K21">
+            <v>23.234906314211234</v>
+          </cell>
+          <cell r="L21">
+            <v>25.157655018606366</v>
+          </cell>
+          <cell r="M21">
+            <v>47.658597830531932</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>969.24</v>
+          </cell>
+          <cell r="C22">
+            <v>0.46472923215025469</v>
+          </cell>
+          <cell r="D22">
+            <v>1116.3615351464455</v>
+          </cell>
+          <cell r="E22">
+            <v>1116.3615351464455</v>
+          </cell>
+          <cell r="G22">
+            <v>2085.6015351464457</v>
+          </cell>
+          <cell r="H22">
+            <v>1116.3615351464457</v>
+          </cell>
+          <cell r="I22">
+            <v>4057.166666666667</v>
+          </cell>
+          <cell r="J22">
+            <v>51.405369966227141</v>
+          </cell>
+          <cell r="K22">
+            <v>23.889578112804504</v>
+          </cell>
+          <cell r="L22">
+            <v>27.515791853422638</v>
+          </cell>
+          <cell r="M22">
+            <v>51.476101551392262</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>2293.81</v>
+          </cell>
+          <cell r="C23">
+            <v>0.46324904927489369</v>
+          </cell>
+          <cell r="D23">
+            <v>2657.7597951035505</v>
+          </cell>
+          <cell r="E23">
+            <v>2657.7597951035505</v>
+          </cell>
+          <cell r="G23">
+            <v>4951.5697951035509</v>
+          </cell>
+          <cell r="H23">
+            <v>2657.7597951035509</v>
+          </cell>
+          <cell r="I23">
+            <v>4056.085</v>
+          </cell>
+          <cell r="J23">
+            <v>122.07756482183068</v>
+          </cell>
+          <cell r="K23">
+            <v>56.552315841507259</v>
+          </cell>
+          <cell r="L23">
+            <v>65.525248980323425</v>
+          </cell>
+          <cell r="M23">
+            <v>60.243277729784218</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>837.56999999999994</v>
+          </cell>
+          <cell r="C24">
+            <v>0.42065321191398253</v>
+          </cell>
+          <cell r="D24">
+            <v>1153.547567340175</v>
+          </cell>
+          <cell r="E24">
+            <v>1153.547567340175</v>
+          </cell>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+          <cell r="G24">
+            <v>1991.1175673401749</v>
+          </cell>
+          <cell r="H24">
+            <v>1153.547567340175</v>
+          </cell>
+          <cell r="I24">
+            <v>4047.085</v>
+          </cell>
+          <cell r="J24">
+            <v>49.198807718152075</v>
+          </cell>
+          <cell r="K24">
+            <v>20.695636488979101</v>
+          </cell>
+          <cell r="L24">
+            <v>28.503171229172974</v>
+          </cell>
+          <cell r="M24">
+            <v>62.976474233052485</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>671.17000000000007</v>
+          </cell>
+          <cell r="C25">
+            <v>0.36432817621926239</v>
+          </cell>
+          <cell r="D25">
+            <v>1171.0427186673371</v>
+          </cell>
+          <cell r="E25">
+            <v>1171.0427186673371</v>
+          </cell>
+          <cell r="F25">
+            <v>0</v>
+          </cell>
+          <cell r="G25">
+            <v>1842.2127186673372</v>
+          </cell>
+          <cell r="H25">
+            <v>1171.0427186673371</v>
+          </cell>
+          <cell r="I25">
+            <v>4013.103333333333</v>
+          </cell>
+          <cell r="J25">
+            <v>45.904941030690402</v>
+          </cell>
+          <cell r="K25">
+            <v>16.724463445164218</v>
+          </cell>
+          <cell r="L25">
+            <v>29.180477585526184</v>
+          </cell>
+          <cell r="M25">
+            <v>64.941557905713125</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>170.46</v>
+          </cell>
+          <cell r="C26">
+            <v>0.36373652928952072</v>
+          </cell>
+          <cell r="D26">
+            <v>298.17591163899903</v>
+          </cell>
+          <cell r="E26">
+            <v>298.17591163899903</v>
+          </cell>
+          <cell r="F26">
+            <v>0</v>
+          </cell>
+          <cell r="G26">
+            <v>468.635911638999</v>
+          </cell>
+          <cell r="H26">
+            <v>298.17591163899897</v>
+          </cell>
+          <cell r="I26">
+            <v>3974.7616666666672</v>
+          </cell>
+          <cell r="J26">
+            <v>11.790289605766693</v>
+          </cell>
+          <cell r="K26">
+            <v>4.2885590205198882</v>
+          </cell>
+          <cell r="L26">
+            <v>7.501730585246805</v>
+          </cell>
+          <cell r="M26">
+            <v>60.57174767713299</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>353.23</v>
+          </cell>
+          <cell r="C27">
+            <v>0.36369755543984472</v>
+          </cell>
+          <cell r="D27">
+            <v>617.9890657229314</v>
+          </cell>
+          <cell r="E27">
+            <v>617.9890657229314</v>
+          </cell>
+          <cell r="F27">
+            <v>0</v>
+          </cell>
+          <cell r="G27">
+            <v>971.21906572293142</v>
+          </cell>
+          <cell r="H27">
+            <v>617.9890657229314</v>
+          </cell>
+          <cell r="I27">
+            <v>3943.9416666666662</v>
+          </cell>
+          <cell r="J27">
+            <v>24.625594083489187</v>
+          </cell>
+          <cell r="K27">
+            <v>8.9562683694189218</v>
+          </cell>
+          <cell r="L27">
+            <v>15.669325714070265</v>
+          </cell>
+          <cell r="M27">
+            <v>46.658827733554112</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>254.8</v>
+          </cell>
+          <cell r="C28">
+            <v>0.30516925464170602</v>
+          </cell>
+          <cell r="D28">
+            <v>580.14649649145122</v>
+          </cell>
+          <cell r="E28">
+            <v>580.14649649145122</v>
+          </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+          <cell r="G28">
+            <v>834.94649649145117</v>
+          </cell>
+          <cell r="H28">
+            <v>580.14649649145122</v>
+          </cell>
+          <cell r="I28">
+            <v>3936.333333333333</v>
+          </cell>
+          <cell r="J28">
+            <v>21.211275209368733</v>
+          </cell>
+          <cell r="K28">
+            <v>6.4730290456431545</v>
+          </cell>
+          <cell r="L28">
+            <v>14.738246163725577</v>
+          </cell>
+          <cell r="M28">
+            <v>47.723559583036526</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>345.05</v>
+          </cell>
+          <cell r="C29">
+            <v>9.2605500930903611E-2</v>
+          </cell>
+          <cell r="D29">
+            <v>3380.9705552740825</v>
+          </cell>
+          <cell r="E29">
+            <v>3380.9705552740825</v>
+          </cell>
+          <cell r="F29">
+            <v>-1367.0205552740824</v>
+          </cell>
+          <cell r="G29">
+            <v>2359</v>
+          </cell>
+          <cell r="H29">
+            <v>2013.95</v>
+          </cell>
+          <cell r="I29">
+            <v>3931.2216666666668</v>
+          </cell>
+          <cell r="J29">
+            <v>60</v>
+          </cell>
+          <cell r="K29">
+            <v>8.7771697771642661</v>
+          </cell>
+          <cell r="L29">
+            <v>51.222830222835732</v>
+          </cell>
+          <cell r="M29">
+            <v>49.920352375485436</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>8.75</v>
+          </cell>
+          <cell r="C30">
+            <v>4.9018671827134902E-2</v>
+          </cell>
+          <cell r="D30">
+            <v>169.75340847375483</v>
+          </cell>
+          <cell r="E30">
+            <v>169.75340847375483</v>
+          </cell>
+          <cell r="F30">
+            <v>2161.4965915262451</v>
+          </cell>
+          <cell r="G30">
+            <v>2340</v>
+          </cell>
+          <cell r="H30">
+            <v>2331.25</v>
+          </cell>
+          <cell r="I30">
+            <v>3900.3416666666672</v>
+          </cell>
+          <cell r="J30">
+            <v>60</v>
+          </cell>
+          <cell r="K30">
+            <v>0.22433932070053689</v>
+          </cell>
+          <cell r="L30">
+            <v>59.775660679299463</v>
+          </cell>
+          <cell r="M30">
+            <v>50.728952268785491</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>4.9018671827134902E-2</v>
+          </cell>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
+          <cell r="E31">
+            <v>0</v>
+          </cell>
+          <cell r="F31">
+            <v>2335</v>
+          </cell>
+          <cell r="G31">
+            <v>2335</v>
+          </cell>
+          <cell r="H31">
+            <v>2335</v>
+          </cell>
+          <cell r="I31">
+            <v>3892.4783333333339</v>
+          </cell>
+          <cell r="J31">
+            <v>60</v>
+          </cell>
+          <cell r="K31">
+            <v>0</v>
+          </cell>
+          <cell r="L31">
+            <v>60</v>
+          </cell>
+          <cell r="M31">
+            <v>50.197925794332789</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Document"/>
       <sheetName val="Completion Factors"/>
@@ -568,6 +1456,8 @@
       <sheetName val="Premium"/>
       <sheetName val="PL"/>
       <sheetName val="Plan Code Table"/>
+      <sheetName val="CL_By_LOB"/>
+      <sheetName val="For Data for State Pages - IBNR"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -581,7 +1471,13 @@
         </row>
       </sheetData>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="5">
+        <row r="35">
+          <cell r="L35">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="6">
         <row r="3">
           <cell r="A3" t="str">
@@ -2650,12 +3546,14 @@
       </sheetData>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -3439,16 +4337,16 @@
             <v>8.75</v>
           </cell>
           <cell r="C30">
-            <v>31.890434112797557</v>
+            <v>6.8244564975439062</v>
           </cell>
           <cell r="D30">
-            <v>18.687694855613916</v>
+            <v>119.46533851302428</v>
           </cell>
           <cell r="E30">
-            <v>18.687694855613916</v>
+            <v>119.46533851302428</v>
           </cell>
           <cell r="F30">
-            <v>2319.5623051443863</v>
+            <v>2218.7846614869759</v>
           </cell>
           <cell r="G30">
             <v>2347</v>
@@ -3524,853 +4422,6 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Completion Factors"/>
-      <sheetName val="Summary"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="8">
-          <cell r="B8">
-            <v>199.38</v>
-          </cell>
-          <cell r="C8">
-            <v>1</v>
-          </cell>
-          <cell r="D8">
-            <v>0</v>
-          </cell>
-          <cell r="E8">
-            <v>0</v>
-          </cell>
-          <cell r="G8">
-            <v>199.38</v>
-          </cell>
-          <cell r="H8">
-            <v>0</v>
-          </cell>
-          <cell r="I8">
-            <v>4466.1799999999994</v>
-          </cell>
-          <cell r="J8">
-            <v>4.4642177431272367</v>
-          </cell>
-          <cell r="K8">
-            <v>4.4642177431272367</v>
-          </cell>
-          <cell r="L8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>3164.83</v>
-          </cell>
-          <cell r="C9">
-            <v>1</v>
-          </cell>
-          <cell r="D9">
-            <v>0</v>
-          </cell>
-          <cell r="E9">
-            <v>0</v>
-          </cell>
-          <cell r="G9">
-            <v>3164.83</v>
-          </cell>
-          <cell r="H9">
-            <v>0</v>
-          </cell>
-          <cell r="I9">
-            <v>4457.45</v>
-          </cell>
-          <cell r="J9">
-            <v>71.000908591234904</v>
-          </cell>
-          <cell r="K9">
-            <v>71.000908591234904</v>
-          </cell>
-          <cell r="L9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>320.14</v>
-          </cell>
-          <cell r="C10">
-            <v>1</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-          <cell r="E10">
-            <v>0</v>
-          </cell>
-          <cell r="G10">
-            <v>320.14</v>
-          </cell>
-          <cell r="H10">
-            <v>0</v>
-          </cell>
-          <cell r="I10">
-            <v>4445.47</v>
-          </cell>
-          <cell r="J10">
-            <v>7.2014882565847929</v>
-          </cell>
-          <cell r="K10">
-            <v>7.2014882565847929</v>
-          </cell>
-          <cell r="L10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>694.98</v>
-          </cell>
-          <cell r="C11">
-            <v>1</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0</v>
-          </cell>
-          <cell r="G11">
-            <v>694.98</v>
-          </cell>
-          <cell r="H11">
-            <v>0</v>
-          </cell>
-          <cell r="I11">
-            <v>4426.1266666666661</v>
-          </cell>
-          <cell r="J11">
-            <v>15.701764823720968</v>
-          </cell>
-          <cell r="K11">
-            <v>15.701764823720968</v>
-          </cell>
-          <cell r="L11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>823</v>
-          </cell>
-          <cell r="C12">
-            <v>1</v>
-          </cell>
-          <cell r="D12">
-            <v>0</v>
-          </cell>
-          <cell r="E12">
-            <v>0</v>
-          </cell>
-          <cell r="G12">
-            <v>823</v>
-          </cell>
-          <cell r="H12">
-            <v>0</v>
-          </cell>
-          <cell r="I12">
-            <v>4393.6783333333333</v>
-          </cell>
-          <cell r="J12">
-            <v>18.731457734540573</v>
-          </cell>
-          <cell r="K12">
-            <v>18.731457734540573</v>
-          </cell>
-          <cell r="L12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1086.57</v>
-          </cell>
-          <cell r="C13">
-            <v>1</v>
-          </cell>
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-          <cell r="G13">
-            <v>1086.57</v>
-          </cell>
-          <cell r="H13">
-            <v>0</v>
-          </cell>
-          <cell r="I13">
-            <v>4373.916666666667</v>
-          </cell>
-          <cell r="J13">
-            <v>24.842037075847351</v>
-          </cell>
-          <cell r="K13">
-            <v>24.842037075847351</v>
-          </cell>
-          <cell r="L13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>2896.74</v>
-          </cell>
-          <cell r="C14">
-            <v>1</v>
-          </cell>
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-          <cell r="E14">
-            <v>0</v>
-          </cell>
-          <cell r="G14">
-            <v>2896.74</v>
-          </cell>
-          <cell r="H14">
-            <v>0</v>
-          </cell>
-          <cell r="I14">
-            <v>4375.0616666666656</v>
-          </cell>
-          <cell r="J14">
-            <v>66.210266750525818</v>
-          </cell>
-          <cell r="K14">
-            <v>66.210266750525818</v>
-          </cell>
-          <cell r="L14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>8046.4600000000009</v>
-          </cell>
-          <cell r="C15">
-            <v>1</v>
-          </cell>
-          <cell r="D15">
-            <v>0</v>
-          </cell>
-          <cell r="E15">
-            <v>0</v>
-          </cell>
-          <cell r="G15">
-            <v>8046.4600000000009</v>
-          </cell>
-          <cell r="H15">
-            <v>0</v>
-          </cell>
-          <cell r="I15">
-            <v>4312.8950000000004</v>
-          </cell>
-          <cell r="J15">
-            <v>186.56749120950082</v>
-          </cell>
-          <cell r="K15">
-            <v>186.56749120950082</v>
-          </cell>
-          <cell r="L15">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>473.41</v>
-          </cell>
-          <cell r="C16">
-            <v>1</v>
-          </cell>
-          <cell r="D16">
-            <v>0</v>
-          </cell>
-          <cell r="E16">
-            <v>0</v>
-          </cell>
-          <cell r="G16">
-            <v>473.41</v>
-          </cell>
-          <cell r="H16">
-            <v>0</v>
-          </cell>
-          <cell r="I16">
-            <v>4277.5</v>
-          </cell>
-          <cell r="J16">
-            <v>11.067445938047925</v>
-          </cell>
-          <cell r="K16">
-            <v>11.067445938047927</v>
-          </cell>
-          <cell r="L16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>1454.97</v>
-          </cell>
-          <cell r="C17">
-            <v>1</v>
-          </cell>
-          <cell r="D17">
-            <v>0</v>
-          </cell>
-          <cell r="E17">
-            <v>0</v>
-          </cell>
-          <cell r="G17">
-            <v>1454.97</v>
-          </cell>
-          <cell r="H17">
-            <v>0</v>
-          </cell>
-          <cell r="I17">
-            <v>4272.4449999999997</v>
-          </cell>
-          <cell r="J17">
-            <v>34.054739148192667</v>
-          </cell>
-          <cell r="K17">
-            <v>34.054739148192667</v>
-          </cell>
-          <cell r="L17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>2116.44</v>
-          </cell>
-          <cell r="C18">
-            <v>1</v>
-          </cell>
-          <cell r="D18">
-            <v>0</v>
-          </cell>
-          <cell r="E18">
-            <v>0</v>
-          </cell>
-          <cell r="G18">
-            <v>2116.44</v>
-          </cell>
-          <cell r="H18">
-            <v>0</v>
-          </cell>
-          <cell r="I18">
-            <v>4233.7550000000001</v>
-          </cell>
-          <cell r="J18">
-            <v>49.989666383623991</v>
-          </cell>
-          <cell r="K18">
-            <v>49.989666383623991</v>
-          </cell>
-          <cell r="L18">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>2681.73</v>
-          </cell>
-          <cell r="C19">
-            <v>0.98495456024210026</v>
-          </cell>
-          <cell r="D19">
-            <v>40.964130519924822</v>
-          </cell>
-          <cell r="E19">
-            <v>40.964130519924822</v>
-          </cell>
-          <cell r="G19">
-            <v>2722.6941305199248</v>
-          </cell>
-          <cell r="H19">
-            <v>40.964130519924765</v>
-          </cell>
-          <cell r="I19">
-            <v>4154.583333333333</v>
-          </cell>
-          <cell r="J19">
-            <v>65.53470979087173</v>
-          </cell>
-          <cell r="K19">
-            <v>64.548711262661726</v>
-          </cell>
-          <cell r="L19">
-            <v>0.98599852821000411</v>
-          </cell>
-          <cell r="M19">
-            <v>45.985908472174273</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>985.09</v>
-          </cell>
-          <cell r="C20">
-            <v>0.51313742659582562</v>
-          </cell>
-          <cell r="D20">
-            <v>934.64913603442812</v>
-          </cell>
-          <cell r="E20">
-            <v>934.64913603442812</v>
-          </cell>
-          <cell r="G20">
-            <v>1919.7391360344282</v>
-          </cell>
-          <cell r="H20">
-            <v>934.64913603442812</v>
-          </cell>
-          <cell r="I20">
-            <v>4124.0950000000003</v>
-          </cell>
-          <cell r="J20">
-            <v>46.549343214315577</v>
-          </cell>
-          <cell r="K20">
-            <v>23.886210186719754</v>
-          </cell>
-          <cell r="L20">
-            <v>22.663133027595823</v>
-          </cell>
-          <cell r="M20">
-            <v>49.607469750671463</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>950.99</v>
-          </cell>
-          <cell r="C21">
-            <v>0.4801338402903339</v>
-          </cell>
-          <cell r="D21">
-            <v>1029.6868867300466</v>
-          </cell>
-          <cell r="E21">
-            <v>1029.6868867300466</v>
-          </cell>
-          <cell r="G21">
-            <v>1980.6768867300466</v>
-          </cell>
-          <cell r="H21">
-            <v>1029.6868867300466</v>
-          </cell>
-          <cell r="I21">
-            <v>4092.936666666666</v>
-          </cell>
-          <cell r="J21">
-            <v>48.3925613328176</v>
-          </cell>
-          <cell r="K21">
-            <v>23.234906314211234</v>
-          </cell>
-          <cell r="L21">
-            <v>25.157655018606366</v>
-          </cell>
-          <cell r="M21">
-            <v>47.658597830531932</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>969.24</v>
-          </cell>
-          <cell r="C22">
-            <v>0.46472923215025469</v>
-          </cell>
-          <cell r="D22">
-            <v>1116.3615351464455</v>
-          </cell>
-          <cell r="E22">
-            <v>1116.3615351464455</v>
-          </cell>
-          <cell r="G22">
-            <v>2085.6015351464457</v>
-          </cell>
-          <cell r="H22">
-            <v>1116.3615351464457</v>
-          </cell>
-          <cell r="I22">
-            <v>4057.166666666667</v>
-          </cell>
-          <cell r="J22">
-            <v>51.405369966227141</v>
-          </cell>
-          <cell r="K22">
-            <v>23.889578112804504</v>
-          </cell>
-          <cell r="L22">
-            <v>27.515791853422638</v>
-          </cell>
-          <cell r="M22">
-            <v>51.476101551392262</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>2293.81</v>
-          </cell>
-          <cell r="C23">
-            <v>0.46324904927489369</v>
-          </cell>
-          <cell r="D23">
-            <v>2657.7597951035505</v>
-          </cell>
-          <cell r="E23">
-            <v>2657.7597951035505</v>
-          </cell>
-          <cell r="G23">
-            <v>4951.5697951035509</v>
-          </cell>
-          <cell r="H23">
-            <v>2657.7597951035509</v>
-          </cell>
-          <cell r="I23">
-            <v>4056.085</v>
-          </cell>
-          <cell r="J23">
-            <v>122.07756482183068</v>
-          </cell>
-          <cell r="K23">
-            <v>56.552315841507259</v>
-          </cell>
-          <cell r="L23">
-            <v>65.525248980323425</v>
-          </cell>
-          <cell r="M23">
-            <v>60.243277729784218</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>837.56999999999994</v>
-          </cell>
-          <cell r="C24">
-            <v>0.42065321191398253</v>
-          </cell>
-          <cell r="D24">
-            <v>1153.547567340175</v>
-          </cell>
-          <cell r="E24">
-            <v>1153.547567340175</v>
-          </cell>
-          <cell r="F24">
-            <v>0</v>
-          </cell>
-          <cell r="G24">
-            <v>1991.1175673401749</v>
-          </cell>
-          <cell r="H24">
-            <v>1153.547567340175</v>
-          </cell>
-          <cell r="I24">
-            <v>4047.085</v>
-          </cell>
-          <cell r="J24">
-            <v>49.198807718152075</v>
-          </cell>
-          <cell r="K24">
-            <v>20.695636488979101</v>
-          </cell>
-          <cell r="L24">
-            <v>28.503171229172974</v>
-          </cell>
-          <cell r="M24">
-            <v>62.976474233052485</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>671.17000000000007</v>
-          </cell>
-          <cell r="C25">
-            <v>0.36432817621926239</v>
-          </cell>
-          <cell r="D25">
-            <v>1171.0427186673371</v>
-          </cell>
-          <cell r="E25">
-            <v>1171.0427186673371</v>
-          </cell>
-          <cell r="F25">
-            <v>0</v>
-          </cell>
-          <cell r="G25">
-            <v>1842.2127186673372</v>
-          </cell>
-          <cell r="H25">
-            <v>1171.0427186673371</v>
-          </cell>
-          <cell r="I25">
-            <v>4013.103333333333</v>
-          </cell>
-          <cell r="J25">
-            <v>45.904941030690402</v>
-          </cell>
-          <cell r="K25">
-            <v>16.724463445164218</v>
-          </cell>
-          <cell r="L25">
-            <v>29.180477585526184</v>
-          </cell>
-          <cell r="M25">
-            <v>64.941557905713125</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>170.46</v>
-          </cell>
-          <cell r="C26">
-            <v>0.36373652928952072</v>
-          </cell>
-          <cell r="D26">
-            <v>298.17591163899903</v>
-          </cell>
-          <cell r="E26">
-            <v>298.17591163899903</v>
-          </cell>
-          <cell r="F26">
-            <v>0</v>
-          </cell>
-          <cell r="G26">
-            <v>468.635911638999</v>
-          </cell>
-          <cell r="H26">
-            <v>298.17591163899897</v>
-          </cell>
-          <cell r="I26">
-            <v>3974.7616666666672</v>
-          </cell>
-          <cell r="J26">
-            <v>11.790289605766693</v>
-          </cell>
-          <cell r="K26">
-            <v>4.2885590205198882</v>
-          </cell>
-          <cell r="L26">
-            <v>7.501730585246805</v>
-          </cell>
-          <cell r="M26">
-            <v>60.57174767713299</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>353.23</v>
-          </cell>
-          <cell r="C27">
-            <v>0.36369755543984472</v>
-          </cell>
-          <cell r="D27">
-            <v>617.9890657229314</v>
-          </cell>
-          <cell r="E27">
-            <v>617.9890657229314</v>
-          </cell>
-          <cell r="F27">
-            <v>0</v>
-          </cell>
-          <cell r="G27">
-            <v>971.21906572293142</v>
-          </cell>
-          <cell r="H27">
-            <v>617.9890657229314</v>
-          </cell>
-          <cell r="I27">
-            <v>3943.9416666666662</v>
-          </cell>
-          <cell r="J27">
-            <v>24.625594083489187</v>
-          </cell>
-          <cell r="K27">
-            <v>8.9562683694189218</v>
-          </cell>
-          <cell r="L27">
-            <v>15.669325714070265</v>
-          </cell>
-          <cell r="M27">
-            <v>46.658827733554112</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>254.8</v>
-          </cell>
-          <cell r="C28">
-            <v>0.30516925464170602</v>
-          </cell>
-          <cell r="D28">
-            <v>580.14649649145122</v>
-          </cell>
-          <cell r="E28">
-            <v>580.14649649145122</v>
-          </cell>
-          <cell r="F28">
-            <v>0</v>
-          </cell>
-          <cell r="G28">
-            <v>834.94649649145117</v>
-          </cell>
-          <cell r="H28">
-            <v>580.14649649145122</v>
-          </cell>
-          <cell r="I28">
-            <v>3936.333333333333</v>
-          </cell>
-          <cell r="J28">
-            <v>21.211275209368733</v>
-          </cell>
-          <cell r="K28">
-            <v>6.4730290456431545</v>
-          </cell>
-          <cell r="L28">
-            <v>14.738246163725577</v>
-          </cell>
-          <cell r="M28">
-            <v>47.723559583036526</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>345.05</v>
-          </cell>
-          <cell r="C29">
-            <v>9.2605500930903611E-2</v>
-          </cell>
-          <cell r="D29">
-            <v>3380.9705552740825</v>
-          </cell>
-          <cell r="E29">
-            <v>3380.9705552740825</v>
-          </cell>
-          <cell r="F29">
-            <v>-1367.0205552740824</v>
-          </cell>
-          <cell r="G29">
-            <v>2359</v>
-          </cell>
-          <cell r="H29">
-            <v>2013.95</v>
-          </cell>
-          <cell r="I29">
-            <v>3931.2216666666668</v>
-          </cell>
-          <cell r="J29">
-            <v>60</v>
-          </cell>
-          <cell r="K29">
-            <v>8.7771697771642661</v>
-          </cell>
-          <cell r="L29">
-            <v>51.222830222835732</v>
-          </cell>
-          <cell r="M29">
-            <v>49.920352375485436</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>8.75</v>
-          </cell>
-          <cell r="C30">
-            <v>4.9018671827134902E-2</v>
-          </cell>
-          <cell r="D30">
-            <v>169.75340847375483</v>
-          </cell>
-          <cell r="E30">
-            <v>169.75340847375483</v>
-          </cell>
-          <cell r="F30">
-            <v>2161.4965915262451</v>
-          </cell>
-          <cell r="G30">
-            <v>2340</v>
-          </cell>
-          <cell r="H30">
-            <v>2331.25</v>
-          </cell>
-          <cell r="I30">
-            <v>3900.3416666666672</v>
-          </cell>
-          <cell r="J30">
-            <v>60</v>
-          </cell>
-          <cell r="K30">
-            <v>0.22433932070053689</v>
-          </cell>
-          <cell r="L30">
-            <v>59.775660679299463</v>
-          </cell>
-          <cell r="M30">
-            <v>50.728952268785491</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>4.9018671827134902E-2</v>
-          </cell>
-          <cell r="D31">
-            <v>0</v>
-          </cell>
-          <cell r="E31">
-            <v>0</v>
-          </cell>
-          <cell r="F31">
-            <v>2335</v>
-          </cell>
-          <cell r="G31">
-            <v>2335</v>
-          </cell>
-          <cell r="H31">
-            <v>2335</v>
-          </cell>
-          <cell r="I31">
-            <v>3892.4783333333339</v>
-          </cell>
-          <cell r="J31">
-            <v>60</v>
-          </cell>
-          <cell r="K31">
-            <v>0</v>
-          </cell>
-          <cell r="L31">
-            <v>60</v>
-          </cell>
-          <cell r="M31">
-            <v>50.197925794332789</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4693,10 +4744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X62"/>
+  <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M49" sqref="M44:M49"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6878,13 +6929,1842 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
+      <c r="D62" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>+IFERROR(1/C38,0)</f>
+        <v>0.90841608987862388</v>
+      </c>
+      <c r="D66">
+        <f>+IFERROR(1/D38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <f>+IFERROR(1/E38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f>+IFERROR(1/F38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <f>+IFERROR(1/G38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <f>+IFERROR(1/H38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f>+IFERROR(1/I38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <f>+IFERROR(1/J38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <f>+IFERROR(1/K38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <f>+IFERROR(1/L38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <f>+IFERROR(1/M38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <f>+IFERROR(1/N38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <f>+IFERROR(1/O38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <f>+IFERROR(1/P38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <f>+IFERROR(1/Q38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <f>+IFERROR(1/R38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <f>+IFERROR(1/S38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <f>+IFERROR(1/T38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <f>+IFERROR(1/U38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <f>+IFERROR(1/V38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <f>+IFERROR(1/W38,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <f>+IFERROR(1/X38,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <f t="shared" ref="A67:A88" si="7">1+A66</f>
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:D88" si="8">+IFERROR(1/C39,0)</f>
+        <v>7.8043031611443089E-2</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="8"/>
+        <v>0.9937812878952772</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:F67" si="9">+IFERROR(1/E39,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:H67" si="10">+IFERROR(1/G39,0)</f>
+        <v>0.30485997668121201</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:J67" si="11">+IFERROR(1/I39,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:L67" si="12">+IFERROR(1/K39,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:N67" si="13">+IFERROR(1/M39,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:P67" si="14">+IFERROR(1/O39,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:R67" si="15">+IFERROR(1/Q39,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ref="S67:T67" si="16">+IFERROR(1/S39,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:V67" si="17">+IFERROR(1/U39,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:X67" si="18">+IFERROR(1/W39,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:F68" si="19">+IFERROR(1/E40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:H68" si="20">+IFERROR(1/G40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:J68" si="21">+IFERROR(1/I40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:L68" si="22">+IFERROR(1/K40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <f t="shared" ref="M68:N68" si="23">+IFERROR(1/M40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <f t="shared" ref="O68:P68" si="24">+IFERROR(1/O40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ref="Q68:R68" si="25">+IFERROR(1/Q40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <f t="shared" ref="S68:T68" si="26">+IFERROR(1/S40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <f t="shared" ref="U68:V68" si="27">+IFERROR(1/U40,0)</f>
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="8"/>
+        <v>0.27784972229416671</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:F69" si="28">+IFERROR(1/E41,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:H69" si="29">+IFERROR(1/G41,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:J69" si="30">+IFERROR(1/I41,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <f t="shared" ref="K69:L69" si="31">+IFERROR(1/K41,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ref="M69:N69" si="32">+IFERROR(1/M41,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <f t="shared" ref="O69:P69" si="33">+IFERROR(1/O41,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" ref="Q69:R69" si="34">+IFERROR(1/Q41,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <f t="shared" ref="S69:T69" si="35">+IFERROR(1/S41,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <f t="shared" ref="U69:V69" si="36">+IFERROR(1/U41,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="8"/>
+        <v>0.11415375812318634</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="8"/>
+        <v>0.97041208900170539</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70:F70" si="37">+IFERROR(1/E42,0)</f>
+        <v>0.71535373310067951</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ref="G70:H70" si="38">+IFERROR(1/G42,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <f t="shared" ref="I70:J70" si="39">+IFERROR(1/I42,0)</f>
+        <v>0.93794158738606848</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="39"/>
+        <v>0.91318347509112974</v>
+      </c>
+      <c r="K70">
+        <f t="shared" ref="K70:L70" si="40">+IFERROR(1/K42,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ref="M70:N70" si="41">+IFERROR(1/M42,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <f t="shared" ref="O70:P70" si="42">+IFERROR(1/O42,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" ref="Q70:R70" si="43">+IFERROR(1/Q42,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:T70" si="44">+IFERROR(1/S42,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="8"/>
+        <v>0.41476274165202115</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71:F71" si="45">+IFERROR(1/E43,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71:H71" si="46">+IFERROR(1/G43,0)</f>
+        <v>4.1893297256504411E-2</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ref="I71:J71" si="47">+IFERROR(1/I43,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ref="K71:L71" si="48">+IFERROR(1/K43,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <f t="shared" ref="M71:N71" si="49">+IFERROR(1/M43,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <f t="shared" ref="O71:P71" si="50">+IFERROR(1/O43,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" ref="Q71:R71" si="51">+IFERROR(1/Q43,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <f t="shared" ref="S71" si="52">+IFERROR(1/S43,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="8"/>
+        <v>0.99801846213329448</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:F72" si="53">+IFERROR(1/E44,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ref="G72:H72" si="54">+IFERROR(1/G44,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ref="I72:J72" si="55">+IFERROR(1/I44,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ref="K72:L72" si="56">+IFERROR(1/K44,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <f t="shared" ref="M72:N72" si="57">+IFERROR(1/M44,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <f t="shared" ref="O72:P72" si="58">+IFERROR(1/O44,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" ref="Q72:R72" si="59">+IFERROR(1/Q44,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="8"/>
+        <v>0.388305547701017</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73:F73" si="60">+IFERROR(1/E45,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <f t="shared" ref="G73:H73" si="61">+IFERROR(1/G45,0)</f>
+        <v>0.95378742381778558</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <f t="shared" ref="I73:J73" si="62">+IFERROR(1/I45,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ref="K73:L73" si="63">+IFERROR(1/K45,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <f t="shared" ref="M73:N73" si="64">+IFERROR(1/M45,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="64"/>
+        <v>0.89396827921843913</v>
+      </c>
+      <c r="O73">
+        <f t="shared" ref="O73:P73" si="65">+IFERROR(1/O45,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" ref="Q73" si="66">+IFERROR(1/Q45,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="8"/>
+        <v>0.72836241847347072</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74:F74" si="67">+IFERROR(1/E46,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <f t="shared" ref="G74:H74" si="68">+IFERROR(1/G46,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ref="I74:J74" si="69">+IFERROR(1/I46,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ref="K74:L74" si="70">+IFERROR(1/K46,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <f t="shared" ref="M74:N74" si="71">+IFERROR(1/M46,0)</f>
+        <v>0.11983270315371453</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <f t="shared" ref="O74:P74" si="72">+IFERROR(1/O46,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ref="E75:F75" si="73">+IFERROR(1/E47,0)</f>
+        <v>0.32967583546269857</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ref="G75:H75" si="74">+IFERROR(1/G47,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="74"/>
+        <v>0.41741258156265676</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ref="I75:J75" si="75">+IFERROR(1/I47,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ref="K75:L75" si="76">+IFERROR(1/K47,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="76"/>
+        <v>0.65727815693794378</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ref="M75:N75" si="77">+IFERROR(1/M47,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <f t="shared" ref="O75" si="78">+IFERROR(1/O47,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ref="E76:F76" si="79">+IFERROR(1/E48,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f t="shared" ref="G76:H76" si="80">+IFERROR(1/G48,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ref="I76:J76" si="81">+IFERROR(1/I48,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <f t="shared" ref="K76:L76" si="82">+IFERROR(1/K48,0)</f>
+        <v>0.80007465366369912</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ref="M76:N76" si="83">+IFERROR(1/M48,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="83"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="8"/>
+        <v>0.78780149202826499</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77:F77" si="84">+IFERROR(1/E49,0)</f>
+        <v>0.77626382969202712</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77:H77" si="85">+IFERROR(1/G49,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="85"/>
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" ref="I77:J77" si="86">+IFERROR(1/I49,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <f t="shared" ref="K77:L77" si="87">+IFERROR(1/K49,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ref="M77" si="88">+IFERROR(1/M49,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="8"/>
+        <v>0.96371567122352952</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="8"/>
+        <v>0.77391796322489359</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ref="E78:F78" si="89">+IFERROR(1/E50,0)</f>
+        <v>0.93936011904761862</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <f t="shared" ref="G78:H78" si="90">+IFERROR(1/G50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="90"/>
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ref="I78:J78" si="91">+IFERROR(1/I50,0)</f>
+        <v>0.57302378462881576</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <f t="shared" ref="K78:L78" si="92">+IFERROR(1/K50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="8"/>
+        <v>0.90936732545901089</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="8"/>
+        <v>0.96734416833213899</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ref="E79:F79" si="93">+IFERROR(1/E51,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ref="G79:H79" si="94">+IFERROR(1/G51,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="94"/>
+        <v>0.55771354062608436</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ref="I79:J79" si="95">+IFERROR(1/I51,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <f t="shared" ref="K79" si="96">+IFERROR(1/K51,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="8"/>
+        <v>0.70646884056650205</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E80:F80" si="97">+IFERROR(1/E52,0)</f>
+        <v>0.56604143452602051</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ref="G80:H80" si="98">+IFERROR(1/G52,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ref="I80:J80" si="99">+IFERROR(1/I52,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="8"/>
+        <v>0.77767874442937446</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="8"/>
+        <v>0.80400142431121191</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ref="E81:F81" si="100">+IFERROR(1/E53,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="100"/>
+        <v>0.99919502248155478</v>
+      </c>
+      <c r="G81">
+        <f t="shared" ref="G81:H81" si="101">+IFERROR(1/G53,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="101"/>
+        <v>0.98025119778883163</v>
+      </c>
+      <c r="I81">
+        <f t="shared" ref="I81" si="102">+IFERROR(1/I53,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="8"/>
+        <v>0.21664113281075695</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="8"/>
+        <v>0.86013842866829626</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ref="E82:F82" si="103">+IFERROR(1/E54,0)</f>
+        <v>0.93321155246725607</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="103"/>
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <f t="shared" ref="G82:H82" si="104">+IFERROR(1/G54,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="8"/>
+        <v>5.5425600071516902E-2</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83:F83" si="105">+IFERROR(1/E55,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ref="G83" si="106">+IFERROR(1/G55,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="8"/>
+        <v>0.43671520367859473</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="8"/>
+        <v>0.99513082248034757</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ref="E84:F84" si="107">+IFERROR(1/E56,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ref="E85" si="108">+IFERROR(1/E57,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="8"/>
+        <v>0.84403453689167951</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A89" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="39">
+        <f>+AVERAGE(B83:B88)</f>
+        <v>0</v>
+      </c>
+      <c r="C90" s="39">
+        <f>+AVERAGE(C82:C87)</f>
+        <v>0.58289847889683843</v>
+      </c>
+      <c r="D90" s="39">
+        <f>+AVERAGE(D81:D86)</f>
+        <v>0.78578271258856214</v>
+      </c>
+      <c r="E90" s="39">
+        <f>+AVERAGE(E80:E85)</f>
+        <v>0.91654216449887949</v>
+      </c>
+      <c r="F90" s="39">
+        <f>+AVERAGE(F79:F84)</f>
+        <v>0.99986583708025911</v>
+      </c>
+      <c r="G90" s="39">
+        <f>+AVERAGE(G78:G83)</f>
+        <v>1</v>
+      </c>
+      <c r="H90" s="39">
+        <f>+AVERAGE(H77:H82)</f>
+        <v>0.92299412306915274</v>
+      </c>
+      <c r="I90" s="39">
+        <f>+AVERAGE(I76:I81)</f>
+        <v>0.92883729743813603</v>
+      </c>
+      <c r="J90" s="39">
+        <f>+AVERAGE(J75:J80)</f>
+        <v>1</v>
+      </c>
+      <c r="K90" s="39">
+        <f>+AVERAGE(K74:K79)</f>
+        <v>0.96667910894394993</v>
+      </c>
+      <c r="L90" s="39">
+        <f>+AVERAGE(L73:L78)</f>
+        <v>0.94287969282299056</v>
+      </c>
+      <c r="M90" s="39">
+        <f>+AVERAGE(M72:M77)</f>
+        <v>0.85330545052561912</v>
+      </c>
+      <c r="N90" s="39">
+        <f>+AVERAGE(N71:N76)</f>
+        <v>0.9823280465364066</v>
+      </c>
+      <c r="O90" s="39">
+        <f>+AVERAGE(O70:O75)</f>
+        <v>1</v>
+      </c>
+      <c r="P90" s="39">
+        <f>+AVERAGE(P69:P74)</f>
+        <v>1</v>
+      </c>
+      <c r="Q90" s="39">
+        <f>+AVERAGE(Q68:Q73)</f>
+        <v>1</v>
+      </c>
+      <c r="R90" s="39">
+        <f>+AVERAGE(R67:R72)</f>
+        <v>1</v>
+      </c>
+      <c r="S90" s="39">
+        <f>+AVERAGE(S66:S71)</f>
+        <v>1</v>
+      </c>
+      <c r="T90" s="39">
+        <f>+AVERAGE(T66:T70)</f>
+        <v>1</v>
+      </c>
+      <c r="U90" s="39">
+        <f>+AVERAGE(U66:U69)</f>
+        <v>1</v>
+      </c>
+      <c r="V90" s="39">
+        <f>+AVERAGE(V66:V69)</f>
+        <v>1</v>
+      </c>
+      <c r="W90" s="39">
+        <f t="shared" ref="W90:Y90" si="109">+AVERAGE(W66:W69)</f>
+        <v>1</v>
+      </c>
+      <c r="X90" s="39">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" s="39">
+        <f t="shared" ref="B91:V91" si="110">+B90*C91</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="39">
+        <f t="shared" si="110"/>
+        <v>0.2749336081597234</v>
+      </c>
+      <c r="D91" s="39">
+        <f t="shared" si="110"/>
+        <v>0.47166636749515561</v>
+      </c>
+      <c r="E91" s="39">
+        <f t="shared" si="110"/>
+        <v>0.60025037448504082</v>
+      </c>
+      <c r="F91" s="39">
+        <f t="shared" si="110"/>
+        <v>0.65490754024745645</v>
+      </c>
+      <c r="G91" s="39">
+        <f t="shared" si="110"/>
+        <v>0.65499541634493019</v>
+      </c>
+      <c r="H91" s="39">
+        <f t="shared" si="110"/>
+        <v>0.65499541634493019</v>
+      </c>
+      <c r="I91" s="39">
+        <f t="shared" si="110"/>
+        <v>0.70964202260240883</v>
+      </c>
+      <c r="J91" s="39">
+        <f t="shared" si="110"/>
+        <v>0.76401111858847759</v>
+      </c>
+      <c r="K91" s="39">
+        <f t="shared" si="110"/>
+        <v>0.76401111858847759</v>
+      </c>
+      <c r="L91" s="39">
+        <f t="shared" si="110"/>
+        <v>0.79034615677494335</v>
+      </c>
+      <c r="M91" s="39">
+        <f t="shared" si="110"/>
+        <v>0.83822587631369982</v>
+      </c>
+      <c r="N91" s="39">
+        <f t="shared" si="110"/>
+        <v>0.9823280465364066</v>
+      </c>
+      <c r="O91" s="39">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="P91" s="39">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="Q91" s="39">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="R91" s="39">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="S91" s="39">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="T91" s="39">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="U91" s="39">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="V91" s="39">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="W91" s="39">
+        <f>+W90*X91</f>
+        <v>1</v>
+      </c>
+      <c r="X91" s="39">
+        <f>+X90</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A93" s="41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" s="33">
+        <f>+IFERROR(AVERAGE(B55:B60),1)</f>
+        <v>1</v>
+      </c>
+      <c r="C94" s="33">
+        <f>+IFERROR(AVERAGE(C54:C59),1)</f>
+        <v>2.0181072102840916</v>
+      </c>
+      <c r="D94" s="33">
+        <f>+IFERROR(AVERAGE(D53:D58),1)</f>
+        <v>3.9089132925806154</v>
+      </c>
+      <c r="E94" s="33">
+        <f>+IFERROR(AVERAGE(E52:E57),1)</f>
+        <v>1.1397039186493092</v>
+      </c>
+      <c r="F94" s="33">
+        <f>+IFERROR(AVERAGE(F51:F56),1)</f>
+        <v>1.0001342710048811</v>
+      </c>
+      <c r="G94" s="33">
+        <f>+IFERROR(AVERAGE(G50:G55),1)</f>
+        <v>1</v>
+      </c>
+      <c r="H94" s="33">
+        <f>+IFERROR(AVERAGE(H49:H54),1)</f>
+        <v>1.1355303095385452</v>
+      </c>
+      <c r="I94" s="33">
+        <f>+IFERROR(AVERAGE(I48:I53),1)</f>
+        <v>1.1241880432728646</v>
+      </c>
+      <c r="J94" s="33">
+        <f>+IFERROR(AVERAGE(J47:J52),1)</f>
+        <v>1</v>
+      </c>
+      <c r="K94" s="33">
+        <f>+IFERROR(AVERAGE(K46:K51),1)</f>
+        <v>1.0416472274224251</v>
+      </c>
+      <c r="L94" s="33">
+        <f>+IFERROR(AVERAGE(L45:L50),1)</f>
+        <v>1.0869043137582957</v>
+      </c>
+      <c r="M94" s="33">
+        <f>+IFERROR(AVERAGE(M44:M49),1)</f>
+        <v>2.2241612315647221</v>
+      </c>
+      <c r="N94" s="33">
+        <f>+IFERROR(AVERAGE(N43:N48),1)</f>
+        <v>1.0197679871583849</v>
+      </c>
+      <c r="O94" s="33">
+        <f>+IFERROR(AVERAGE(O42:O47),1)</f>
+        <v>1</v>
+      </c>
+      <c r="P94" s="33">
+        <f>+IFERROR(AVERAGE(P41:P46),1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q94" s="33">
+        <f>+IFERROR(AVERAGE(Q40:Q45),1)</f>
+        <v>1</v>
+      </c>
+      <c r="R94" s="33">
+        <f>+IFERROR(AVERAGE(R39:R44),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S94" s="33">
+        <f>+IFERROR(AVERAGE(S38:S43),1)</f>
+        <v>1</v>
+      </c>
+      <c r="T94" s="33">
+        <f t="shared" ref="T94:X94" si="111">+IFERROR(AVERAGE(T38:T43),1)</f>
+        <v>1</v>
+      </c>
+      <c r="U94" s="33">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="V94" s="33">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="W94" s="33">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="X94" s="33">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" s="33">
+        <f t="shared" ref="B95:V95" si="112">+B94*C95</f>
+        <v>29.475958069351041</v>
+      </c>
+      <c r="C95" s="33">
+        <f t="shared" si="112"/>
+        <v>29.475958069351041</v>
+      </c>
+      <c r="D95" s="33">
+        <f t="shared" si="112"/>
+        <v>14.605744392143405</v>
+      </c>
+      <c r="E95" s="33">
+        <f t="shared" si="112"/>
+        <v>3.7365229921743484</v>
+      </c>
+      <c r="F95" s="33">
+        <f t="shared" si="112"/>
+        <v>3.2785032419670825</v>
+      </c>
+      <c r="G95" s="33">
+        <f t="shared" si="112"/>
+        <v>3.2780630931415029</v>
+      </c>
+      <c r="H95" s="33">
+        <f t="shared" si="112"/>
+        <v>3.2780630931415029</v>
+      </c>
+      <c r="I95" s="33">
+        <f t="shared" si="112"/>
+        <v>2.8868125012652781</v>
+      </c>
+      <c r="J95" s="33">
+        <f t="shared" si="112"/>
+        <v>2.5679089174982326</v>
+      </c>
+      <c r="K95" s="33">
+        <f t="shared" si="112"/>
+        <v>2.5679089174982326</v>
+      </c>
+      <c r="L95" s="33">
+        <f t="shared" si="112"/>
+        <v>2.4652385662779226</v>
+      </c>
+      <c r="M95" s="33">
+        <f t="shared" si="112"/>
+        <v>2.2681284222284712</v>
+      </c>
+      <c r="N95" s="33">
+        <f t="shared" si="112"/>
+        <v>1.0197679871583849</v>
+      </c>
+      <c r="O95" s="33">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="P95" s="33">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="Q95" s="33">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="R95" s="33">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="S95" s="33">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="T95" s="33">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="U95" s="33">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="V95" s="33">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="W95" s="33">
+        <f>+W94*X95</f>
+        <v>1</v>
+      </c>
+      <c r="X95" s="33">
+        <f>+X94</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" s="39">
+        <f>1/B95</f>
+        <v>3.3925954082550933E-2</v>
+      </c>
+      <c r="C96" s="39">
+        <f t="shared" ref="C96:X96" si="113">1/C95</f>
+        <v>3.3925954082550933E-2</v>
+      </c>
+      <c r="D96" s="39">
+        <f t="shared" si="113"/>
+        <v>6.8466212549763039E-2</v>
+      </c>
+      <c r="E96" s="39">
+        <f t="shared" si="113"/>
+        <v>0.26762848832841851</v>
+      </c>
+      <c r="F96" s="39">
+        <f t="shared" si="113"/>
+        <v>0.30501723689008947</v>
+      </c>
+      <c r="G96" s="39">
+        <f t="shared" si="113"/>
+        <v>0.30505819186099276</v>
+      </c>
+      <c r="H96" s="39">
+        <f t="shared" si="113"/>
+        <v>0.30505819186099276</v>
+      </c>
+      <c r="I96" s="39">
+        <f t="shared" si="113"/>
+        <v>0.34640282303118203</v>
+      </c>
+      <c r="J96" s="39">
+        <f t="shared" si="113"/>
+        <v>0.38942191180762092</v>
+      </c>
+      <c r="K96" s="39">
+        <f t="shared" si="113"/>
+        <v>0.38942191180762092</v>
+      </c>
+      <c r="L96" s="39">
+        <f t="shared" si="113"/>
+        <v>0.40564025473194848</v>
+      </c>
+      <c r="M96" s="39">
+        <f t="shared" si="113"/>
+        <v>0.44089214270216875</v>
+      </c>
+      <c r="N96" s="39">
+        <f t="shared" si="113"/>
+        <v>0.98061521109966487</v>
+      </c>
+      <c r="O96" s="39">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="P96" s="39">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="Q96" s="39">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="R96" s="39">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="S96" s="39">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="T96" s="39">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="U96" s="39">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="V96" s="39">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="W96" s="39">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="X96" s="39">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="40">
+        <f>+C96-B96</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="40">
+        <f>+D96-C96</f>
+        <v>3.4540258467212107E-2</v>
+      </c>
+      <c r="D97" s="40">
+        <f>+E96-D96</f>
+        <v>0.19916227577865547</v>
+      </c>
+      <c r="E97" s="40">
+        <f>+F96-E96</f>
+        <v>3.7388748561670959E-2</v>
+      </c>
+      <c r="F97" s="40">
+        <f>+G96-F96</f>
+        <v>4.0954970903284149E-5</v>
+      </c>
+      <c r="G97" s="40">
+        <f>+H96-G96</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="40">
+        <f>+I96-H96</f>
+        <v>4.1344631170189272E-2</v>
+      </c>
+      <c r="I97" s="40">
+        <f>+J96-I96</f>
+        <v>4.3019088776438896E-2</v>
+      </c>
+      <c r="J97" s="40">
+        <f>+K96-J96</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="40">
+        <f>+L96-K96</f>
+        <v>1.6218342924327556E-2</v>
+      </c>
+      <c r="L97" s="40">
+        <f>+M96-L96</f>
+        <v>3.5251887970220275E-2</v>
+      </c>
+      <c r="M97" s="40">
+        <f>+N96-M96</f>
+        <v>0.53972306839749606</v>
+      </c>
+      <c r="N97" s="40">
+        <f>+O96-N96</f>
+        <v>1.9384788900335126E-2</v>
+      </c>
+      <c r="O97" s="40">
+        <f>+P96-O96</f>
+        <v>0</v>
+      </c>
+      <c r="P97" s="40">
+        <f>+Q96-P96</f>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="40">
+        <f>+R96-Q96</f>
+        <v>0</v>
+      </c>
+      <c r="R97" s="40">
+        <f>+S96-R96</f>
+        <v>0</v>
+      </c>
+      <c r="S97" s="40">
+        <f>+T96-S96</f>
+        <v>0</v>
+      </c>
+      <c r="T97" s="40">
+        <f>+U96-T96</f>
+        <v>0</v>
+      </c>
+      <c r="U97" s="40">
+        <f>+V96-U96</f>
+        <v>0</v>
+      </c>
+      <c r="V97" s="40">
+        <f>+W96-V96</f>
+        <v>0</v>
+      </c>
+      <c r="W97" s="40">
+        <f>+X96-W96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6892,10 +8772,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:AR73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7176,51 +9056,51 @@
         <v>44652</v>
       </c>
       <c r="B8" s="13">
-        <f>+[3]Summary!B8</f>
+        <f>+[1]Summary!B8</f>
         <v>199.38</v>
       </c>
       <c r="C8" s="18">
-        <f>+[3]Summary!C8</f>
+        <f>+[1]Summary!C8</f>
         <v>1</v>
       </c>
       <c r="D8" s="13">
-        <f>+[3]Summary!D8</f>
+        <f>+[1]Summary!D8</f>
         <v>0</v>
       </c>
       <c r="E8" s="13">
-        <f>+[3]Summary!E8</f>
+        <f>+[1]Summary!E8</f>
         <v>0</v>
       </c>
       <c r="F8" s="13">
-        <f>+[3]Summary!F8</f>
+        <f>+[1]Summary!F8</f>
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <f>+[3]Summary!G8</f>
+        <f>+[1]Summary!G8</f>
         <v>199.38</v>
       </c>
       <c r="H8" s="14">
-        <f>+[3]Summary!H8</f>
+        <f>+[1]Summary!H8</f>
         <v>0</v>
       </c>
       <c r="I8" s="13">
-        <f>+[3]Summary!I8</f>
+        <f>+[1]Summary!I8</f>
         <v>4466.1799999999994</v>
       </c>
       <c r="J8" s="13">
-        <f>+[3]Summary!J8</f>
+        <f>+[1]Summary!J8</f>
         <v>4.4642177431272367</v>
       </c>
       <c r="K8" s="13">
-        <f>+[3]Summary!K8</f>
+        <f>+[1]Summary!K8</f>
         <v>4.4642177431272367</v>
       </c>
       <c r="L8" s="13">
-        <f>+[3]Summary!L8</f>
+        <f>+[1]Summary!L8</f>
         <v>0</v>
       </c>
       <c r="M8" s="13">
-        <f>+[3]Summary!M8</f>
+        <f>+[1]Summary!M8</f>
         <v>0</v>
       </c>
       <c r="N8" s="13"/>
@@ -7309,51 +9189,51 @@
         <v>44682</v>
       </c>
       <c r="B9" s="13">
-        <f>+[3]Summary!B9</f>
+        <f>+[1]Summary!B9</f>
         <v>3164.83</v>
       </c>
       <c r="C9" s="18">
-        <f>+[3]Summary!C9</f>
+        <f>+[1]Summary!C9</f>
         <v>1</v>
       </c>
       <c r="D9" s="13">
-        <f>+[3]Summary!D9</f>
+        <f>+[1]Summary!D9</f>
         <v>0</v>
       </c>
       <c r="E9" s="13">
-        <f>+[3]Summary!E9</f>
+        <f>+[1]Summary!E9</f>
         <v>0</v>
       </c>
       <c r="F9" s="13">
-        <f>+[3]Summary!F9</f>
+        <f>+[1]Summary!F9</f>
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <f>+[3]Summary!G9</f>
+        <f>+[1]Summary!G9</f>
         <v>3164.83</v>
       </c>
       <c r="H9" s="14">
-        <f>+[3]Summary!H9</f>
+        <f>+[1]Summary!H9</f>
         <v>0</v>
       </c>
       <c r="I9" s="13">
-        <f>+[3]Summary!I9</f>
+        <f>+[1]Summary!I9</f>
         <v>4457.45</v>
       </c>
       <c r="J9" s="13">
-        <f>+[3]Summary!J9</f>
+        <f>+[1]Summary!J9</f>
         <v>71.000908591234904</v>
       </c>
       <c r="K9" s="13">
-        <f>+[3]Summary!K9</f>
+        <f>+[1]Summary!K9</f>
         <v>71.000908591234904</v>
       </c>
       <c r="L9" s="13">
-        <f>+[3]Summary!L9</f>
+        <f>+[1]Summary!L9</f>
         <v>0</v>
       </c>
       <c r="M9" s="13">
-        <f>+[3]Summary!M9</f>
+        <f>+[1]Summary!M9</f>
         <v>0</v>
       </c>
       <c r="N9" s="13"/>
@@ -7440,51 +9320,51 @@
         <v>44713</v>
       </c>
       <c r="B10" s="13">
-        <f>+[3]Summary!B10</f>
+        <f>+[1]Summary!B10</f>
         <v>320.14</v>
       </c>
       <c r="C10" s="18">
-        <f>+[3]Summary!C10</f>
+        <f>+[1]Summary!C10</f>
         <v>1</v>
       </c>
       <c r="D10" s="13">
-        <f>+[3]Summary!D10</f>
+        <f>+[1]Summary!D10</f>
         <v>0</v>
       </c>
       <c r="E10" s="13">
-        <f>+[3]Summary!E10</f>
+        <f>+[1]Summary!E10</f>
         <v>0</v>
       </c>
       <c r="F10" s="13">
-        <f>+[3]Summary!F10</f>
+        <f>+[1]Summary!F10</f>
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <f>+[3]Summary!G10</f>
+        <f>+[1]Summary!G10</f>
         <v>320.14</v>
       </c>
       <c r="H10" s="14">
-        <f>+[3]Summary!H10</f>
+        <f>+[1]Summary!H10</f>
         <v>0</v>
       </c>
       <c r="I10" s="13">
-        <f>+[3]Summary!I10</f>
+        <f>+[1]Summary!I10</f>
         <v>4445.47</v>
       </c>
       <c r="J10" s="13">
-        <f>+[3]Summary!J10</f>
+        <f>+[1]Summary!J10</f>
         <v>7.2014882565847929</v>
       </c>
       <c r="K10" s="13">
-        <f>+[3]Summary!K10</f>
+        <f>+[1]Summary!K10</f>
         <v>7.2014882565847929</v>
       </c>
       <c r="L10" s="13">
-        <f>+[3]Summary!L10</f>
+        <f>+[1]Summary!L10</f>
         <v>0</v>
       </c>
       <c r="M10" s="13">
-        <f>+[3]Summary!M10</f>
+        <f>+[1]Summary!M10</f>
         <v>0</v>
       </c>
       <c r="N10" s="13"/>
@@ -7567,51 +9447,51 @@
         <v>44743</v>
       </c>
       <c r="B11" s="13">
-        <f>+[3]Summary!B11</f>
+        <f>+[1]Summary!B11</f>
         <v>694.98</v>
       </c>
       <c r="C11" s="18">
-        <f>+[3]Summary!C11</f>
+        <f>+[1]Summary!C11</f>
         <v>1</v>
       </c>
       <c r="D11" s="13">
-        <f>+[3]Summary!D11</f>
+        <f>+[1]Summary!D11</f>
         <v>0</v>
       </c>
       <c r="E11" s="13">
-        <f>+[3]Summary!E11</f>
+        <f>+[1]Summary!E11</f>
         <v>0</v>
       </c>
       <c r="F11" s="13">
-        <f>+[3]Summary!F11</f>
+        <f>+[1]Summary!F11</f>
         <v>0</v>
       </c>
       <c r="G11" s="13">
-        <f>+[3]Summary!G11</f>
+        <f>+[1]Summary!G11</f>
         <v>694.98</v>
       </c>
       <c r="H11" s="14">
-        <f>+[3]Summary!H11</f>
+        <f>+[1]Summary!H11</f>
         <v>0</v>
       </c>
       <c r="I11" s="13">
-        <f>+[3]Summary!I11</f>
+        <f>+[1]Summary!I11</f>
         <v>4426.1266666666661</v>
       </c>
       <c r="J11" s="13">
-        <f>+[3]Summary!J11</f>
+        <f>+[1]Summary!J11</f>
         <v>15.701764823720968</v>
       </c>
       <c r="K11" s="13">
-        <f>+[3]Summary!K11</f>
+        <f>+[1]Summary!K11</f>
         <v>15.701764823720968</v>
       </c>
       <c r="L11" s="13">
-        <f>+[3]Summary!L11</f>
+        <f>+[1]Summary!L11</f>
         <v>0</v>
       </c>
       <c r="M11" s="13">
-        <f>+[3]Summary!M11</f>
+        <f>+[1]Summary!M11</f>
         <v>0</v>
       </c>
       <c r="N11" s="13"/>
@@ -7694,51 +9574,51 @@
         <v>44774</v>
       </c>
       <c r="B12" s="13">
-        <f>+[3]Summary!B12</f>
+        <f>+[1]Summary!B12</f>
         <v>823</v>
       </c>
       <c r="C12" s="18">
-        <f>+[3]Summary!C12</f>
+        <f>+[1]Summary!C12</f>
         <v>1</v>
       </c>
       <c r="D12" s="13">
-        <f>+[3]Summary!D12</f>
+        <f>+[1]Summary!D12</f>
         <v>0</v>
       </c>
       <c r="E12" s="13">
-        <f>+[3]Summary!E12</f>
+        <f>+[1]Summary!E12</f>
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <f>+[3]Summary!F12</f>
+        <f>+[1]Summary!F12</f>
         <v>0</v>
       </c>
       <c r="G12" s="13">
-        <f>+[3]Summary!G12</f>
+        <f>+[1]Summary!G12</f>
         <v>823</v>
       </c>
       <c r="H12" s="14">
-        <f>+[3]Summary!H12</f>
+        <f>+[1]Summary!H12</f>
         <v>0</v>
       </c>
       <c r="I12" s="13">
-        <f>+[3]Summary!I12</f>
+        <f>+[1]Summary!I12</f>
         <v>4393.6783333333333</v>
       </c>
       <c r="J12" s="13">
-        <f>+[3]Summary!J12</f>
+        <f>+[1]Summary!J12</f>
         <v>18.731457734540573</v>
       </c>
       <c r="K12" s="13">
-        <f>+[3]Summary!K12</f>
+        <f>+[1]Summary!K12</f>
         <v>18.731457734540573</v>
       </c>
       <c r="L12" s="13">
-        <f>+[3]Summary!L12</f>
+        <f>+[1]Summary!L12</f>
         <v>0</v>
       </c>
       <c r="M12" s="13">
-        <f>+[3]Summary!M12</f>
+        <f>+[1]Summary!M12</f>
         <v>0</v>
       </c>
       <c r="N12" s="13"/>
@@ -7819,51 +9699,51 @@
         <v>44805</v>
       </c>
       <c r="B13" s="13">
-        <f>+[3]Summary!B13</f>
+        <f>+[1]Summary!B13</f>
         <v>1086.57</v>
       </c>
       <c r="C13" s="18">
-        <f>+[3]Summary!C13</f>
+        <f>+[1]Summary!C13</f>
         <v>1</v>
       </c>
       <c r="D13" s="13">
-        <f>+[3]Summary!D13</f>
+        <f>+[1]Summary!D13</f>
         <v>0</v>
       </c>
       <c r="E13" s="13">
-        <f>+[3]Summary!E13</f>
+        <f>+[1]Summary!E13</f>
         <v>0</v>
       </c>
       <c r="F13" s="13">
-        <f>+[3]Summary!F13</f>
+        <f>+[1]Summary!F13</f>
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <f>+[3]Summary!G13</f>
+        <f>+[1]Summary!G13</f>
         <v>1086.57</v>
       </c>
       <c r="H13" s="14">
-        <f>+[3]Summary!H13</f>
+        <f>+[1]Summary!H13</f>
         <v>0</v>
       </c>
       <c r="I13" s="13">
-        <f>+[3]Summary!I13</f>
+        <f>+[1]Summary!I13</f>
         <v>4373.916666666667</v>
       </c>
       <c r="J13" s="13">
-        <f>+[3]Summary!J13</f>
+        <f>+[1]Summary!J13</f>
         <v>24.842037075847351</v>
       </c>
       <c r="K13" s="13">
-        <f>+[3]Summary!K13</f>
+        <f>+[1]Summary!K13</f>
         <v>24.842037075847351</v>
       </c>
       <c r="L13" s="13">
-        <f>+[3]Summary!L13</f>
+        <f>+[1]Summary!L13</f>
         <v>0</v>
       </c>
       <c r="M13" s="13">
-        <f>+[3]Summary!M13</f>
+        <f>+[1]Summary!M13</f>
         <v>0</v>
       </c>
       <c r="N13" s="13"/>
@@ -7942,51 +9822,51 @@
         <v>44835</v>
       </c>
       <c r="B14" s="13">
-        <f>+[3]Summary!B14</f>
+        <f>+[1]Summary!B14</f>
         <v>2896.74</v>
       </c>
       <c r="C14" s="18">
-        <f>+[3]Summary!C14</f>
+        <f>+[1]Summary!C14</f>
         <v>1</v>
       </c>
       <c r="D14" s="13">
-        <f>+[3]Summary!D14</f>
+        <f>+[1]Summary!D14</f>
         <v>0</v>
       </c>
       <c r="E14" s="13">
-        <f>+[3]Summary!E14</f>
+        <f>+[1]Summary!E14</f>
         <v>0</v>
       </c>
       <c r="F14" s="13">
-        <f>+[3]Summary!F14</f>
+        <f>+[1]Summary!F14</f>
         <v>0</v>
       </c>
       <c r="G14" s="13">
-        <f>+[3]Summary!G14</f>
+        <f>+[1]Summary!G14</f>
         <v>2896.74</v>
       </c>
       <c r="H14" s="14">
-        <f>+[3]Summary!H14</f>
+        <f>+[1]Summary!H14</f>
         <v>0</v>
       </c>
       <c r="I14" s="13">
-        <f>+[3]Summary!I14</f>
+        <f>+[1]Summary!I14</f>
         <v>4375.0616666666656</v>
       </c>
       <c r="J14" s="13">
-        <f>+[3]Summary!J14</f>
+        <f>+[1]Summary!J14</f>
         <v>66.210266750525818</v>
       </c>
       <c r="K14" s="13">
-        <f>+[3]Summary!K14</f>
+        <f>+[1]Summary!K14</f>
         <v>66.210266750525818</v>
       </c>
       <c r="L14" s="13">
-        <f>+[3]Summary!L14</f>
+        <f>+[1]Summary!L14</f>
         <v>0</v>
       </c>
       <c r="M14" s="13">
-        <f>+[3]Summary!M14</f>
+        <f>+[1]Summary!M14</f>
         <v>0</v>
       </c>
       <c r="N14" s="13"/>
@@ -8061,51 +9941,51 @@
         <v>44866</v>
       </c>
       <c r="B15" s="13">
-        <f>+[3]Summary!B15</f>
+        <f>+[1]Summary!B15</f>
         <v>8046.4600000000009</v>
       </c>
       <c r="C15" s="18">
-        <f>+[3]Summary!C15</f>
+        <f>+[1]Summary!C15</f>
         <v>1</v>
       </c>
       <c r="D15" s="13">
-        <f>+[3]Summary!D15</f>
+        <f>+[1]Summary!D15</f>
         <v>0</v>
       </c>
       <c r="E15" s="13">
-        <f>+[3]Summary!E15</f>
+        <f>+[1]Summary!E15</f>
         <v>0</v>
       </c>
       <c r="F15" s="13">
-        <f>+[3]Summary!F15</f>
+        <f>+[1]Summary!F15</f>
         <v>0</v>
       </c>
       <c r="G15" s="13">
-        <f>+[3]Summary!G15</f>
+        <f>+[1]Summary!G15</f>
         <v>8046.4600000000009</v>
       </c>
       <c r="H15" s="14">
-        <f>+[3]Summary!H15</f>
+        <f>+[1]Summary!H15</f>
         <v>0</v>
       </c>
       <c r="I15" s="13">
-        <f>+[3]Summary!I15</f>
+        <f>+[1]Summary!I15</f>
         <v>4312.8950000000004</v>
       </c>
       <c r="J15" s="13">
-        <f>+[3]Summary!J15</f>
+        <f>+[1]Summary!J15</f>
         <v>186.56749120950082</v>
       </c>
       <c r="K15" s="13">
-        <f>+[3]Summary!K15</f>
+        <f>+[1]Summary!K15</f>
         <v>186.56749120950082</v>
       </c>
       <c r="L15" s="13">
-        <f>+[3]Summary!L15</f>
+        <f>+[1]Summary!L15</f>
         <v>0</v>
       </c>
       <c r="M15" s="13">
-        <f>+[3]Summary!M15</f>
+        <f>+[1]Summary!M15</f>
         <v>0</v>
       </c>
       <c r="N15" s="13"/>
@@ -8180,51 +10060,51 @@
         <v>44896</v>
       </c>
       <c r="B16" s="13">
-        <f>+[3]Summary!B16</f>
+        <f>+[1]Summary!B16</f>
         <v>473.41</v>
       </c>
       <c r="C16" s="18">
-        <f>+[3]Summary!C16</f>
+        <f>+[1]Summary!C16</f>
         <v>1</v>
       </c>
       <c r="D16" s="13">
-        <f>+[3]Summary!D16</f>
+        <f>+[1]Summary!D16</f>
         <v>0</v>
       </c>
       <c r="E16" s="13">
-        <f>+[3]Summary!E16</f>
+        <f>+[1]Summary!E16</f>
         <v>0</v>
       </c>
       <c r="F16" s="13">
-        <f>+[3]Summary!F16</f>
+        <f>+[1]Summary!F16</f>
         <v>0</v>
       </c>
       <c r="G16" s="13">
-        <f>+[3]Summary!G16</f>
+        <f>+[1]Summary!G16</f>
         <v>473.41</v>
       </c>
       <c r="H16" s="14">
-        <f>+[3]Summary!H16</f>
+        <f>+[1]Summary!H16</f>
         <v>0</v>
       </c>
       <c r="I16" s="13">
-        <f>+[3]Summary!I16</f>
+        <f>+[1]Summary!I16</f>
         <v>4277.5</v>
       </c>
       <c r="J16" s="13">
-        <f>+[3]Summary!J16</f>
+        <f>+[1]Summary!J16</f>
         <v>11.067445938047925</v>
       </c>
       <c r="K16" s="13">
-        <f>+[3]Summary!K16</f>
+        <f>+[1]Summary!K16</f>
         <v>11.067445938047927</v>
       </c>
       <c r="L16" s="13">
-        <f>+[3]Summary!L16</f>
+        <f>+[1]Summary!L16</f>
         <v>0</v>
       </c>
       <c r="M16" s="13">
-        <f>+[3]Summary!M16</f>
+        <f>+[1]Summary!M16</f>
         <v>0</v>
       </c>
       <c r="N16" s="13"/>
@@ -8297,51 +10177,51 @@
         <v>44927</v>
       </c>
       <c r="B17" s="13">
-        <f>+[3]Summary!B17</f>
+        <f>+[1]Summary!B17</f>
         <v>1454.97</v>
       </c>
       <c r="C17" s="18">
-        <f>+[3]Summary!C17</f>
+        <f>+[1]Summary!C17</f>
         <v>1</v>
       </c>
       <c r="D17" s="13">
-        <f>+[3]Summary!D17</f>
+        <f>+[1]Summary!D17</f>
         <v>0</v>
       </c>
       <c r="E17" s="13">
-        <f>+[3]Summary!E17</f>
+        <f>+[1]Summary!E17</f>
         <v>0</v>
       </c>
       <c r="F17" s="13">
-        <f>+[3]Summary!F17</f>
+        <f>+[1]Summary!F17</f>
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <f>+[3]Summary!G17</f>
+        <f>+[1]Summary!G17</f>
         <v>1454.97</v>
       </c>
       <c r="H17" s="14">
-        <f>+[3]Summary!H17</f>
+        <f>+[1]Summary!H17</f>
         <v>0</v>
       </c>
       <c r="I17" s="13">
-        <f>+[3]Summary!I17</f>
+        <f>+[1]Summary!I17</f>
         <v>4272.4449999999997</v>
       </c>
       <c r="J17" s="13">
-        <f>+[3]Summary!J17</f>
+        <f>+[1]Summary!J17</f>
         <v>34.054739148192667</v>
       </c>
       <c r="K17" s="13">
-        <f>+[3]Summary!K17</f>
+        <f>+[1]Summary!K17</f>
         <v>34.054739148192667</v>
       </c>
       <c r="L17" s="13">
-        <f>+[3]Summary!L17</f>
+        <f>+[1]Summary!L17</f>
         <v>0</v>
       </c>
       <c r="M17" s="13">
-        <f>+[3]Summary!M17</f>
+        <f>+[1]Summary!M17</f>
         <v>0</v>
       </c>
       <c r="N17" s="13"/>
@@ -8410,51 +10290,51 @@
         <v>44958</v>
       </c>
       <c r="B18" s="13">
-        <f>+[3]Summary!B18</f>
+        <f>+[1]Summary!B18</f>
         <v>2116.44</v>
       </c>
       <c r="C18" s="18">
-        <f>+[3]Summary!C18</f>
+        <f>+[1]Summary!C18</f>
         <v>1</v>
       </c>
       <c r="D18" s="13">
-        <f>+[3]Summary!D18</f>
+        <f>+[1]Summary!D18</f>
         <v>0</v>
       </c>
       <c r="E18" s="13">
-        <f>+[3]Summary!E18</f>
+        <f>+[1]Summary!E18</f>
         <v>0</v>
       </c>
       <c r="F18" s="13">
-        <f>+[3]Summary!F18</f>
+        <f>+[1]Summary!F18</f>
         <v>0</v>
       </c>
       <c r="G18" s="13">
-        <f>+[3]Summary!G18</f>
+        <f>+[1]Summary!G18</f>
         <v>2116.44</v>
       </c>
       <c r="H18" s="14">
-        <f>+[3]Summary!H18</f>
+        <f>+[1]Summary!H18</f>
         <v>0</v>
       </c>
       <c r="I18" s="13">
-        <f>+[3]Summary!I18</f>
+        <f>+[1]Summary!I18</f>
         <v>4233.7550000000001</v>
       </c>
       <c r="J18" s="13">
-        <f>+[3]Summary!J18</f>
+        <f>+[1]Summary!J18</f>
         <v>49.989666383623991</v>
       </c>
       <c r="K18" s="13">
-        <f>+[3]Summary!K18</f>
+        <f>+[1]Summary!K18</f>
         <v>49.989666383623991</v>
       </c>
       <c r="L18" s="13">
-        <f>+[3]Summary!L18</f>
+        <f>+[1]Summary!L18</f>
         <v>0</v>
       </c>
       <c r="M18" s="13">
-        <f>+[3]Summary!M18</f>
+        <f>+[1]Summary!M18</f>
         <v>0</v>
       </c>
       <c r="N18" s="13"/>
@@ -8521,51 +10401,51 @@
         <v>44986</v>
       </c>
       <c r="B19" s="13">
-        <f>+[3]Summary!B19</f>
+        <f>+[1]Summary!B19</f>
         <v>2681.73</v>
       </c>
       <c r="C19" s="18">
-        <f>+[3]Summary!C19</f>
+        <f>+[1]Summary!C19</f>
         <v>0.98495456024210026</v>
       </c>
       <c r="D19" s="13">
-        <f>+[3]Summary!D19</f>
+        <f>+[1]Summary!D19</f>
         <v>40.964130519924822</v>
       </c>
       <c r="E19" s="13">
-        <f>+[3]Summary!E19</f>
+        <f>+[1]Summary!E19</f>
         <v>40.964130519924822</v>
       </c>
       <c r="F19" s="13">
-        <f>+[3]Summary!F19</f>
+        <f>+[1]Summary!F19</f>
         <v>0</v>
       </c>
       <c r="G19" s="13">
-        <f>+[3]Summary!G19</f>
+        <f>+[1]Summary!G19</f>
         <v>2722.6941305199248</v>
       </c>
       <c r="H19" s="14">
-        <f>+[3]Summary!H19</f>
+        <f>+[1]Summary!H19</f>
         <v>40.964130519924765</v>
       </c>
       <c r="I19" s="13">
-        <f>+[3]Summary!I19</f>
+        <f>+[1]Summary!I19</f>
         <v>4154.583333333333</v>
       </c>
       <c r="J19" s="13">
-        <f>+[3]Summary!J19</f>
+        <f>+[1]Summary!J19</f>
         <v>65.53470979087173</v>
       </c>
       <c r="K19" s="13">
-        <f>+[3]Summary!K19</f>
+        <f>+[1]Summary!K19</f>
         <v>64.548711262661726</v>
       </c>
       <c r="L19" s="13">
-        <f>+[3]Summary!L19</f>
+        <f>+[1]Summary!L19</f>
         <v>0.98599852821000411</v>
       </c>
       <c r="M19" s="13">
-        <f>+[3]Summary!M19</f>
+        <f>+[1]Summary!M19</f>
         <v>45.985908472174273</v>
       </c>
       <c r="N19" s="18"/>
@@ -8632,51 +10512,51 @@
         <v>45017</v>
       </c>
       <c r="B20" s="13">
-        <f>+[3]Summary!B20</f>
+        <f>+[1]Summary!B20</f>
         <v>985.09</v>
       </c>
       <c r="C20" s="18">
-        <f>+[3]Summary!C20</f>
+        <f>+[1]Summary!C20</f>
         <v>0.51313742659582562</v>
       </c>
       <c r="D20" s="13">
-        <f>+[3]Summary!D20</f>
+        <f>+[1]Summary!D20</f>
         <v>934.64913603442812</v>
       </c>
       <c r="E20" s="13">
-        <f>+[3]Summary!E20</f>
+        <f>+[1]Summary!E20</f>
         <v>934.64913603442812</v>
       </c>
       <c r="F20" s="13">
-        <f>+[3]Summary!F20</f>
+        <f>+[1]Summary!F20</f>
         <v>0</v>
       </c>
       <c r="G20" s="13">
-        <f>+[3]Summary!G20</f>
+        <f>+[1]Summary!G20</f>
         <v>1919.7391360344282</v>
       </c>
       <c r="H20" s="14">
-        <f>+[3]Summary!H20</f>
+        <f>+[1]Summary!H20</f>
         <v>934.64913603442812</v>
       </c>
       <c r="I20" s="13">
-        <f>+[3]Summary!I20</f>
+        <f>+[1]Summary!I20</f>
         <v>4124.0950000000003</v>
       </c>
       <c r="J20" s="13">
-        <f>+[3]Summary!J20</f>
+        <f>+[1]Summary!J20</f>
         <v>46.549343214315577</v>
       </c>
       <c r="K20" s="13">
-        <f>+[3]Summary!K20</f>
+        <f>+[1]Summary!K20</f>
         <v>23.886210186719754</v>
       </c>
       <c r="L20" s="13">
-        <f>+[3]Summary!L20</f>
+        <f>+[1]Summary!L20</f>
         <v>22.663133027595823</v>
       </c>
       <c r="M20" s="13">
-        <f>+[3]Summary!M20</f>
+        <f>+[1]Summary!M20</f>
         <v>49.607469750671463</v>
       </c>
       <c r="N20" s="18">
@@ -8747,51 +10627,51 @@
         <v>45047</v>
       </c>
       <c r="B21" s="13">
-        <f>+[3]Summary!B21</f>
+        <f>+[1]Summary!B21</f>
         <v>950.99</v>
       </c>
       <c r="C21" s="18">
-        <f>+[3]Summary!C21</f>
+        <f>+[1]Summary!C21</f>
         <v>0.4801338402903339</v>
       </c>
       <c r="D21" s="13">
-        <f>+[3]Summary!D21</f>
+        <f>+[1]Summary!D21</f>
         <v>1029.6868867300466</v>
       </c>
       <c r="E21" s="13">
-        <f>+[3]Summary!E21</f>
+        <f>+[1]Summary!E21</f>
         <v>1029.6868867300466</v>
       </c>
       <c r="F21" s="13">
-        <f>+[3]Summary!F21</f>
+        <f>+[1]Summary!F21</f>
         <v>0</v>
       </c>
       <c r="G21" s="13">
-        <f>+[3]Summary!G21</f>
+        <f>+[1]Summary!G21</f>
         <v>1980.6768867300466</v>
       </c>
       <c r="H21" s="14">
-        <f>+[3]Summary!H21</f>
+        <f>+[1]Summary!H21</f>
         <v>1029.6868867300466</v>
       </c>
       <c r="I21" s="13">
-        <f>+[3]Summary!I21</f>
+        <f>+[1]Summary!I21</f>
         <v>4092.936666666666</v>
       </c>
       <c r="J21" s="13">
-        <f>+[3]Summary!J21</f>
+        <f>+[1]Summary!J21</f>
         <v>48.3925613328176</v>
       </c>
       <c r="K21" s="13">
-        <f>+[3]Summary!K21</f>
+        <f>+[1]Summary!K21</f>
         <v>23.234906314211234</v>
       </c>
       <c r="L21" s="13">
-        <f>+[3]Summary!L21</f>
+        <f>+[1]Summary!L21</f>
         <v>25.157655018606366</v>
       </c>
       <c r="M21" s="13">
-        <f>+[3]Summary!M21</f>
+        <f>+[1]Summary!M21</f>
         <v>47.658597830531932</v>
       </c>
       <c r="N21" s="18">
@@ -8860,51 +10740,51 @@
         <v>45078</v>
       </c>
       <c r="B22" s="13">
-        <f>+[3]Summary!B22</f>
+        <f>+[1]Summary!B22</f>
         <v>969.24</v>
       </c>
       <c r="C22" s="18">
-        <f>+[3]Summary!C22</f>
+        <f>+[1]Summary!C22</f>
         <v>0.46472923215025469</v>
       </c>
       <c r="D22" s="13">
-        <f>+[3]Summary!D22</f>
+        <f>+[1]Summary!D22</f>
         <v>1116.3615351464455</v>
       </c>
       <c r="E22" s="13">
-        <f>+[3]Summary!E22</f>
+        <f>+[1]Summary!E22</f>
         <v>1116.3615351464455</v>
       </c>
       <c r="F22" s="13">
-        <f>+[3]Summary!F22</f>
+        <f>+[1]Summary!F22</f>
         <v>0</v>
       </c>
       <c r="G22" s="13">
-        <f>+[3]Summary!G22</f>
+        <f>+[1]Summary!G22</f>
         <v>2085.6015351464457</v>
       </c>
       <c r="H22" s="14">
-        <f>+[3]Summary!H22</f>
+        <f>+[1]Summary!H22</f>
         <v>1116.3615351464457</v>
       </c>
       <c r="I22" s="13">
-        <f>+[3]Summary!I22</f>
+        <f>+[1]Summary!I22</f>
         <v>4057.166666666667</v>
       </c>
       <c r="J22" s="13">
-        <f>+[3]Summary!J22</f>
+        <f>+[1]Summary!J22</f>
         <v>51.405369966227141</v>
       </c>
       <c r="K22" s="13">
-        <f>+[3]Summary!K22</f>
+        <f>+[1]Summary!K22</f>
         <v>23.889578112804504</v>
       </c>
       <c r="L22" s="13">
-        <f>+[3]Summary!L22</f>
+        <f>+[1]Summary!L22</f>
         <v>27.515791853422638</v>
       </c>
       <c r="M22" s="13">
-        <f>+[3]Summary!M22</f>
+        <f>+[1]Summary!M22</f>
         <v>51.476101551392262</v>
       </c>
       <c r="N22" s="18">
@@ -8971,51 +10851,51 @@
         <v>45108</v>
       </c>
       <c r="B23" s="13">
-        <f>+[3]Summary!B23</f>
+        <f>+[1]Summary!B23</f>
         <v>2293.81</v>
       </c>
       <c r="C23" s="18">
-        <f>+[3]Summary!C23</f>
+        <f>+[1]Summary!C23</f>
         <v>0.46324904927489369</v>
       </c>
       <c r="D23" s="13">
-        <f>+[3]Summary!D23</f>
+        <f>+[1]Summary!D23</f>
         <v>2657.7597951035505</v>
       </c>
       <c r="E23" s="13">
-        <f>+[3]Summary!E23</f>
+        <f>+[1]Summary!E23</f>
         <v>2657.7597951035505</v>
       </c>
       <c r="F23" s="13">
-        <f>+[3]Summary!F23</f>
+        <f>+[1]Summary!F23</f>
         <v>0</v>
       </c>
       <c r="G23" s="13">
-        <f>+[3]Summary!G23</f>
+        <f>+[1]Summary!G23</f>
         <v>4951.5697951035509</v>
       </c>
       <c r="H23" s="14">
-        <f>+[3]Summary!H23</f>
+        <f>+[1]Summary!H23</f>
         <v>2657.7597951035509</v>
       </c>
       <c r="I23" s="13">
-        <f>+[3]Summary!I23</f>
+        <f>+[1]Summary!I23</f>
         <v>4056.085</v>
       </c>
       <c r="J23" s="13">
-        <f>+[3]Summary!J23</f>
+        <f>+[1]Summary!J23</f>
         <v>122.07756482183068</v>
       </c>
       <c r="K23" s="13">
-        <f>+[3]Summary!K23</f>
+        <f>+[1]Summary!K23</f>
         <v>56.552315841507259</v>
       </c>
       <c r="L23" s="13">
-        <f>+[3]Summary!L23</f>
+        <f>+[1]Summary!L23</f>
         <v>65.525248980323425</v>
       </c>
       <c r="M23" s="13">
-        <f>+[3]Summary!M23</f>
+        <f>+[1]Summary!M23</f>
         <v>60.243277729784218</v>
       </c>
       <c r="N23" s="18">
@@ -9080,51 +10960,51 @@
         <v>45139</v>
       </c>
       <c r="B24" s="13">
-        <f>+[3]Summary!B24</f>
+        <f>+[1]Summary!B24</f>
         <v>837.56999999999994</v>
       </c>
       <c r="C24" s="18">
-        <f>+[3]Summary!C24</f>
+        <f>+[1]Summary!C24</f>
         <v>0.42065321191398253</v>
       </c>
       <c r="D24" s="13">
-        <f>+[3]Summary!D24</f>
+        <f>+[1]Summary!D24</f>
         <v>1153.547567340175</v>
       </c>
       <c r="E24" s="13">
-        <f>+[3]Summary!E24</f>
+        <f>+[1]Summary!E24</f>
         <v>1153.547567340175</v>
       </c>
       <c r="F24" s="19">
-        <f>+[3]Summary!F24</f>
+        <f>+[1]Summary!F24</f>
         <v>0</v>
       </c>
       <c r="G24" s="13">
-        <f>+[3]Summary!G24</f>
+        <f>+[1]Summary!G24</f>
         <v>1991.1175673401749</v>
       </c>
       <c r="H24" s="14">
-        <f>+[3]Summary!H24</f>
+        <f>+[1]Summary!H24</f>
         <v>1153.547567340175</v>
       </c>
       <c r="I24" s="13">
-        <f>+[3]Summary!I24</f>
+        <f>+[1]Summary!I24</f>
         <v>4047.085</v>
       </c>
       <c r="J24" s="13">
-        <f>+[3]Summary!J24</f>
+        <f>+[1]Summary!J24</f>
         <v>49.198807718152075</v>
       </c>
       <c r="K24" s="13">
-        <f>+[3]Summary!K24</f>
+        <f>+[1]Summary!K24</f>
         <v>20.695636488979101</v>
       </c>
       <c r="L24" s="13">
-        <f>+[3]Summary!L24</f>
+        <f>+[1]Summary!L24</f>
         <v>28.503171229172974</v>
       </c>
       <c r="M24" s="13">
-        <f>+[3]Summary!M24</f>
+        <f>+[1]Summary!M24</f>
         <v>62.976474233052485</v>
       </c>
       <c r="N24" s="18">
@@ -9187,51 +11067,51 @@
         <v>45170</v>
       </c>
       <c r="B25" s="13">
-        <f>+[3]Summary!B25</f>
+        <f>+[1]Summary!B25</f>
         <v>671.17000000000007</v>
       </c>
       <c r="C25" s="18">
-        <f>+[3]Summary!C25</f>
+        <f>+[1]Summary!C25</f>
         <v>0.36432817621926239</v>
       </c>
       <c r="D25" s="13">
-        <f>+[3]Summary!D25</f>
+        <f>+[1]Summary!D25</f>
         <v>1171.0427186673371</v>
       </c>
       <c r="E25" s="13">
-        <f>+[3]Summary!E25</f>
+        <f>+[1]Summary!E25</f>
         <v>1171.0427186673371</v>
       </c>
       <c r="F25" s="19">
-        <f>+[3]Summary!F25</f>
+        <f>+[1]Summary!F25</f>
         <v>0</v>
       </c>
       <c r="G25" s="13">
-        <f>+[3]Summary!G25</f>
+        <f>+[1]Summary!G25</f>
         <v>1842.2127186673372</v>
       </c>
       <c r="H25" s="14">
-        <f>+[3]Summary!H25</f>
+        <f>+[1]Summary!H25</f>
         <v>1171.0427186673371</v>
       </c>
       <c r="I25" s="13">
-        <f>+[3]Summary!I25</f>
+        <f>+[1]Summary!I25</f>
         <v>4013.103333333333</v>
       </c>
       <c r="J25" s="13">
-        <f>+[3]Summary!J25</f>
+        <f>+[1]Summary!J25</f>
         <v>45.904941030690402</v>
       </c>
       <c r="K25" s="13">
-        <f>+[3]Summary!K25</f>
+        <f>+[1]Summary!K25</f>
         <v>16.724463445164218</v>
       </c>
       <c r="L25" s="13">
-        <f>+[3]Summary!L25</f>
+        <f>+[1]Summary!L25</f>
         <v>29.180477585526184</v>
       </c>
       <c r="M25" s="13">
-        <f>+[3]Summary!M25</f>
+        <f>+[1]Summary!M25</f>
         <v>64.941557905713125</v>
       </c>
       <c r="N25" s="18">
@@ -9292,51 +11172,51 @@
         <v>45200</v>
       </c>
       <c r="B26" s="13">
-        <f>+[3]Summary!B26</f>
+        <f>+[1]Summary!B26</f>
         <v>170.46</v>
       </c>
       <c r="C26" s="18">
-        <f>+[3]Summary!C26</f>
+        <f>+[1]Summary!C26</f>
         <v>0.36373652928952072</v>
       </c>
       <c r="D26" s="13">
-        <f>+[3]Summary!D26</f>
+        <f>+[1]Summary!D26</f>
         <v>298.17591163899903</v>
       </c>
       <c r="E26" s="13">
-        <f>+[3]Summary!E26</f>
+        <f>+[1]Summary!E26</f>
         <v>298.17591163899903</v>
       </c>
       <c r="F26" s="19">
-        <f>+[3]Summary!F26</f>
+        <f>+[1]Summary!F26</f>
         <v>0</v>
       </c>
       <c r="G26" s="13">
-        <f>+[3]Summary!G26</f>
+        <f>+[1]Summary!G26</f>
         <v>468.635911638999</v>
       </c>
       <c r="H26" s="14">
-        <f>+[3]Summary!H26</f>
+        <f>+[1]Summary!H26</f>
         <v>298.17591163899897</v>
       </c>
       <c r="I26" s="13">
-        <f>+[3]Summary!I26</f>
+        <f>+[1]Summary!I26</f>
         <v>3974.7616666666672</v>
       </c>
       <c r="J26" s="13">
-        <f>+[3]Summary!J26</f>
+        <f>+[1]Summary!J26</f>
         <v>11.790289605766693</v>
       </c>
       <c r="K26" s="13">
-        <f>+[3]Summary!K26</f>
+        <f>+[1]Summary!K26</f>
         <v>4.2885590205198882</v>
       </c>
       <c r="L26" s="13">
-        <f>+[3]Summary!L26</f>
+        <f>+[1]Summary!L26</f>
         <v>7.501730585246805</v>
       </c>
       <c r="M26" s="13">
-        <f>+[3]Summary!M26</f>
+        <f>+[1]Summary!M26</f>
         <v>60.57174767713299</v>
       </c>
       <c r="N26" s="18">
@@ -9395,51 +11275,51 @@
         <v>45231</v>
       </c>
       <c r="B27" s="13">
-        <f>+[3]Summary!B27</f>
+        <f>+[1]Summary!B27</f>
         <v>353.23</v>
       </c>
       <c r="C27" s="18">
-        <f>+[3]Summary!C27</f>
+        <f>+[1]Summary!C27</f>
         <v>0.36369755543984472</v>
       </c>
       <c r="D27" s="13">
-        <f>+[3]Summary!D27</f>
+        <f>+[1]Summary!D27</f>
         <v>617.9890657229314</v>
       </c>
       <c r="E27" s="13">
-        <f>+[3]Summary!E27</f>
+        <f>+[1]Summary!E27</f>
         <v>617.9890657229314</v>
       </c>
       <c r="F27" s="19">
-        <f>+[3]Summary!F27</f>
+        <f>+[1]Summary!F27</f>
         <v>0</v>
       </c>
       <c r="G27" s="13">
-        <f>+[3]Summary!G27</f>
+        <f>+[1]Summary!G27</f>
         <v>971.21906572293142</v>
       </c>
       <c r="H27" s="14">
-        <f>+[3]Summary!H27</f>
+        <f>+[1]Summary!H27</f>
         <v>617.9890657229314</v>
       </c>
       <c r="I27" s="13">
-        <f>+[3]Summary!I27</f>
+        <f>+[1]Summary!I27</f>
         <v>3943.9416666666662</v>
       </c>
       <c r="J27" s="13">
-        <f>+[3]Summary!J27</f>
+        <f>+[1]Summary!J27</f>
         <v>24.625594083489187</v>
       </c>
       <c r="K27" s="13">
-        <f>+[3]Summary!K27</f>
+        <f>+[1]Summary!K27</f>
         <v>8.9562683694189218</v>
       </c>
       <c r="L27" s="13">
-        <f>+[3]Summary!L27</f>
+        <f>+[1]Summary!L27</f>
         <v>15.669325714070265</v>
       </c>
       <c r="M27" s="13">
-        <f>+[3]Summary!M27</f>
+        <f>+[1]Summary!M27</f>
         <v>46.658827733554112</v>
       </c>
       <c r="N27" s="18">
@@ -9494,51 +11374,51 @@
         <v>45261</v>
       </c>
       <c r="B28" s="13">
-        <f>+[3]Summary!B28</f>
+        <f>+[1]Summary!B28</f>
         <v>254.8</v>
       </c>
       <c r="C28" s="18">
-        <f>+[3]Summary!C28</f>
+        <f>+[1]Summary!C28</f>
         <v>0.30516925464170602</v>
       </c>
       <c r="D28" s="13">
-        <f>+[3]Summary!D28</f>
+        <f>+[1]Summary!D28</f>
         <v>580.14649649145122</v>
       </c>
       <c r="E28" s="13">
-        <f>+[3]Summary!E28</f>
+        <f>+[1]Summary!E28</f>
         <v>580.14649649145122</v>
       </c>
       <c r="F28" s="19">
-        <f>+[3]Summary!F28</f>
+        <f>+[1]Summary!F28</f>
         <v>0</v>
       </c>
       <c r="G28" s="13">
-        <f>+[3]Summary!G28</f>
+        <f>+[1]Summary!G28</f>
         <v>834.94649649145117</v>
       </c>
       <c r="H28" s="14">
-        <f>+[3]Summary!H28</f>
+        <f>+[1]Summary!H28</f>
         <v>580.14649649145122</v>
       </c>
       <c r="I28" s="13">
-        <f>+[3]Summary!I28</f>
+        <f>+[1]Summary!I28</f>
         <v>3936.333333333333</v>
       </c>
       <c r="J28" s="13">
-        <f>+[3]Summary!J28</f>
+        <f>+[1]Summary!J28</f>
         <v>21.211275209368733</v>
       </c>
       <c r="K28" s="13">
-        <f>+[3]Summary!K28</f>
+        <f>+[1]Summary!K28</f>
         <v>6.4730290456431545</v>
       </c>
       <c r="L28" s="13">
-        <f>+[3]Summary!L28</f>
+        <f>+[1]Summary!L28</f>
         <v>14.738246163725577</v>
       </c>
       <c r="M28" s="13">
-        <f>+[3]Summary!M28</f>
+        <f>+[1]Summary!M28</f>
         <v>47.723559583036526</v>
       </c>
       <c r="N28" s="18">
@@ -9593,51 +11473,51 @@
         <v>45292</v>
       </c>
       <c r="B29" s="13">
-        <f>+[3]Summary!B29</f>
+        <f>+[1]Summary!B29</f>
         <v>345.05</v>
       </c>
       <c r="C29" s="18">
-        <f>+[3]Summary!C29</f>
+        <f>+[1]Summary!C29</f>
         <v>9.2605500930903611E-2</v>
       </c>
       <c r="D29" s="13">
-        <f>+[3]Summary!D29</f>
+        <f>+[1]Summary!D29</f>
         <v>3380.9705552740825</v>
       </c>
       <c r="E29" s="13">
-        <f>+[3]Summary!E29</f>
+        <f>+[1]Summary!E29</f>
         <v>3380.9705552740825</v>
       </c>
       <c r="F29" s="13">
-        <f>+[3]Summary!F29</f>
+        <f>+[1]Summary!F29</f>
         <v>-1367.0205552740824</v>
       </c>
       <c r="G29" s="13">
-        <f>+[3]Summary!G29</f>
+        <f>+[1]Summary!G29</f>
         <v>2359</v>
       </c>
       <c r="H29" s="14">
-        <f>+[3]Summary!H29</f>
+        <f>+[1]Summary!H29</f>
         <v>2013.95</v>
       </c>
       <c r="I29" s="13">
-        <f>+[3]Summary!I29</f>
+        <f>+[1]Summary!I29</f>
         <v>3931.2216666666668</v>
       </c>
       <c r="J29" s="19">
-        <f>+[3]Summary!J29</f>
+        <f>+[1]Summary!J29</f>
         <v>60</v>
       </c>
       <c r="K29" s="13">
-        <f>+[3]Summary!K29</f>
+        <f>+[1]Summary!K29</f>
         <v>8.7771697771642661</v>
       </c>
       <c r="L29" s="13">
-        <f>+[3]Summary!L29</f>
+        <f>+[1]Summary!L29</f>
         <v>51.222830222835732</v>
       </c>
       <c r="M29" s="13">
-        <f>+[3]Summary!M29</f>
+        <f>+[1]Summary!M29</f>
         <v>49.920352375485436</v>
       </c>
       <c r="N29" s="18">
@@ -9690,51 +11570,51 @@
         <v>45323</v>
       </c>
       <c r="B30" s="13">
-        <f>+[3]Summary!B30</f>
+        <f>+[1]Summary!B30</f>
         <v>8.75</v>
       </c>
       <c r="C30" s="18">
-        <f>+[3]Summary!C30</f>
+        <f>+[1]Summary!C30</f>
         <v>4.9018671827134902E-2</v>
       </c>
       <c r="D30" s="13">
-        <f>+[3]Summary!D30</f>
+        <f>+[1]Summary!D30</f>
         <v>169.75340847375483</v>
       </c>
       <c r="E30" s="13">
-        <f>+[3]Summary!E30</f>
+        <f>+[1]Summary!E30</f>
         <v>169.75340847375483</v>
       </c>
       <c r="F30" s="13">
-        <f>+[3]Summary!F30</f>
+        <f>+[1]Summary!F30</f>
         <v>2161.4965915262451</v>
       </c>
       <c r="G30" s="13">
-        <f>+[3]Summary!G30</f>
+        <f>+[1]Summary!G30</f>
         <v>2340</v>
       </c>
       <c r="H30" s="14">
-        <f>+[3]Summary!H30</f>
+        <f>+[1]Summary!H30</f>
         <v>2331.25</v>
       </c>
       <c r="I30" s="13">
-        <f>+[3]Summary!I30</f>
+        <f>+[1]Summary!I30</f>
         <v>3900.3416666666672</v>
       </c>
       <c r="J30" s="19">
-        <f>+[3]Summary!J30</f>
+        <f>+[1]Summary!J30</f>
         <v>60</v>
       </c>
       <c r="K30" s="13">
-        <f>+[3]Summary!K30</f>
+        <f>+[1]Summary!K30</f>
         <v>0.22433932070053689</v>
       </c>
       <c r="L30" s="13">
-        <f>+[3]Summary!L30</f>
+        <f>+[1]Summary!L30</f>
         <v>59.775660679299463</v>
       </c>
       <c r="M30" s="13">
-        <f>+[3]Summary!M30</f>
+        <f>+[1]Summary!M30</f>
         <v>50.728952268785491</v>
       </c>
       <c r="N30" s="18">
@@ -9785,51 +11665,51 @@
         <v>45352</v>
       </c>
       <c r="B31" s="13">
-        <f>+[3]Summary!B31</f>
+        <f>+[1]Summary!B31</f>
         <v>0</v>
       </c>
       <c r="C31" s="18">
-        <f>+[3]Summary!C31</f>
+        <f>+[1]Summary!C31</f>
         <v>4.9018671827134902E-2</v>
       </c>
       <c r="D31" s="13">
-        <f>+[3]Summary!D31</f>
+        <f>+[1]Summary!D31</f>
         <v>0</v>
       </c>
       <c r="E31" s="13">
-        <f>+[3]Summary!E31</f>
+        <f>+[1]Summary!E31</f>
         <v>0</v>
       </c>
       <c r="F31" s="13">
-        <f>+[3]Summary!F31</f>
+        <f>+[1]Summary!F31</f>
         <v>2335</v>
       </c>
       <c r="G31" s="13">
-        <f>+[3]Summary!G31</f>
+        <f>+[1]Summary!G31</f>
         <v>2335</v>
       </c>
       <c r="H31" s="14">
-        <f>+[3]Summary!H31</f>
+        <f>+[1]Summary!H31</f>
         <v>2335</v>
       </c>
       <c r="I31" s="13">
-        <f>+[3]Summary!I31</f>
+        <f>+[1]Summary!I31</f>
         <v>3892.4783333333339</v>
       </c>
       <c r="J31" s="19">
-        <f>+[3]Summary!J31</f>
+        <f>+[1]Summary!J31</f>
         <v>60</v>
       </c>
       <c r="K31" s="13">
-        <f>+[3]Summary!K31</f>
+        <f>+[1]Summary!K31</f>
         <v>0</v>
       </c>
       <c r="L31" s="13">
-        <f>+[3]Summary!L31</f>
+        <f>+[1]Summary!L31</f>
         <v>60</v>
       </c>
       <c r="M31" s="13">
-        <f>+[3]Summary!M31</f>
+        <f>+[1]Summary!M31</f>
         <v>50.197925794332789</v>
       </c>
       <c r="N31" s="18">
@@ -9967,7 +11847,7 @@
         <v>-0.41440885714023024</v>
       </c>
       <c r="K36" s="27">
-        <f>(VLOOKUP(DATE(YEAR(H4),MONTH(H4),DAY(1)),[1]Premium!$B$3:$D$200,3,FALSE)-VLOOKUP(DATE(YEAR(H4),MONTH(H4)-3,DAY(1)),[1]Premium!$B$3:$D$200,3,FALSE))/VLOOKUP(DATE(YEAR(H4),MONTH(H4),DAY(1)),[1]Premium!$B$3:$D$200,3,FALSE)</f>
+        <f>(VLOOKUP(DATE(YEAR(H4),MONTH(H4),DAY(1)),[2]Premium!$B$3:$D$200,3,FALSE)-VLOOKUP(DATE(YEAR(H4),MONTH(H4)-3,DAY(1)),[2]Premium!$B$3:$D$200,3,FALSE))/VLOOKUP(DATE(YEAR(H4),MONTH(H4),DAY(1)),[2]Premium!$B$3:$D$200,3,FALSE)</f>
         <v>-9.9892366423526058E-2</v>
       </c>
     </row>
@@ -10150,51 +12030,51 @@
         <v>44652</v>
       </c>
       <c r="B44" s="23">
-        <f>+[2]Summary!B8</f>
+        <f>+[3]Summary!B8</f>
         <v>199.38</v>
       </c>
       <c r="C44" s="23">
-        <f>+[2]Summary!C8</f>
+        <f>+[3]Summary!C8</f>
         <v>100</v>
       </c>
       <c r="D44" s="23">
-        <f>+[2]Summary!D8</f>
+        <f>+[3]Summary!D8</f>
         <v>0</v>
       </c>
       <c r="E44" s="23">
-        <f>+[2]Summary!E8</f>
+        <f>+[3]Summary!E8</f>
         <v>0</v>
       </c>
       <c r="F44" s="23">
-        <f>+[2]Summary!F8</f>
+        <f>+[3]Summary!F8</f>
         <v>0</v>
       </c>
       <c r="G44" s="23">
-        <f>+[2]Summary!G8</f>
+        <f>+[3]Summary!G8</f>
         <v>199.38</v>
       </c>
       <c r="H44" s="23">
-        <f>+[2]Summary!H8</f>
+        <f>+[3]Summary!H8</f>
         <v>0</v>
       </c>
       <c r="I44" s="23">
-        <f>+[2]Summary!I8</f>
+        <f>+[3]Summary!I8</f>
         <v>4558.0133333333342</v>
       </c>
       <c r="J44" s="23">
-        <f>+[2]Summary!J8</f>
+        <f>+[3]Summary!J8</f>
         <v>4.3742741720808178</v>
       </c>
       <c r="K44" s="23">
-        <f>+[2]Summary!K8</f>
+        <f>+[3]Summary!K8</f>
         <v>4.3742741720808178</v>
       </c>
       <c r="L44" s="23">
-        <f>+[2]Summary!L8</f>
+        <f>+[3]Summary!L8</f>
         <v>0</v>
       </c>
       <c r="M44" s="23">
-        <f>+[2]Summary!M8</f>
+        <f>+[3]Summary!M8</f>
         <v>0</v>
       </c>
     </row>
@@ -10204,51 +12084,51 @@
         <v>44682</v>
       </c>
       <c r="B45" s="23">
-        <f>+[2]Summary!B9</f>
+        <f>+[3]Summary!B9</f>
         <v>3164.83</v>
       </c>
       <c r="C45" s="23">
-        <f>+[2]Summary!C9</f>
+        <f>+[3]Summary!C9</f>
         <v>100</v>
       </c>
       <c r="D45" s="23">
-        <f>+[2]Summary!D9</f>
+        <f>+[3]Summary!D9</f>
         <v>0</v>
       </c>
       <c r="E45" s="23">
-        <f>+[2]Summary!E9</f>
+        <f>+[3]Summary!E9</f>
         <v>0</v>
       </c>
       <c r="F45" s="23">
-        <f>+[2]Summary!F9</f>
+        <f>+[3]Summary!F9</f>
         <v>0</v>
       </c>
       <c r="G45" s="23">
-        <f>+[2]Summary!G9</f>
+        <f>+[3]Summary!G9</f>
         <v>3164.83</v>
       </c>
       <c r="H45" s="23">
-        <f>+[2]Summary!H9</f>
+        <f>+[3]Summary!H9</f>
         <v>0</v>
       </c>
       <c r="I45" s="23">
-        <f>+[2]Summary!I9</f>
+        <f>+[3]Summary!I9</f>
         <v>4549.2833333333338</v>
       </c>
       <c r="J45" s="23">
-        <f>+[2]Summary!J9</f>
+        <f>+[3]Summary!J9</f>
         <v>69.567660840352133</v>
       </c>
       <c r="K45" s="23">
-        <f>+[2]Summary!K9</f>
+        <f>+[3]Summary!K9</f>
         <v>69.567660840352133</v>
       </c>
       <c r="L45" s="23">
-        <f>+[2]Summary!L9</f>
+        <f>+[3]Summary!L9</f>
         <v>0</v>
       </c>
       <c r="M45" s="23">
-        <f>+[2]Summary!M9</f>
+        <f>+[3]Summary!M9</f>
         <v>0</v>
       </c>
     </row>
@@ -10258,51 +12138,51 @@
         <v>44713</v>
       </c>
       <c r="B46" s="23">
-        <f>+[2]Summary!B10</f>
+        <f>+[3]Summary!B10</f>
         <v>320.14</v>
       </c>
       <c r="C46" s="23">
-        <f>+[2]Summary!C10</f>
+        <f>+[3]Summary!C10</f>
         <v>100</v>
       </c>
       <c r="D46" s="23">
-        <f>+[2]Summary!D10</f>
+        <f>+[3]Summary!D10</f>
         <v>0</v>
       </c>
       <c r="E46" s="23">
-        <f>+[2]Summary!E10</f>
+        <f>+[3]Summary!E10</f>
         <v>0</v>
       </c>
       <c r="F46" s="23">
-        <f>+[2]Summary!F10</f>
+        <f>+[3]Summary!F10</f>
         <v>0</v>
       </c>
       <c r="G46" s="23">
-        <f>+[2]Summary!G10</f>
+        <f>+[3]Summary!G10</f>
         <v>320.14</v>
       </c>
       <c r="H46" s="23">
-        <f>+[2]Summary!H10</f>
+        <f>+[3]Summary!H10</f>
         <v>0</v>
       </c>
       <c r="I46" s="23">
-        <f>+[2]Summary!I10</f>
+        <f>+[3]Summary!I10</f>
         <v>4537.3033333333342</v>
       </c>
       <c r="J46" s="23">
-        <f>+[2]Summary!J10</f>
+        <f>+[3]Summary!J10</f>
         <v>7.0557328104578989</v>
       </c>
       <c r="K46" s="23">
-        <f>+[2]Summary!K10</f>
+        <f>+[3]Summary!K10</f>
         <v>7.0557328104578989</v>
       </c>
       <c r="L46" s="23">
-        <f>+[2]Summary!L10</f>
+        <f>+[3]Summary!L10</f>
         <v>0</v>
       </c>
       <c r="M46" s="23">
-        <f>+[2]Summary!M10</f>
+        <f>+[3]Summary!M10</f>
         <v>0</v>
       </c>
     </row>
@@ -10312,51 +12192,51 @@
         <v>44743</v>
       </c>
       <c r="B47" s="23">
-        <f>+[2]Summary!B11</f>
+        <f>+[3]Summary!B11</f>
         <v>694.98</v>
       </c>
       <c r="C47" s="23">
-        <f>+[2]Summary!C11</f>
+        <f>+[3]Summary!C11</f>
         <v>100</v>
       </c>
       <c r="D47" s="23">
-        <f>+[2]Summary!D11</f>
+        <f>+[3]Summary!D11</f>
         <v>0</v>
       </c>
       <c r="E47" s="23">
-        <f>+[2]Summary!E11</f>
+        <f>+[3]Summary!E11</f>
         <v>0</v>
       </c>
       <c r="F47" s="23">
-        <f>+[2]Summary!F11</f>
+        <f>+[3]Summary!F11</f>
         <v>0</v>
       </c>
       <c r="G47" s="23">
-        <f>+[2]Summary!G11</f>
+        <f>+[3]Summary!G11</f>
         <v>694.98</v>
       </c>
       <c r="H47" s="23">
-        <f>+[2]Summary!H11</f>
+        <f>+[3]Summary!H11</f>
         <v>0</v>
       </c>
       <c r="I47" s="23">
-        <f>+[2]Summary!I11</f>
+        <f>+[3]Summary!I11</f>
         <v>4517.96</v>
       </c>
       <c r="J47" s="23">
-        <f>+[2]Summary!J11</f>
+        <f>+[3]Summary!J11</f>
         <v>15.382606309042133</v>
       </c>
       <c r="K47" s="23">
-        <f>+[2]Summary!K11</f>
+        <f>+[3]Summary!K11</f>
         <v>15.382606309042135</v>
       </c>
       <c r="L47" s="23">
-        <f>+[2]Summary!L11</f>
+        <f>+[3]Summary!L11</f>
         <v>0</v>
       </c>
       <c r="M47" s="23">
-        <f>+[2]Summary!M11</f>
+        <f>+[3]Summary!M11</f>
         <v>0</v>
       </c>
     </row>
@@ -10366,51 +12246,51 @@
         <v>44774</v>
       </c>
       <c r="B48" s="23">
-        <f>+[2]Summary!B12</f>
+        <f>+[3]Summary!B12</f>
         <v>823</v>
       </c>
       <c r="C48" s="23">
-        <f>+[2]Summary!C12</f>
+        <f>+[3]Summary!C12</f>
         <v>100</v>
       </c>
       <c r="D48" s="23">
-        <f>+[2]Summary!D12</f>
+        <f>+[3]Summary!D12</f>
         <v>0</v>
       </c>
       <c r="E48" s="23">
-        <f>+[2]Summary!E12</f>
+        <f>+[3]Summary!E12</f>
         <v>0</v>
       </c>
       <c r="F48" s="23">
-        <f>+[2]Summary!F12</f>
+        <f>+[3]Summary!F12</f>
         <v>0</v>
       </c>
       <c r="G48" s="23">
-        <f>+[2]Summary!G12</f>
+        <f>+[3]Summary!G12</f>
         <v>823</v>
       </c>
       <c r="H48" s="23">
-        <f>+[2]Summary!H12</f>
+        <f>+[3]Summary!H12</f>
         <v>0</v>
       </c>
       <c r="I48" s="23">
-        <f>+[2]Summary!I12</f>
+        <f>+[3]Summary!I12</f>
         <v>4485.5116666666672</v>
       </c>
       <c r="J48" s="23">
-        <f>+[2]Summary!J12</f>
+        <f>+[3]Summary!J12</f>
         <v>18.34796253270251</v>
       </c>
       <c r="K48" s="23">
-        <f>+[2]Summary!K12</f>
+        <f>+[3]Summary!K12</f>
         <v>18.34796253270251</v>
       </c>
       <c r="L48" s="23">
-        <f>+[2]Summary!L12</f>
+        <f>+[3]Summary!L12</f>
         <v>0</v>
       </c>
       <c r="M48" s="23">
-        <f>+[2]Summary!M12</f>
+        <f>+[3]Summary!M12</f>
         <v>0</v>
       </c>
     </row>
@@ -10420,51 +12300,51 @@
         <v>44805</v>
       </c>
       <c r="B49" s="23">
-        <f>+[2]Summary!B13</f>
+        <f>+[3]Summary!B13</f>
         <v>1086.57</v>
       </c>
       <c r="C49" s="23">
-        <f>+[2]Summary!C13</f>
+        <f>+[3]Summary!C13</f>
         <v>100</v>
       </c>
       <c r="D49" s="23">
-        <f>+[2]Summary!D13</f>
+        <f>+[3]Summary!D13</f>
         <v>0</v>
       </c>
       <c r="E49" s="23">
-        <f>+[2]Summary!E13</f>
+        <f>+[3]Summary!E13</f>
         <v>0</v>
       </c>
       <c r="F49" s="23">
-        <f>+[2]Summary!F13</f>
+        <f>+[3]Summary!F13</f>
         <v>0</v>
       </c>
       <c r="G49" s="23">
-        <f>+[2]Summary!G13</f>
+        <f>+[3]Summary!G13</f>
         <v>1086.57</v>
       </c>
       <c r="H49" s="23">
-        <f>+[2]Summary!H13</f>
+        <f>+[3]Summary!H13</f>
         <v>0</v>
       </c>
       <c r="I49" s="23">
-        <f>+[2]Summary!I13</f>
+        <f>+[3]Summary!I13</f>
         <v>4474.6416666666682</v>
       </c>
       <c r="J49" s="23">
-        <f>+[2]Summary!J13</f>
+        <f>+[3]Summary!J13</f>
         <v>24.282838290589368</v>
       </c>
       <c r="K49" s="23">
-        <f>+[2]Summary!K13</f>
+        <f>+[3]Summary!K13</f>
         <v>24.282838290589368</v>
       </c>
       <c r="L49" s="23">
-        <f>+[2]Summary!L13</f>
+        <f>+[3]Summary!L13</f>
         <v>0</v>
       </c>
       <c r="M49" s="23">
-        <f>+[2]Summary!M13</f>
+        <f>+[3]Summary!M13</f>
         <v>0</v>
       </c>
     </row>
@@ -10474,51 +12354,51 @@
         <v>44835</v>
       </c>
       <c r="B50" s="23">
-        <f>+[2]Summary!B14</f>
+        <f>+[3]Summary!B14</f>
         <v>2896.7400000000002</v>
       </c>
       <c r="C50" s="23">
-        <f>+[2]Summary!C14</f>
+        <f>+[3]Summary!C14</f>
         <v>100</v>
       </c>
       <c r="D50" s="23">
-        <f>+[2]Summary!D14</f>
+        <f>+[3]Summary!D14</f>
         <v>0</v>
       </c>
       <c r="E50" s="23">
-        <f>+[2]Summary!E14</f>
+        <f>+[3]Summary!E14</f>
         <v>0</v>
       </c>
       <c r="F50" s="23">
-        <f>+[2]Summary!F14</f>
+        <f>+[3]Summary!F14</f>
         <v>0</v>
       </c>
       <c r="G50" s="23">
-        <f>+[2]Summary!G14</f>
+        <f>+[3]Summary!G14</f>
         <v>2896.7400000000002</v>
       </c>
       <c r="H50" s="23">
-        <f>+[2]Summary!H14</f>
+        <f>+[3]Summary!H14</f>
         <v>0</v>
       </c>
       <c r="I50" s="23">
-        <f>+[2]Summary!I14</f>
+        <f>+[3]Summary!I14</f>
         <v>4466.8950000000013</v>
       </c>
       <c r="J50" s="23">
-        <f>+[2]Summary!J14</f>
+        <f>+[3]Summary!J14</f>
         <v>64.849073013804869</v>
       </c>
       <c r="K50" s="23">
-        <f>+[2]Summary!K14</f>
+        <f>+[3]Summary!K14</f>
         <v>64.849073013804883</v>
       </c>
       <c r="L50" s="23">
-        <f>+[2]Summary!L14</f>
+        <f>+[3]Summary!L14</f>
         <v>0</v>
       </c>
       <c r="M50" s="23">
-        <f>+[2]Summary!M14</f>
+        <f>+[3]Summary!M14</f>
         <v>0</v>
       </c>
     </row>
@@ -10528,51 +12408,51 @@
         <v>44866</v>
       </c>
       <c r="B51" s="23">
-        <f>+[2]Summary!B15</f>
+        <f>+[3]Summary!B15</f>
         <v>8046.4600000000009</v>
       </c>
       <c r="C51" s="23">
-        <f>+[2]Summary!C15</f>
+        <f>+[3]Summary!C15</f>
         <v>100</v>
       </c>
       <c r="D51" s="23">
-        <f>+[2]Summary!D15</f>
+        <f>+[3]Summary!D15</f>
         <v>0</v>
       </c>
       <c r="E51" s="23">
-        <f>+[2]Summary!E15</f>
+        <f>+[3]Summary!E15</f>
         <v>0</v>
       </c>
       <c r="F51" s="23">
-        <f>+[2]Summary!F15</f>
+        <f>+[3]Summary!F15</f>
         <v>0</v>
       </c>
       <c r="G51" s="23">
-        <f>+[2]Summary!G15</f>
+        <f>+[3]Summary!G15</f>
         <v>8046.4600000000009</v>
       </c>
       <c r="H51" s="23">
-        <f>+[2]Summary!H15</f>
+        <f>+[3]Summary!H15</f>
         <v>0</v>
       </c>
       <c r="I51" s="23">
-        <f>+[2]Summary!I15</f>
+        <f>+[3]Summary!I15</f>
         <v>4404.7283333333344</v>
       </c>
       <c r="J51" s="23">
-        <f>+[2]Summary!J15</f>
+        <f>+[3]Summary!J15</f>
         <v>182.67778149011838</v>
       </c>
       <c r="K51" s="23">
-        <f>+[2]Summary!K15</f>
+        <f>+[3]Summary!K15</f>
         <v>182.67778149011835</v>
       </c>
       <c r="L51" s="23">
-        <f>+[2]Summary!L15</f>
+        <f>+[3]Summary!L15</f>
         <v>0</v>
       </c>
       <c r="M51" s="23">
-        <f>+[2]Summary!M15</f>
+        <f>+[3]Summary!M15</f>
         <v>0</v>
       </c>
     </row>
@@ -10582,51 +12462,51 @@
         <v>44896</v>
       </c>
       <c r="B52" s="23">
-        <f>+[2]Summary!B16</f>
+        <f>+[3]Summary!B16</f>
         <v>473.41</v>
       </c>
       <c r="C52" s="23">
-        <f>+[2]Summary!C16</f>
+        <f>+[3]Summary!C16</f>
         <v>100</v>
       </c>
       <c r="D52" s="23">
-        <f>+[2]Summary!D16</f>
+        <f>+[3]Summary!D16</f>
         <v>0</v>
       </c>
       <c r="E52" s="23">
-        <f>+[2]Summary!E16</f>
+        <f>+[3]Summary!E16</f>
         <v>0</v>
       </c>
       <c r="F52" s="23">
-        <f>+[2]Summary!F16</f>
+        <f>+[3]Summary!F16</f>
         <v>0</v>
       </c>
       <c r="G52" s="23">
-        <f>+[2]Summary!G16</f>
+        <f>+[3]Summary!G16</f>
         <v>473.41</v>
       </c>
       <c r="H52" s="23">
-        <f>+[2]Summary!H16</f>
+        <f>+[3]Summary!H16</f>
         <v>0</v>
       </c>
       <c r="I52" s="23">
-        <f>+[2]Summary!I16</f>
+        <f>+[3]Summary!I16</f>
         <v>4378.0583333333343</v>
       </c>
       <c r="J52" s="23">
-        <f>+[2]Summary!J16</f>
+        <f>+[3]Summary!J16</f>
         <v>10.813241029604065</v>
       </c>
       <c r="K52" s="23">
-        <f>+[2]Summary!K16</f>
+        <f>+[3]Summary!K16</f>
         <v>10.813241029604065</v>
       </c>
       <c r="L52" s="23">
-        <f>+[2]Summary!L16</f>
+        <f>+[3]Summary!L16</f>
         <v>0</v>
       </c>
       <c r="M52" s="23">
-        <f>+[2]Summary!M16</f>
+        <f>+[3]Summary!M16</f>
         <v>0</v>
       </c>
     </row>
@@ -10636,51 +12516,51 @@
         <v>44927</v>
       </c>
       <c r="B53" s="23">
-        <f>+[2]Summary!B17</f>
+        <f>+[3]Summary!B17</f>
         <v>1454.9699999999998</v>
       </c>
       <c r="C53" s="23">
-        <f>+[2]Summary!C17</f>
+        <f>+[3]Summary!C17</f>
         <v>100</v>
       </c>
       <c r="D53" s="23">
-        <f>+[2]Summary!D17</f>
+        <f>+[3]Summary!D17</f>
         <v>0</v>
       </c>
       <c r="E53" s="23">
-        <f>+[2]Summary!E17</f>
+        <f>+[3]Summary!E17</f>
         <v>0</v>
       </c>
       <c r="F53" s="23">
-        <f>+[2]Summary!F17</f>
+        <f>+[3]Summary!F17</f>
         <v>0</v>
       </c>
       <c r="G53" s="23">
-        <f>+[2]Summary!G17</f>
+        <f>+[3]Summary!G17</f>
         <v>1454.9699999999998</v>
       </c>
       <c r="H53" s="23">
-        <f>+[2]Summary!H17</f>
+        <f>+[3]Summary!H17</f>
         <v>0</v>
       </c>
       <c r="I53" s="23">
-        <f>+[2]Summary!I17</f>
+        <f>+[3]Summary!I17</f>
         <v>4364.2783333333346</v>
       </c>
       <c r="J53" s="23">
-        <f>+[2]Summary!J17</f>
+        <f>+[3]Summary!J17</f>
         <v>33.338157855040549</v>
       </c>
       <c r="K53" s="23">
-        <f>+[2]Summary!K17</f>
+        <f>+[3]Summary!K17</f>
         <v>33.338157855040549</v>
       </c>
       <c r="L53" s="23">
-        <f>+[2]Summary!L17</f>
+        <f>+[3]Summary!L17</f>
         <v>0</v>
       </c>
       <c r="M53" s="23">
-        <f>+[2]Summary!M17</f>
+        <f>+[3]Summary!M17</f>
         <v>0</v>
       </c>
     </row>
@@ -10690,51 +12570,51 @@
         <v>44958</v>
       </c>
       <c r="B54" s="23">
-        <f>+[2]Summary!B18</f>
+        <f>+[3]Summary!B18</f>
         <v>2116.44</v>
       </c>
       <c r="C54" s="23">
-        <f>+[2]Summary!C18</f>
+        <f>+[3]Summary!C18</f>
         <v>100</v>
       </c>
       <c r="D54" s="23">
-        <f>+[2]Summary!D18</f>
+        <f>+[3]Summary!D18</f>
         <v>0</v>
       </c>
       <c r="E54" s="23">
-        <f>+[2]Summary!E18</f>
+        <f>+[3]Summary!E18</f>
         <v>0</v>
       </c>
       <c r="F54" s="23">
-        <f>+[2]Summary!F18</f>
+        <f>+[3]Summary!F18</f>
         <v>0</v>
       </c>
       <c r="G54" s="23">
-        <f>+[2]Summary!G18</f>
+        <f>+[3]Summary!G18</f>
         <v>2116.44</v>
       </c>
       <c r="H54" s="23">
-        <f>+[2]Summary!H18</f>
+        <f>+[3]Summary!H18</f>
         <v>0</v>
       </c>
       <c r="I54" s="23">
-        <f>+[2]Summary!I18</f>
+        <f>+[3]Summary!I18</f>
         <v>4303.088333333334</v>
       </c>
       <c r="J54" s="23">
-        <f>+[2]Summary!J18</f>
+        <f>+[3]Summary!J18</f>
         <v>49.184209945337699</v>
       </c>
       <c r="K54" s="23">
-        <f>+[2]Summary!K18</f>
+        <f>+[3]Summary!K18</f>
         <v>49.184209945337706</v>
       </c>
       <c r="L54" s="23">
-        <f>+[2]Summary!L18</f>
+        <f>+[3]Summary!L18</f>
         <v>0</v>
       </c>
       <c r="M54" s="23">
-        <f>+[2]Summary!M18</f>
+        <f>+[3]Summary!M18</f>
         <v>0</v>
       </c>
     </row>
@@ -10744,51 +12624,51 @@
         <v>44986</v>
       </c>
       <c r="B55" s="23">
-        <f>+[2]Summary!B19</f>
+        <f>+[3]Summary!B19</f>
         <v>2681.73</v>
       </c>
       <c r="C55" s="23">
-        <f>+[2]Summary!C19</f>
+        <f>+[3]Summary!C19</f>
         <v>100</v>
       </c>
       <c r="D55" s="23">
-        <f>+[2]Summary!D19</f>
+        <f>+[3]Summary!D19</f>
         <v>0</v>
       </c>
       <c r="E55" s="23">
-        <f>+[2]Summary!E19</f>
+        <f>+[3]Summary!E19</f>
         <v>0</v>
       </c>
       <c r="F55" s="23">
-        <f>+[2]Summary!F19</f>
+        <f>+[3]Summary!F19</f>
         <v>0</v>
       </c>
       <c r="G55" s="23">
-        <f>+[2]Summary!G19</f>
+        <f>+[3]Summary!G19</f>
         <v>2681.73</v>
       </c>
       <c r="H55" s="23">
-        <f>+[2]Summary!H19</f>
+        <f>+[3]Summary!H19</f>
         <v>0</v>
       </c>
       <c r="I55" s="23">
-        <f>+[2]Summary!I19</f>
+        <f>+[3]Summary!I19</f>
         <v>4209.87</v>
       </c>
       <c r="J55" s="23">
-        <f>+[2]Summary!J19</f>
+        <f>+[3]Summary!J19</f>
         <v>63.701016896008667</v>
       </c>
       <c r="K55" s="23">
-        <f>+[2]Summary!K19</f>
+        <f>+[3]Summary!K19</f>
         <v>63.701016896008667</v>
       </c>
       <c r="L55" s="23">
-        <f>+[2]Summary!L19</f>
+        <f>+[3]Summary!L19</f>
         <v>0</v>
       </c>
       <c r="M55" s="23">
-        <f>+[2]Summary!M19</f>
+        <f>+[3]Summary!M19</f>
         <v>44.993081172799329</v>
       </c>
     </row>
@@ -10798,51 +12678,51 @@
         <v>45017</v>
       </c>
       <c r="B56" s="23">
-        <f>+[2]Summary!B20</f>
+        <f>+[3]Summary!B20</f>
         <v>985.09</v>
       </c>
       <c r="C56" s="23">
-        <f>+[2]Summary!C20</f>
+        <f>+[3]Summary!C20</f>
         <v>100</v>
       </c>
       <c r="D56" s="23">
-        <f>+[2]Summary!D20</f>
+        <f>+[3]Summary!D20</f>
         <v>0</v>
       </c>
       <c r="E56" s="23">
-        <f>+[2]Summary!E20</f>
+        <f>+[3]Summary!E20</f>
         <v>0</v>
       </c>
       <c r="F56" s="23">
-        <f>+[2]Summary!F20</f>
+        <f>+[3]Summary!F20</f>
         <v>0</v>
       </c>
       <c r="G56" s="23">
-        <f>+[2]Summary!G20</f>
+        <f>+[3]Summary!G20</f>
         <v>985.09</v>
       </c>
       <c r="H56" s="23">
-        <f>+[2]Summary!H20</f>
+        <f>+[3]Summary!H20</f>
         <v>0</v>
       </c>
       <c r="I56" s="23">
-        <f>+[2]Summary!I20</f>
+        <f>+[3]Summary!I20</f>
         <v>4170.9283333333333</v>
       </c>
       <c r="J56" s="23">
-        <f>+[2]Summary!J20</f>
+        <f>+[3]Summary!J20</f>
         <v>23.618003506014048</v>
       </c>
       <c r="K56" s="23">
-        <f>+[2]Summary!K20</f>
+        <f>+[3]Summary!K20</f>
         <v>23.618003506014048</v>
       </c>
       <c r="L56" s="23">
-        <f>+[2]Summary!L20</f>
+        <f>+[3]Summary!L20</f>
         <v>0</v>
       </c>
       <c r="M56" s="23">
-        <f>+[2]Summary!M20</f>
+        <f>+[3]Summary!M20</f>
         <v>46.808868585218868</v>
       </c>
     </row>
@@ -10852,51 +12732,51 @@
         <v>45047</v>
       </c>
       <c r="B57" s="23">
-        <f>+[2]Summary!B21</f>
+        <f>+[3]Summary!B21</f>
         <v>950.99</v>
       </c>
       <c r="C57" s="23">
-        <f>+[2]Summary!C21</f>
+        <f>+[3]Summary!C21</f>
         <v>90.358768261029326</v>
       </c>
       <c r="D57" s="23">
-        <f>+[2]Summary!D21</f>
+        <f>+[3]Summary!D21</f>
         <v>101.47011903656143</v>
       </c>
       <c r="E57" s="23">
-        <f>+[2]Summary!E21</f>
+        <f>+[3]Summary!E21</f>
         <v>101.47011903656143</v>
       </c>
       <c r="F57" s="23">
-        <f>+[2]Summary!F21</f>
+        <f>+[3]Summary!F21</f>
         <v>0</v>
       </c>
       <c r="G57" s="23">
-        <f>+[2]Summary!G21</f>
+        <f>+[3]Summary!G21</f>
         <v>1052.4601190365615</v>
       </c>
       <c r="H57" s="23">
-        <f>+[2]Summary!H21</f>
+        <f>+[3]Summary!H21</f>
         <v>101.47011903656153</v>
       </c>
       <c r="I57" s="23">
-        <f>+[2]Summary!I21</f>
+        <f>+[3]Summary!I21</f>
         <v>4139.7699999999995</v>
       </c>
       <c r="J57" s="23">
-        <f>+[2]Summary!J21</f>
+        <f>+[3]Summary!J21</f>
         <v>25.423154403180892</v>
       </c>
       <c r="K57" s="23">
-        <f>+[2]Summary!K21</f>
+        <f>+[3]Summary!K21</f>
         <v>22.972049171813897</v>
       </c>
       <c r="L57" s="23">
-        <f>+[2]Summary!L21</f>
+        <f>+[3]Summary!L21</f>
         <v>2.451105231366995</v>
       </c>
       <c r="M57" s="23">
-        <f>+[2]Summary!M21</f>
+        <f>+[3]Summary!M21</f>
         <v>43.147152187010256</v>
       </c>
     </row>
@@ -10906,51 +12786,51 @@
         <v>45078</v>
       </c>
       <c r="B58" s="23">
-        <f>+[2]Summary!B22</f>
+        <f>+[3]Summary!B22</f>
         <v>969.24</v>
       </c>
       <c r="C58" s="23">
-        <f>+[2]Summary!C22</f>
+        <f>+[3]Summary!C22</f>
         <v>87.372884381711359</v>
       </c>
       <c r="D58" s="23">
-        <f>+[2]Summary!D22</f>
+        <f>+[3]Summary!D22</f>
         <v>140.07441357208813</v>
       </c>
       <c r="E58" s="23">
-        <f>+[2]Summary!E22</f>
+        <f>+[3]Summary!E22</f>
         <v>140.07441357208813</v>
       </c>
       <c r="F58" s="23">
-        <f>+[2]Summary!F22</f>
+        <f>+[3]Summary!F22</f>
         <v>0</v>
       </c>
       <c r="G58" s="23">
-        <f>+[2]Summary!G22</f>
+        <f>+[3]Summary!G22</f>
         <v>1109.3144135720881</v>
       </c>
       <c r="H58" s="23">
-        <f>+[2]Summary!H22</f>
+        <f>+[3]Summary!H22</f>
         <v>140.07441357208813</v>
       </c>
       <c r="I58" s="23">
-        <f>+[2]Summary!I22</f>
+        <f>+[3]Summary!I22</f>
         <v>4112.2049999999999</v>
       </c>
       <c r="J58" s="23">
-        <f>+[2]Summary!J22</f>
+        <f>+[3]Summary!J22</f>
         <v>26.976145731355516</v>
       </c>
       <c r="K58" s="23">
-        <f>+[2]Summary!K22</f>
+        <f>+[3]Summary!K22</f>
         <v>23.56983662049922</v>
       </c>
       <c r="L58" s="23">
-        <f>+[2]Summary!L22</f>
+        <f>+[3]Summary!L22</f>
         <v>3.4063091108562951</v>
       </c>
       <c r="M58" s="23">
-        <f>+[2]Summary!M22</f>
+        <f>+[3]Summary!M22</f>
         <v>45.016517631554365</v>
       </c>
     </row>
@@ -10960,51 +12840,51 @@
         <v>45108</v>
       </c>
       <c r="B59" s="23">
-        <f>+[2]Summary!B23</f>
+        <f>+[3]Summary!B23</f>
         <v>2293.8100000000004</v>
       </c>
       <c r="C59" s="23">
-        <f>+[2]Summary!C23</f>
+        <f>+[3]Summary!C23</f>
         <v>87.274474981898237</v>
       </c>
       <c r="D59" s="23">
-        <f>+[2]Summary!D23</f>
+        <f>+[3]Summary!D23</f>
         <v>334.46132500741305</v>
       </c>
       <c r="E59" s="23">
-        <f>+[2]Summary!E23</f>
+        <f>+[3]Summary!E23</f>
         <v>334.46132500741305</v>
       </c>
       <c r="F59" s="23">
-        <f>+[2]Summary!F23</f>
+        <f>+[3]Summary!F23</f>
         <v>0</v>
       </c>
       <c r="G59" s="23">
-        <f>+[2]Summary!G23</f>
+        <f>+[3]Summary!G23</f>
         <v>2628.2713250074135</v>
       </c>
       <c r="H59" s="23">
-        <f>+[2]Summary!H23</f>
+        <f>+[3]Summary!H23</f>
         <v>334.46132500741305</v>
       </c>
       <c r="I59" s="23">
-        <f>+[2]Summary!I23</f>
+        <f>+[3]Summary!I23</f>
         <v>4102.9183333333331</v>
       </c>
       <c r="J59" s="23">
-        <f>+[2]Summary!J23</f>
+        <f>+[3]Summary!J23</f>
         <v>64.05858248882393</v>
       </c>
       <c r="K59" s="23">
-        <f>+[2]Summary!K23</f>
+        <f>+[3]Summary!K23</f>
         <v>55.906791547967295</v>
       </c>
       <c r="L59" s="23">
-        <f>+[2]Summary!L23</f>
+        <f>+[3]Summary!L23</f>
         <v>8.1517909408566354</v>
       </c>
       <c r="M59" s="23">
-        <f>+[2]Summary!M23</f>
+        <f>+[3]Summary!M23</f>
         <v>49.124267639615731</v>
       </c>
     </row>
@@ -11014,51 +12894,51 @@
         <v>45139</v>
       </c>
       <c r="B60" s="23">
-        <f>+[2]Summary!B24</f>
+        <f>+[3]Summary!B24</f>
         <v>837.57000000000016</v>
       </c>
       <c r="C60" s="23">
-        <f>+[2]Summary!C24</f>
+        <f>+[3]Summary!C24</f>
         <v>77.524591167341057</v>
       </c>
       <c r="D60" s="23">
-        <f>+[2]Summary!D24</f>
+        <f>+[3]Summary!D24</f>
         <v>242.82266945898425</v>
       </c>
       <c r="E60" s="23">
-        <f>+[2]Summary!E24</f>
+        <f>+[3]Summary!E24</f>
         <v>242.82266945898425</v>
       </c>
       <c r="F60" s="23">
-        <f>+[2]Summary!F24</f>
+        <f>+[3]Summary!F24</f>
         <v>0</v>
       </c>
       <c r="G60" s="23">
-        <f>+[2]Summary!G24</f>
+        <f>+[3]Summary!G24</f>
         <v>1080.3926694589845</v>
       </c>
       <c r="H60" s="23">
-        <f>+[2]Summary!H24</f>
+        <f>+[3]Summary!H24</f>
         <v>242.82266945898436</v>
       </c>
       <c r="I60" s="23">
-        <f>+[2]Summary!I24</f>
+        <f>+[3]Summary!I24</f>
         <v>4083.7516666666666</v>
       </c>
       <c r="J60" s="23">
-        <f>+[2]Summary!J24</f>
+        <f>+[3]Summary!J24</f>
         <v>26.455885608265874</v>
       </c>
       <c r="K60" s="23">
-        <f>+[2]Summary!K24</f>
+        <f>+[3]Summary!K24</f>
         <v>20.509817157507541</v>
       </c>
       <c r="L60" s="23">
-        <f>+[2]Summary!L24</f>
+        <f>+[3]Summary!L24</f>
         <v>5.9460684507583323</v>
       </c>
       <c r="M60" s="23">
-        <f>+[2]Summary!M24</f>
+        <f>+[3]Summary!M24</f>
         <v>50.012266591265394</v>
       </c>
     </row>
@@ -11068,51 +12948,51 @@
         <v>45170</v>
       </c>
       <c r="B61" s="23">
-        <f>+[2]Summary!B25</f>
+        <f>+[3]Summary!B25</f>
         <v>671.17000000000007</v>
       </c>
       <c r="C61" s="23">
-        <f>+[2]Summary!C25</f>
+        <f>+[3]Summary!C25</f>
         <v>63.101117707953776</v>
       </c>
       <c r="D61" s="23">
-        <f>+[2]Summary!D25</f>
+        <f>+[3]Summary!D25</f>
         <v>392.47201519587395</v>
       </c>
       <c r="E61" s="23">
-        <f>+[2]Summary!E25</f>
+        <f>+[3]Summary!E25</f>
         <v>392.47201519587395</v>
       </c>
       <c r="F61" s="23">
-        <f>+[2]Summary!F25</f>
+        <f>+[3]Summary!F25</f>
         <v>0</v>
       </c>
       <c r="G61" s="23">
-        <f>+[2]Summary!G25</f>
+        <f>+[3]Summary!G25</f>
         <v>1063.6420151958741</v>
       </c>
       <c r="H61" s="23">
-        <f>+[2]Summary!H25</f>
+        <f>+[3]Summary!H25</f>
         <v>392.47201519587406</v>
       </c>
       <c r="I61" s="23">
-        <f>+[2]Summary!I25</f>
+        <f>+[3]Summary!I25</f>
         <v>4034.5200000000009</v>
       </c>
       <c r="J61" s="23">
-        <f>+[2]Summary!J25</f>
+        <f>+[3]Summary!J25</f>
         <v>26.363533089335878</v>
       </c>
       <c r="K61" s="23">
-        <f>+[2]Summary!K25</f>
+        <f>+[3]Summary!K25</f>
         <v>16.635684046677174</v>
       </c>
       <c r="L61" s="23">
-        <f>+[2]Summary!L25</f>
+        <f>+[3]Summary!L25</f>
         <v>9.7278490426587041</v>
       </c>
       <c r="M61" s="23">
-        <f>+[2]Summary!M25</f>
+        <f>+[3]Summary!M25</f>
         <v>50.400651281627177</v>
       </c>
     </row>
@@ -11122,51 +13002,51 @@
         <v>45200</v>
       </c>
       <c r="B62" s="23">
-        <f>+[2]Summary!B26</f>
+        <f>+[3]Summary!B26</f>
         <v>170.46</v>
       </c>
       <c r="C62" s="23">
-        <f>+[2]Summary!C26</f>
+        <f>+[3]Summary!C26</f>
         <v>47.913056804739867</v>
       </c>
       <c r="D62" s="23">
-        <f>+[2]Summary!D26</f>
+        <f>+[3]Summary!D26</f>
         <v>185.30941102855496</v>
       </c>
       <c r="E62" s="23">
-        <f>+[2]Summary!E26</f>
+        <f>+[3]Summary!E26</f>
         <v>185.30941102855496</v>
       </c>
       <c r="F62" s="23">
-        <f>+[2]Summary!F26</f>
+        <f>+[3]Summary!F26</f>
         <v>0</v>
       </c>
       <c r="G62" s="23">
-        <f>+[2]Summary!G26</f>
+        <f>+[3]Summary!G26</f>
         <v>355.76941102855494</v>
       </c>
       <c r="H62" s="23">
-        <f>+[2]Summary!H26</f>
+        <f>+[3]Summary!H26</f>
         <v>185.30941102855493</v>
       </c>
       <c r="I62" s="23">
-        <f>+[2]Summary!I26</f>
+        <f>+[3]Summary!I26</f>
         <v>3996.1783333333346</v>
       </c>
       <c r="J62" s="23">
-        <f>+[2]Summary!J26</f>
+        <f>+[3]Summary!J26</f>
         <v>8.9027411029426418</v>
       </c>
       <c r="K62" s="23">
-        <f>+[2]Summary!K26</f>
+        <f>+[3]Summary!K26</f>
         <v>4.2655754018318319</v>
       </c>
       <c r="L62" s="23">
-        <f>+[2]Summary!L26</f>
+        <f>+[3]Summary!L26</f>
         <v>4.6371657011108098</v>
       </c>
       <c r="M62" s="23">
-        <f>+[2]Summary!M26</f>
+        <f>+[3]Summary!M26</f>
         <v>45.820705332442834</v>
       </c>
     </row>
@@ -11176,51 +13056,51 @@
         <v>45231</v>
       </c>
       <c r="B63" s="23">
-        <f>+[2]Summary!B27</f>
+        <f>+[3]Summary!B27</f>
         <v>353.23</v>
       </c>
       <c r="C63" s="23">
-        <f>+[2]Summary!C27</f>
+        <f>+[3]Summary!C27</f>
         <v>38.878460190481697</v>
       </c>
       <c r="D63" s="23">
-        <f>+[2]Summary!D27</f>
+        <f>+[3]Summary!D27</f>
         <v>555.31935681449249</v>
       </c>
       <c r="E63" s="23">
-        <f>+[2]Summary!E27</f>
+        <f>+[3]Summary!E27</f>
         <v>555.31935681449249</v>
       </c>
       <c r="F63" s="23">
-        <f>+[2]Summary!F27</f>
+        <f>+[3]Summary!F27</f>
         <v>0</v>
       </c>
       <c r="G63" s="23">
-        <f>+[2]Summary!G27</f>
+        <f>+[3]Summary!G27</f>
         <v>908.54935681449251</v>
       </c>
       <c r="H63" s="23">
-        <f>+[2]Summary!H27</f>
+        <f>+[3]Summary!H27</f>
         <v>555.31935681449249</v>
       </c>
       <c r="I63" s="23">
-        <f>+[2]Summary!I27</f>
+        <f>+[3]Summary!I27</f>
         <v>3955.1916666666675</v>
       </c>
       <c r="J63" s="23">
-        <f>+[2]Summary!J27</f>
+        <f>+[3]Summary!J27</f>
         <v>22.97105762209987</v>
       </c>
       <c r="K63" s="23">
-        <f>+[2]Summary!K27</f>
+        <f>+[3]Summary!K27</f>
         <v>8.9307934929407118</v>
       </c>
       <c r="L63" s="23">
-        <f>+[2]Summary!L27</f>
+        <f>+[3]Summary!L27</f>
         <v>14.040264129159159</v>
       </c>
       <c r="M63" s="23">
-        <f>+[2]Summary!M27</f>
+        <f>+[3]Summary!M27</f>
         <v>31.915340592673637</v>
       </c>
     </row>
@@ -11230,51 +13110,51 @@
         <v>45261</v>
       </c>
       <c r="B64" s="23">
-        <f>+[2]Summary!B28</f>
+        <f>+[3]Summary!B28</f>
         <v>254.8</v>
       </c>
       <c r="C64" s="23">
-        <f>+[2]Summary!C28</f>
+        <f>+[3]Summary!C28</f>
         <v>23.47023432740361</v>
       </c>
       <c r="D64" s="23">
-        <f>+[2]Summary!D28</f>
+        <f>+[3]Summary!D28</f>
         <v>830.83040507225826</v>
       </c>
       <c r="E64" s="23">
-        <f>+[2]Summary!E28</f>
+        <f>+[3]Summary!E28</f>
         <v>830.83040507225826</v>
       </c>
       <c r="F64" s="23">
-        <f>+[2]Summary!F28</f>
+        <f>+[3]Summary!F28</f>
         <v>0</v>
       </c>
       <c r="G64" s="23">
-        <f>+[2]Summary!G28</f>
+        <f>+[3]Summary!G28</f>
         <v>1085.6304050722583</v>
       </c>
       <c r="H64" s="23">
-        <f>+[2]Summary!H28</f>
+        <f>+[3]Summary!H28</f>
         <v>830.83040507225837</v>
       </c>
       <c r="I64" s="23">
-        <f>+[2]Summary!I28</f>
+        <f>+[3]Summary!I28</f>
         <v>3955.6716666666675</v>
       </c>
       <c r="J64" s="23">
-        <f>+[2]Summary!J28</f>
+        <f>+[3]Summary!J28</f>
         <v>27.444906871835709</v>
       </c>
       <c r="K64" s="23">
-        <f>+[2]Summary!K28</f>
+        <f>+[3]Summary!K28</f>
         <v>6.4413839537575361</v>
       </c>
       <c r="L64" s="23">
-        <f>+[2]Summary!L28</f>
+        <f>+[3]Summary!L28</f>
         <v>21.003522918078172</v>
       </c>
       <c r="M64" s="23">
-        <f>+[2]Summary!M28</f>
+        <f>+[3]Summary!M28</f>
         <v>33.426672087457106</v>
       </c>
     </row>
@@ -11284,51 +13164,51 @@
         <v>45292</v>
       </c>
       <c r="B65" s="23">
-        <f>+[2]Summary!B29</f>
+        <f>+[3]Summary!B29</f>
         <v>345.05</v>
       </c>
       <c r="C65" s="23">
-        <f>+[2]Summary!C29</f>
+        <f>+[3]Summary!C29</f>
         <v>14.358585248272975</v>
       </c>
       <c r="D65" s="23">
-        <f>+[2]Summary!D29</f>
+        <f>+[3]Summary!D29</f>
         <v>2058.0419065755591</v>
       </c>
       <c r="E65" s="23">
-        <f>+[2]Summary!E29</f>
+        <f>+[3]Summary!E29</f>
         <v>2058.0419065755591</v>
       </c>
       <c r="F65" s="23">
-        <f>+[2]Summary!F29</f>
+        <f>+[3]Summary!F29</f>
         <v>-38.091906575559108</v>
       </c>
       <c r="G65" s="23">
-        <f>+[2]Summary!G29</f>
+        <f>+[3]Summary!G29</f>
         <v>2365</v>
       </c>
       <c r="H65" s="23">
-        <f>+[2]Summary!H29</f>
+        <f>+[3]Summary!H29</f>
         <v>2019.95</v>
       </c>
       <c r="I65" s="23">
-        <f>+[2]Summary!I29</f>
+        <f>+[3]Summary!I29</f>
         <v>3942.4716666666677</v>
       </c>
       <c r="J65" s="23">
-        <f>+[2]Summary!J29</f>
+        <f>+[3]Summary!J29</f>
         <v>60</v>
       </c>
       <c r="K65" s="23">
-        <f>+[2]Summary!K29</f>
+        <f>+[3]Summary!K29</f>
         <v>8.7521237734534534</v>
       </c>
       <c r="L65" s="23">
-        <f>+[2]Summary!L29</f>
+        <f>+[3]Summary!L29</f>
         <v>51.247876226546545</v>
       </c>
       <c r="M65" s="23">
-        <f>+[2]Summary!M29</f>
+        <f>+[3]Summary!M29</f>
         <v>35.571335626535394</v>
       </c>
     </row>
@@ -11338,51 +13218,51 @@
         <v>45323</v>
       </c>
       <c r="B66" s="23">
-        <f>+[2]Summary!B30</f>
+        <f>+[3]Summary!B30</f>
         <v>8.75</v>
       </c>
       <c r="C66" s="23">
-        <f>+[2]Summary!C30</f>
-        <v>31.890434112797557</v>
+        <f>+[3]Summary!C30</f>
+        <v>6.8244564975439062</v>
       </c>
       <c r="D66" s="23">
-        <f>+[2]Summary!D30</f>
-        <v>18.687694855613916</v>
+        <f>+[3]Summary!D30</f>
+        <v>119.46533851302428</v>
       </c>
       <c r="E66" s="23">
-        <f>+[2]Summary!E30</f>
-        <v>18.687694855613916</v>
+        <f>+[3]Summary!E30</f>
+        <v>119.46533851302428</v>
       </c>
       <c r="F66" s="23">
-        <f>+[2]Summary!F30</f>
-        <v>2319.5623051443863</v>
+        <f>+[3]Summary!F30</f>
+        <v>2218.7846614869759</v>
       </c>
       <c r="G66" s="23">
-        <f>+[2]Summary!G30</f>
+        <f>+[3]Summary!G30</f>
         <v>2347</v>
       </c>
       <c r="H66" s="23">
-        <f>+[2]Summary!H30</f>
+        <f>+[3]Summary!H30</f>
         <v>2338.25</v>
       </c>
       <c r="I66" s="23">
-        <f>+[2]Summary!I30</f>
+        <f>+[3]Summary!I30</f>
         <v>3911.5916666666672</v>
       </c>
       <c r="J66" s="23">
-        <f>+[2]Summary!J30</f>
+        <f>+[3]Summary!J30</f>
         <v>60</v>
       </c>
       <c r="K66" s="23">
-        <f>+[2]Summary!K30</f>
+        <f>+[3]Summary!K30</f>
         <v>0.22369410576683402</v>
       </c>
       <c r="L66" s="23">
-        <f>+[2]Summary!L30</f>
+        <f>+[3]Summary!L30</f>
         <v>59.776305894233168</v>
       </c>
       <c r="M66" s="23">
-        <f>+[2]Summary!M30</f>
+        <f>+[3]Summary!M30</f>
         <v>36.332047492105538</v>
       </c>
     </row>
@@ -11392,51 +13272,51 @@
         <v>45352</v>
       </c>
       <c r="B67" s="23">
-        <f>+[2]Summary!B31</f>
+        <f>+[3]Summary!B31</f>
         <v>0</v>
       </c>
       <c r="C67" s="23">
-        <f>+[2]Summary!C31</f>
+        <f>+[3]Summary!C31</f>
         <v>0</v>
       </c>
       <c r="D67" s="23">
-        <f>+[2]Summary!D31</f>
+        <f>+[3]Summary!D31</f>
         <v>0</v>
       </c>
       <c r="E67" s="23">
-        <f>+[2]Summary!E31</f>
+        <f>+[3]Summary!E31</f>
         <v>0</v>
       </c>
       <c r="F67" s="23">
-        <f>+[2]Summary!F31</f>
+        <f>+[3]Summary!F31</f>
         <v>2342</v>
       </c>
       <c r="G67" s="23">
-        <f>+[2]Summary!G31</f>
+        <f>+[3]Summary!G31</f>
         <v>2342</v>
       </c>
       <c r="H67" s="23">
-        <f>+[2]Summary!H31</f>
+        <f>+[3]Summary!H31</f>
         <v>2342</v>
       </c>
       <c r="I67" s="23">
-        <f>+[2]Summary!I31</f>
+        <f>+[3]Summary!I31</f>
         <v>3903.7283333333344</v>
       </c>
       <c r="J67" s="23">
-        <f>+[2]Summary!J31</f>
+        <f>+[3]Summary!J31</f>
         <v>60</v>
       </c>
       <c r="K67" s="23">
-        <f>+[2]Summary!K31</f>
+        <f>+[3]Summary!K31</f>
         <v>0</v>
       </c>
       <c r="L67" s="23">
-        <f>+[2]Summary!L31</f>
+        <f>+[3]Summary!L31</f>
         <v>60</v>
       </c>
       <c r="M67" s="23">
-        <f>+[2]Summary!M31</f>
+        <f>+[3]Summary!M31</f>
         <v>35.859044922931901</v>
       </c>
     </row>
@@ -11446,7 +13326,7 @@
         <v>31798.81</v>
       </c>
       <c r="H69" s="23">
-        <f>+[2]Summary!H33</f>
+        <f>+[3]Summary!H33</f>
         <v>9482.9597151862272</v>
       </c>
       <c r="I69" s="23">
@@ -11473,7 +13353,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H72" s="23">
-        <f>+[2]Summary!H36</f>
+        <f>+[3]Summary!H36</f>
         <v>10194.181693825194</v>
       </c>
     </row>

--- a/IBNP Check/Unified_IBNP_ASL_Check.xlsx
+++ b/IBNP Check/Unified_IBNP_ASL_Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joranias\Documents\GitHub\DMI_IBNP\IBNP Check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B35777-4FFB-4921-BD3F-2F77DA9881D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8402CC-AE20-4CC4-B0E2-725FA71D0E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,6 +565,9 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,9 +577,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4746,7 +4746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
       <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
@@ -4768,18 +4768,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -6956,1210 +6956,1210 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <f>+IFERROR(1/C38,0)</f>
+        <f t="shared" ref="C66:X66" si="7">+IFERROR(1/C38,0)</f>
         <v>0.90841608987862388</v>
       </c>
       <c r="D66">
-        <f>+IFERROR(1/D38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E66">
-        <f>+IFERROR(1/E38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F66">
-        <f>+IFERROR(1/F38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G66">
-        <f>+IFERROR(1/G38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H66">
-        <f>+IFERROR(1/H38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I66">
-        <f>+IFERROR(1/I38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J66">
-        <f>+IFERROR(1/J38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K66">
-        <f>+IFERROR(1/K38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L66">
-        <f>+IFERROR(1/L38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M66">
-        <f>+IFERROR(1/M38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N66">
-        <f>+IFERROR(1/N38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O66">
-        <f>+IFERROR(1/O38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P66">
-        <f>+IFERROR(1/P38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q66">
-        <f>+IFERROR(1/Q38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R66">
-        <f>+IFERROR(1/R38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S66">
-        <f>+IFERROR(1/S38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T66">
-        <f>+IFERROR(1/T38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U66">
-        <f>+IFERROR(1/U38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V66">
-        <f>+IFERROR(1/V38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W66">
-        <f>+IFERROR(1/W38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="X66">
-        <f>+IFERROR(1/X38,0)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <f t="shared" ref="A67:A88" si="7">1+A66</f>
+        <f t="shared" ref="A67:A88" si="8">1+A66</f>
         <v>1</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:D88" si="8">+IFERROR(1/C39,0)</f>
+        <f t="shared" ref="C67:D87" si="9">+IFERROR(1/C39,0)</f>
         <v>7.8043031611443089E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.9937812878952772</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:F67" si="9">+IFERROR(1/E39,0)</f>
+        <f t="shared" ref="E67:F67" si="10">+IFERROR(1/E39,0)</f>
         <v>1</v>
       </c>
       <c r="F67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:H67" si="10">+IFERROR(1/G39,0)</f>
+        <f t="shared" ref="G67:H67" si="11">+IFERROR(1/G39,0)</f>
         <v>0.30485997668121201</v>
       </c>
       <c r="H67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:J67" si="11">+IFERROR(1/I39,0)</f>
+        <f t="shared" ref="I67:J67" si="12">+IFERROR(1/I39,0)</f>
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:L67" si="12">+IFERROR(1/K39,0)</f>
+        <f t="shared" ref="K67:L67" si="13">+IFERROR(1/K39,0)</f>
         <v>1</v>
       </c>
       <c r="L67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:N67" si="13">+IFERROR(1/M39,0)</f>
+        <f t="shared" ref="M67:N67" si="14">+IFERROR(1/M39,0)</f>
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:P67" si="14">+IFERROR(1/O39,0)</f>
+        <f t="shared" ref="O67:P67" si="15">+IFERROR(1/O39,0)</f>
         <v>1</v>
       </c>
       <c r="P67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:R67" si="15">+IFERROR(1/Q39,0)</f>
+        <f t="shared" ref="Q67:R67" si="16">+IFERROR(1/Q39,0)</f>
         <v>1</v>
       </c>
       <c r="R67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:T67" si="16">+IFERROR(1/S39,0)</f>
+        <f t="shared" ref="S67:T67" si="17">+IFERROR(1/S39,0)</f>
         <v>1</v>
       </c>
       <c r="T67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:V67" si="17">+IFERROR(1/U39,0)</f>
+        <f t="shared" ref="U67:V67" si="18">+IFERROR(1/U39,0)</f>
         <v>1</v>
       </c>
       <c r="V67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:X67" si="18">+IFERROR(1/W39,0)</f>
+        <f t="shared" ref="W67" si="19">+IFERROR(1/W39,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:F68" si="19">+IFERROR(1/E40,0)</f>
+        <f t="shared" ref="E68:F68" si="20">+IFERROR(1/E40,0)</f>
         <v>1</v>
       </c>
       <c r="F68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:H68" si="20">+IFERROR(1/G40,0)</f>
+        <f t="shared" ref="G68:H68" si="21">+IFERROR(1/G40,0)</f>
         <v>1</v>
       </c>
       <c r="H68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:J68" si="21">+IFERROR(1/I40,0)</f>
+        <f t="shared" ref="I68:J68" si="22">+IFERROR(1/I40,0)</f>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:L68" si="22">+IFERROR(1/K40,0)</f>
+        <f t="shared" ref="K68:L68" si="23">+IFERROR(1/K40,0)</f>
         <v>1</v>
       </c>
       <c r="L68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="M68">
-        <f t="shared" ref="M68:N68" si="23">+IFERROR(1/M40,0)</f>
+        <f t="shared" ref="M68:N68" si="24">+IFERROR(1/M40,0)</f>
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:P68" si="24">+IFERROR(1/O40,0)</f>
+        <f t="shared" ref="O68:P68" si="25">+IFERROR(1/O40,0)</f>
         <v>1</v>
       </c>
       <c r="P68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:R68" si="25">+IFERROR(1/Q40,0)</f>
+        <f t="shared" ref="Q68:R68" si="26">+IFERROR(1/Q40,0)</f>
         <v>1</v>
       </c>
       <c r="R68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:T68" si="26">+IFERROR(1/S40,0)</f>
+        <f t="shared" ref="S68:T68" si="27">+IFERROR(1/S40,0)</f>
         <v>1</v>
       </c>
       <c r="T68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="U68">
-        <f t="shared" ref="U68:V68" si="27">+IFERROR(1/U40,0)</f>
+        <f t="shared" ref="U68:V68" si="28">+IFERROR(1/U40,0)</f>
         <v>1</v>
       </c>
       <c r="V68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.27784972229416671</v>
       </c>
       <c r="D69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:F69" si="28">+IFERROR(1/E41,0)</f>
+        <f t="shared" ref="E69:F69" si="29">+IFERROR(1/E41,0)</f>
         <v>1</v>
       </c>
       <c r="F69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:H69" si="29">+IFERROR(1/G41,0)</f>
+        <f t="shared" ref="G69:H69" si="30">+IFERROR(1/G41,0)</f>
         <v>1</v>
       </c>
       <c r="H69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I69">
-        <f t="shared" ref="I69:J69" si="30">+IFERROR(1/I41,0)</f>
+        <f t="shared" ref="I69:J69" si="31">+IFERROR(1/I41,0)</f>
         <v>1</v>
       </c>
       <c r="J69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="K69">
-        <f t="shared" ref="K69:L69" si="31">+IFERROR(1/K41,0)</f>
+        <f t="shared" ref="K69:L69" si="32">+IFERROR(1/K41,0)</f>
         <v>1</v>
       </c>
       <c r="L69">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:N69" si="32">+IFERROR(1/M41,0)</f>
+        <f t="shared" ref="M69:N69" si="33">+IFERROR(1/M41,0)</f>
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="O69">
-        <f t="shared" ref="O69:P69" si="33">+IFERROR(1/O41,0)</f>
+        <f t="shared" ref="O69:P69" si="34">+IFERROR(1/O41,0)</f>
         <v>1</v>
       </c>
       <c r="P69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="Q69">
-        <f t="shared" ref="Q69:R69" si="34">+IFERROR(1/Q41,0)</f>
+        <f t="shared" ref="Q69:R69" si="35">+IFERROR(1/Q41,0)</f>
         <v>1</v>
       </c>
       <c r="R69">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="S69">
-        <f t="shared" ref="S69:T69" si="35">+IFERROR(1/S41,0)</f>
+        <f t="shared" ref="S69:T69" si="36">+IFERROR(1/S41,0)</f>
         <v>1</v>
       </c>
       <c r="T69">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="U69">
-        <f t="shared" ref="U69:V69" si="36">+IFERROR(1/U41,0)</f>
+        <f t="shared" ref="U69" si="37">+IFERROR(1/U41,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11415375812318634</v>
       </c>
       <c r="D70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.97041208900170539</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:F70" si="37">+IFERROR(1/E42,0)</f>
+        <f t="shared" ref="E70:F70" si="38">+IFERROR(1/E42,0)</f>
         <v>0.71535373310067951</v>
       </c>
       <c r="F70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:H70" si="38">+IFERROR(1/G42,0)</f>
+        <f t="shared" ref="G70:H70" si="39">+IFERROR(1/G42,0)</f>
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="I70">
-        <f t="shared" ref="I70:J70" si="39">+IFERROR(1/I42,0)</f>
+        <f t="shared" ref="I70:J70" si="40">+IFERROR(1/I42,0)</f>
         <v>0.93794158738606848</v>
       </c>
       <c r="J70">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.91318347509112974</v>
       </c>
       <c r="K70">
-        <f t="shared" ref="K70:L70" si="40">+IFERROR(1/K42,0)</f>
+        <f t="shared" ref="K70:L70" si="41">+IFERROR(1/K42,0)</f>
         <v>1</v>
       </c>
       <c r="L70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="M70">
-        <f t="shared" ref="M70:N70" si="41">+IFERROR(1/M42,0)</f>
+        <f t="shared" ref="M70:N70" si="42">+IFERROR(1/M42,0)</f>
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="O70">
-        <f t="shared" ref="O70:P70" si="42">+IFERROR(1/O42,0)</f>
+        <f t="shared" ref="O70:P70" si="43">+IFERROR(1/O42,0)</f>
         <v>1</v>
       </c>
       <c r="P70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="Q70">
-        <f t="shared" ref="Q70:R70" si="43">+IFERROR(1/Q42,0)</f>
+        <f t="shared" ref="Q70:R70" si="44">+IFERROR(1/Q42,0)</f>
         <v>1</v>
       </c>
       <c r="R70">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="S70">
-        <f t="shared" ref="S70:T70" si="44">+IFERROR(1/S42,0)</f>
+        <f t="shared" ref="S70:T70" si="45">+IFERROR(1/S42,0)</f>
         <v>1</v>
       </c>
       <c r="T70">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.41476274165202115</v>
       </c>
       <c r="D71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71:F71" si="45">+IFERROR(1/E43,0)</f>
+        <f t="shared" ref="E71:F71" si="46">+IFERROR(1/E43,0)</f>
         <v>1</v>
       </c>
       <c r="F71">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:H71" si="46">+IFERROR(1/G43,0)</f>
+        <f t="shared" ref="G71:H71" si="47">+IFERROR(1/G43,0)</f>
         <v>4.1893297256504411E-2</v>
       </c>
       <c r="H71">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="I71">
-        <f t="shared" ref="I71:J71" si="47">+IFERROR(1/I43,0)</f>
+        <f t="shared" ref="I71:J71" si="48">+IFERROR(1/I43,0)</f>
         <v>1</v>
       </c>
       <c r="J71">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="K71">
-        <f t="shared" ref="K71:L71" si="48">+IFERROR(1/K43,0)</f>
+        <f t="shared" ref="K71:L71" si="49">+IFERROR(1/K43,0)</f>
         <v>1</v>
       </c>
       <c r="L71">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="M71">
-        <f t="shared" ref="M71:N71" si="49">+IFERROR(1/M43,0)</f>
+        <f t="shared" ref="M71:N71" si="50">+IFERROR(1/M43,0)</f>
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="O71">
-        <f t="shared" ref="O71:P71" si="50">+IFERROR(1/O43,0)</f>
+        <f t="shared" ref="O71:P71" si="51">+IFERROR(1/O43,0)</f>
         <v>1</v>
       </c>
       <c r="P71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="Q71">
-        <f t="shared" ref="Q71:R71" si="51">+IFERROR(1/Q43,0)</f>
+        <f t="shared" ref="Q71:R71" si="52">+IFERROR(1/Q43,0)</f>
         <v>1</v>
       </c>
       <c r="R71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="S71">
-        <f t="shared" ref="S71" si="52">+IFERROR(1/S43,0)</f>
+        <f t="shared" ref="S71" si="53">+IFERROR(1/S43,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99801846213329448</v>
       </c>
       <c r="E72">
-        <f t="shared" ref="E72:F72" si="53">+IFERROR(1/E44,0)</f>
+        <f t="shared" ref="E72:F72" si="54">+IFERROR(1/E44,0)</f>
         <v>1</v>
       </c>
       <c r="F72">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="G72">
-        <f t="shared" ref="G72:H72" si="54">+IFERROR(1/G44,0)</f>
+        <f t="shared" ref="G72:H72" si="55">+IFERROR(1/G44,0)</f>
         <v>1</v>
       </c>
       <c r="H72">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="I72">
-        <f t="shared" ref="I72:J72" si="55">+IFERROR(1/I44,0)</f>
+        <f t="shared" ref="I72:J72" si="56">+IFERROR(1/I44,0)</f>
         <v>1</v>
       </c>
       <c r="J72">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:L72" si="56">+IFERROR(1/K44,0)</f>
+        <f t="shared" ref="K72:L72" si="57">+IFERROR(1/K44,0)</f>
         <v>1</v>
       </c>
       <c r="L72">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:N72" si="57">+IFERROR(1/M44,0)</f>
+        <f t="shared" ref="M72:N72" si="58">+IFERROR(1/M44,0)</f>
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="O72">
-        <f t="shared" ref="O72:P72" si="58">+IFERROR(1/O44,0)</f>
+        <f t="shared" ref="O72:P72" si="59">+IFERROR(1/O44,0)</f>
         <v>1</v>
       </c>
       <c r="P72">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="Q72">
-        <f t="shared" ref="Q72:R72" si="59">+IFERROR(1/Q44,0)</f>
+        <f t="shared" ref="Q72:R72" si="60">+IFERROR(1/Q44,0)</f>
         <v>1</v>
       </c>
       <c r="R72">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.388305547701017</v>
       </c>
       <c r="D73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E73">
-        <f t="shared" ref="E73:F73" si="60">+IFERROR(1/E45,0)</f>
+        <f t="shared" ref="E73:F73" si="61">+IFERROR(1/E45,0)</f>
         <v>1</v>
       </c>
       <c r="F73">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="G73">
-        <f t="shared" ref="G73:H73" si="61">+IFERROR(1/G45,0)</f>
+        <f t="shared" ref="G73:H73" si="62">+IFERROR(1/G45,0)</f>
         <v>0.95378742381778558</v>
       </c>
       <c r="H73">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" ref="I73:J73" si="62">+IFERROR(1/I45,0)</f>
+        <f t="shared" ref="I73:J73" si="63">+IFERROR(1/I45,0)</f>
         <v>1</v>
       </c>
       <c r="J73">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="K73">
-        <f t="shared" ref="K73:L73" si="63">+IFERROR(1/K45,0)</f>
+        <f t="shared" ref="K73:L73" si="64">+IFERROR(1/K45,0)</f>
         <v>1</v>
       </c>
       <c r="L73">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="M73">
-        <f t="shared" ref="M73:N73" si="64">+IFERROR(1/M45,0)</f>
+        <f t="shared" ref="M73:N73" si="65">+IFERROR(1/M45,0)</f>
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.89396827921843913</v>
       </c>
       <c r="O73">
-        <f t="shared" ref="O73:P73" si="65">+IFERROR(1/O45,0)</f>
+        <f t="shared" ref="O73:P73" si="66">+IFERROR(1/O45,0)</f>
         <v>1</v>
       </c>
       <c r="P73">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="Q73">
-        <f t="shared" ref="Q73" si="66">+IFERROR(1/Q45,0)</f>
+        <f t="shared" ref="Q73" si="67">+IFERROR(1/Q45,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.72836241847347072</v>
       </c>
       <c r="E74">
-        <f t="shared" ref="E74:F74" si="67">+IFERROR(1/E46,0)</f>
+        <f t="shared" ref="E74:F74" si="68">+IFERROR(1/E46,0)</f>
         <v>1</v>
       </c>
       <c r="F74">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="G74">
-        <f t="shared" ref="G74:H74" si="68">+IFERROR(1/G46,0)</f>
+        <f t="shared" ref="G74:H74" si="69">+IFERROR(1/G46,0)</f>
         <v>1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="I74">
-        <f t="shared" ref="I74:J74" si="69">+IFERROR(1/I46,0)</f>
+        <f t="shared" ref="I74:J74" si="70">+IFERROR(1/I46,0)</f>
         <v>1</v>
       </c>
       <c r="J74">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" ref="K74:L74" si="70">+IFERROR(1/K46,0)</f>
+        <f t="shared" ref="K74:L74" si="71">+IFERROR(1/K46,0)</f>
         <v>1</v>
       </c>
       <c r="L74">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="M74">
-        <f t="shared" ref="M74:N74" si="71">+IFERROR(1/M46,0)</f>
+        <f t="shared" ref="M74:N74" si="72">+IFERROR(1/M46,0)</f>
         <v>0.11983270315371453</v>
       </c>
       <c r="N74">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="O74">
-        <f t="shared" ref="O74:P74" si="72">+IFERROR(1/O46,0)</f>
+        <f t="shared" ref="O74:P74" si="73">+IFERROR(1/O46,0)</f>
         <v>1</v>
       </c>
       <c r="P74">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E75">
-        <f t="shared" ref="E75:F75" si="73">+IFERROR(1/E47,0)</f>
+        <f t="shared" ref="E75:F75" si="74">+IFERROR(1/E47,0)</f>
         <v>0.32967583546269857</v>
       </c>
       <c r="F75">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="G75">
-        <f t="shared" ref="G75:H75" si="74">+IFERROR(1/G47,0)</f>
+        <f t="shared" ref="G75:H75" si="75">+IFERROR(1/G47,0)</f>
         <v>1</v>
       </c>
       <c r="H75">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.41741258156265676</v>
       </c>
       <c r="I75">
-        <f t="shared" ref="I75:J75" si="75">+IFERROR(1/I47,0)</f>
+        <f t="shared" ref="I75:J75" si="76">+IFERROR(1/I47,0)</f>
         <v>1</v>
       </c>
       <c r="J75">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="K75">
-        <f t="shared" ref="K75:L75" si="76">+IFERROR(1/K47,0)</f>
+        <f t="shared" ref="K75:L75" si="77">+IFERROR(1/K47,0)</f>
         <v>1</v>
       </c>
       <c r="L75">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.65727815693794378</v>
       </c>
       <c r="M75">
-        <f t="shared" ref="M75:N75" si="77">+IFERROR(1/M47,0)</f>
+        <f t="shared" ref="M75:N75" si="78">+IFERROR(1/M47,0)</f>
         <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="O75">
-        <f t="shared" ref="O75" si="78">+IFERROR(1/O47,0)</f>
+        <f t="shared" ref="O75" si="79">+IFERROR(1/O47,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76:F76" si="79">+IFERROR(1/E48,0)</f>
+        <f t="shared" ref="E76:F76" si="80">+IFERROR(1/E48,0)</f>
         <v>1</v>
       </c>
       <c r="F76">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
       <c r="G76">
-        <f t="shared" ref="G76:H76" si="80">+IFERROR(1/G48,0)</f>
+        <f t="shared" ref="G76:H76" si="81">+IFERROR(1/G48,0)</f>
         <v>1</v>
       </c>
       <c r="H76">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="I76">
-        <f t="shared" ref="I76:J76" si="81">+IFERROR(1/I48,0)</f>
+        <f t="shared" ref="I76:J76" si="82">+IFERROR(1/I48,0)</f>
         <v>1</v>
       </c>
       <c r="J76">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" ref="K76:L76" si="82">+IFERROR(1/K48,0)</f>
+        <f t="shared" ref="K76:L76" si="83">+IFERROR(1/K48,0)</f>
         <v>0.80007465366369912</v>
       </c>
       <c r="L76">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
       <c r="M76">
-        <f t="shared" ref="M76:N76" si="83">+IFERROR(1/M48,0)</f>
+        <f t="shared" ref="M76:N76" si="84">+IFERROR(1/M48,0)</f>
         <v>1</v>
       </c>
       <c r="N76">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.78780149202826499</v>
       </c>
       <c r="D77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" ref="E77:F77" si="84">+IFERROR(1/E49,0)</f>
+        <f t="shared" ref="E77:F77" si="85">+IFERROR(1/E49,0)</f>
         <v>0.77626382969202712</v>
       </c>
       <c r="F77">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>1</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77:H77" si="85">+IFERROR(1/G49,0)</f>
+        <f t="shared" ref="G77:H77" si="86">+IFERROR(1/G49,0)</f>
         <v>1</v>
       </c>
       <c r="H77">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" ref="I77:J77" si="86">+IFERROR(1/I49,0)</f>
+        <f t="shared" ref="I77:J77" si="87">+IFERROR(1/I49,0)</f>
         <v>1</v>
       </c>
       <c r="J77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="K77">
-        <f t="shared" ref="K77:L77" si="87">+IFERROR(1/K49,0)</f>
+        <f t="shared" ref="K77:L77" si="88">+IFERROR(1/K49,0)</f>
         <v>1</v>
       </c>
       <c r="L77">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>1</v>
       </c>
       <c r="M77">
-        <f t="shared" ref="M77" si="88">+IFERROR(1/M49,0)</f>
+        <f t="shared" ref="M77" si="89">+IFERROR(1/M49,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.96371567122352952</v>
       </c>
       <c r="D78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.77391796322489359</v>
       </c>
       <c r="E78">
-        <f t="shared" ref="E78:F78" si="89">+IFERROR(1/E50,0)</f>
+        <f t="shared" ref="E78:F78" si="90">+IFERROR(1/E50,0)</f>
         <v>0.93936011904761862</v>
       </c>
       <c r="F78">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1</v>
       </c>
       <c r="G78">
-        <f t="shared" ref="G78:H78" si="90">+IFERROR(1/G50,0)</f>
+        <f t="shared" ref="G78:H78" si="91">+IFERROR(1/G50,0)</f>
         <v>1</v>
       </c>
       <c r="H78">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
       <c r="I78">
-        <f t="shared" ref="I78:J78" si="91">+IFERROR(1/I50,0)</f>
+        <f t="shared" ref="I78:J78" si="92">+IFERROR(1/I50,0)</f>
         <v>0.57302378462881576</v>
       </c>
       <c r="J78">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1</v>
       </c>
       <c r="K78">
-        <f t="shared" ref="K78:L78" si="92">+IFERROR(1/K50,0)</f>
+        <f t="shared" ref="K78:L78" si="93">+IFERROR(1/K50,0)</f>
         <v>1</v>
       </c>
       <c r="L78">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.90936732545901089</v>
       </c>
       <c r="D79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.96734416833213899</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79:F79" si="93">+IFERROR(1/E51,0)</f>
+        <f t="shared" ref="E79:F79" si="94">+IFERROR(1/E51,0)</f>
         <v>1</v>
       </c>
       <c r="F79">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>1</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79:H79" si="94">+IFERROR(1/G51,0)</f>
+        <f t="shared" ref="G79:H79" si="95">+IFERROR(1/G51,0)</f>
         <v>1</v>
       </c>
       <c r="H79">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>0.55771354062608436</v>
       </c>
       <c r="I79">
-        <f t="shared" ref="I79:J79" si="95">+IFERROR(1/I51,0)</f>
+        <f t="shared" ref="I79:J79" si="96">+IFERROR(1/I51,0)</f>
         <v>1</v>
       </c>
       <c r="J79">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="K79">
-        <f t="shared" ref="K79" si="96">+IFERROR(1/K51,0)</f>
+        <f t="shared" ref="K79" si="97">+IFERROR(1/K51,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.70646884056650205</v>
       </c>
       <c r="D80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E80">
-        <f t="shared" ref="E80:F80" si="97">+IFERROR(1/E52,0)</f>
+        <f t="shared" ref="E80:F80" si="98">+IFERROR(1/E52,0)</f>
         <v>0.56604143452602051</v>
       </c>
       <c r="F80">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="G80">
-        <f t="shared" ref="G80:H80" si="98">+IFERROR(1/G52,0)</f>
+        <f t="shared" ref="G80:H80" si="99">+IFERROR(1/G52,0)</f>
         <v>1</v>
       </c>
       <c r="H80">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
       <c r="I80">
-        <f t="shared" ref="I80:J80" si="99">+IFERROR(1/I52,0)</f>
+        <f t="shared" ref="I80:J80" si="100">+IFERROR(1/I52,0)</f>
         <v>1</v>
       </c>
       <c r="J80">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.77767874442937446</v>
       </c>
       <c r="D81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.80400142431121191</v>
       </c>
       <c r="E81">
-        <f t="shared" ref="E81:F81" si="100">+IFERROR(1/E53,0)</f>
+        <f t="shared" ref="E81:F81" si="101">+IFERROR(1/E53,0)</f>
         <v>1</v>
       </c>
       <c r="F81">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0.99919502248155478</v>
       </c>
       <c r="G81">
-        <f t="shared" ref="G81:H81" si="101">+IFERROR(1/G53,0)</f>
+        <f t="shared" ref="G81:H81" si="102">+IFERROR(1/G53,0)</f>
         <v>1</v>
       </c>
       <c r="H81">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0.98025119778883163</v>
       </c>
       <c r="I81">
-        <f t="shared" ref="I81" si="102">+IFERROR(1/I53,0)</f>
+        <f t="shared" ref="I81" si="103">+IFERROR(1/I53,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.21664113281075695</v>
       </c>
       <c r="D82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.86013842866829626</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82:F82" si="103">+IFERROR(1/E54,0)</f>
+        <f t="shared" ref="E82:F82" si="104">+IFERROR(1/E54,0)</f>
         <v>0.93321155246725607</v>
       </c>
       <c r="F82">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>1</v>
       </c>
       <c r="G82">
-        <f t="shared" ref="G82:H82" si="104">+IFERROR(1/G54,0)</f>
+        <f t="shared" ref="G82:H82" si="105">+IFERROR(1/G54,0)</f>
         <v>1</v>
       </c>
       <c r="H82">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.5425600071516902E-2</v>
       </c>
       <c r="E83">
-        <f t="shared" ref="E83:F83" si="105">+IFERROR(1/E55,0)</f>
+        <f t="shared" ref="E83:F83" si="106">+IFERROR(1/E55,0)</f>
         <v>1</v>
       </c>
       <c r="F83">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>1</v>
       </c>
       <c r="G83">
-        <f t="shared" ref="G83" si="106">+IFERROR(1/G55,0)</f>
+        <f t="shared" ref="G83" si="107">+IFERROR(1/G55,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.43671520367859473</v>
       </c>
       <c r="D84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.99513082248034757</v>
       </c>
       <c r="E84">
-        <f t="shared" ref="E84:F84" si="107">+IFERROR(1/E56,0)</f>
+        <f t="shared" ref="E84:F84" si="108">+IFERROR(1/E56,0)</f>
         <v>1</v>
       </c>
       <c r="F84">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85" si="108">+IFERROR(1/E57,0)</f>
+        <f t="shared" ref="E85" si="109">+IFERROR(1/E57,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.84403453689167951</v>
       </c>
       <c r="D86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="B88">
@@ -8167,7 +8167,7 @@
       </c>
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="36" t="s">
         <v>61</v>
       </c>
     </row>
@@ -8175,96 +8175,96 @@
       <c r="A90" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="39">
+      <c r="B90" s="34">
         <f>+AVERAGE(B83:B88)</f>
         <v>0</v>
       </c>
-      <c r="C90" s="39">
+      <c r="C90" s="34">
         <f>+AVERAGE(C82:C87)</f>
         <v>0.58289847889683843</v>
       </c>
-      <c r="D90" s="39">
+      <c r="D90" s="34">
         <f>+AVERAGE(D81:D86)</f>
         <v>0.78578271258856214</v>
       </c>
-      <c r="E90" s="39">
+      <c r="E90" s="34">
         <f>+AVERAGE(E80:E85)</f>
         <v>0.91654216449887949</v>
       </c>
-      <c r="F90" s="39">
+      <c r="F90" s="34">
         <f>+AVERAGE(F79:F84)</f>
         <v>0.99986583708025911</v>
       </c>
-      <c r="G90" s="39">
+      <c r="G90" s="34">
         <f>+AVERAGE(G78:G83)</f>
         <v>1</v>
       </c>
-      <c r="H90" s="39">
+      <c r="H90" s="34">
         <f>+AVERAGE(H77:H82)</f>
         <v>0.92299412306915274</v>
       </c>
-      <c r="I90" s="39">
+      <c r="I90" s="34">
         <f>+AVERAGE(I76:I81)</f>
         <v>0.92883729743813603</v>
       </c>
-      <c r="J90" s="39">
+      <c r="J90" s="34">
         <f>+AVERAGE(J75:J80)</f>
         <v>1</v>
       </c>
-      <c r="K90" s="39">
+      <c r="K90" s="34">
         <f>+AVERAGE(K74:K79)</f>
         <v>0.96667910894394993</v>
       </c>
-      <c r="L90" s="39">
+      <c r="L90" s="34">
         <f>+AVERAGE(L73:L78)</f>
         <v>0.94287969282299056</v>
       </c>
-      <c r="M90" s="39">
+      <c r="M90" s="34">
         <f>+AVERAGE(M72:M77)</f>
         <v>0.85330545052561912</v>
       </c>
-      <c r="N90" s="39">
+      <c r="N90" s="34">
         <f>+AVERAGE(N71:N76)</f>
         <v>0.9823280465364066</v>
       </c>
-      <c r="O90" s="39">
+      <c r="O90" s="34">
         <f>+AVERAGE(O70:O75)</f>
         <v>1</v>
       </c>
-      <c r="P90" s="39">
+      <c r="P90" s="34">
         <f>+AVERAGE(P69:P74)</f>
         <v>1</v>
       </c>
-      <c r="Q90" s="39">
+      <c r="Q90" s="34">
         <f>+AVERAGE(Q68:Q73)</f>
         <v>1</v>
       </c>
-      <c r="R90" s="39">
+      <c r="R90" s="34">
         <f>+AVERAGE(R67:R72)</f>
         <v>1</v>
       </c>
-      <c r="S90" s="39">
+      <c r="S90" s="34">
         <f>+AVERAGE(S66:S71)</f>
         <v>1</v>
       </c>
-      <c r="T90" s="39">
+      <c r="T90" s="34">
         <f>+AVERAGE(T66:T70)</f>
         <v>1</v>
       </c>
-      <c r="U90" s="39">
+      <c r="U90" s="34">
         <f>+AVERAGE(U66:U69)</f>
         <v>1</v>
       </c>
-      <c r="V90" s="39">
+      <c r="V90" s="34">
         <f>+AVERAGE(V66:V69)</f>
         <v>1</v>
       </c>
-      <c r="W90" s="39">
-        <f t="shared" ref="W90:Y90" si="109">+AVERAGE(W66:W69)</f>
-        <v>1</v>
-      </c>
-      <c r="X90" s="39">
-        <f t="shared" si="109"/>
+      <c r="W90" s="34">
+        <f t="shared" ref="W90:X90" si="110">+AVERAGE(W66:W69)</f>
+        <v>1</v>
+      </c>
+      <c r="X90" s="34">
+        <f t="shared" si="110"/>
         <v>1</v>
       </c>
     </row>
@@ -8272,101 +8272,101 @@
       <c r="A91" t="s">
         <v>64</v>
       </c>
-      <c r="B91" s="39">
-        <f t="shared" ref="B91:V91" si="110">+B90*C91</f>
-        <v>0</v>
-      </c>
-      <c r="C91" s="39">
-        <f t="shared" si="110"/>
+      <c r="B91" s="34">
+        <f t="shared" ref="B91:V91" si="111">+B90*C91</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="34">
+        <f t="shared" si="111"/>
         <v>0.2749336081597234</v>
       </c>
-      <c r="D91" s="39">
-        <f t="shared" si="110"/>
+      <c r="D91" s="34">
+        <f t="shared" si="111"/>
         <v>0.47166636749515561</v>
       </c>
-      <c r="E91" s="39">
-        <f t="shared" si="110"/>
+      <c r="E91" s="34">
+        <f t="shared" si="111"/>
         <v>0.60025037448504082</v>
       </c>
-      <c r="F91" s="39">
-        <f t="shared" si="110"/>
+      <c r="F91" s="34">
+        <f t="shared" si="111"/>
         <v>0.65490754024745645</v>
       </c>
-      <c r="G91" s="39">
-        <f t="shared" si="110"/>
+      <c r="G91" s="34">
+        <f t="shared" si="111"/>
         <v>0.65499541634493019</v>
       </c>
-      <c r="H91" s="39">
-        <f t="shared" si="110"/>
+      <c r="H91" s="34">
+        <f t="shared" si="111"/>
         <v>0.65499541634493019</v>
       </c>
-      <c r="I91" s="39">
-        <f t="shared" si="110"/>
+      <c r="I91" s="34">
+        <f t="shared" si="111"/>
         <v>0.70964202260240883</v>
       </c>
-      <c r="J91" s="39">
-        <f t="shared" si="110"/>
+      <c r="J91" s="34">
+        <f t="shared" si="111"/>
         <v>0.76401111858847759</v>
       </c>
-      <c r="K91" s="39">
-        <f t="shared" si="110"/>
+      <c r="K91" s="34">
+        <f t="shared" si="111"/>
         <v>0.76401111858847759</v>
       </c>
-      <c r="L91" s="39">
-        <f t="shared" si="110"/>
+      <c r="L91" s="34">
+        <f t="shared" si="111"/>
         <v>0.79034615677494335</v>
       </c>
-      <c r="M91" s="39">
-        <f t="shared" si="110"/>
+      <c r="M91" s="34">
+        <f t="shared" si="111"/>
         <v>0.83822587631369982</v>
       </c>
-      <c r="N91" s="39">
-        <f t="shared" si="110"/>
+      <c r="N91" s="34">
+        <f t="shared" si="111"/>
         <v>0.9823280465364066</v>
       </c>
-      <c r="O91" s="39">
-        <f t="shared" si="110"/>
-        <v>1</v>
-      </c>
-      <c r="P91" s="39">
-        <f t="shared" si="110"/>
-        <v>1</v>
-      </c>
-      <c r="Q91" s="39">
-        <f t="shared" si="110"/>
-        <v>1</v>
-      </c>
-      <c r="R91" s="39">
-        <f t="shared" si="110"/>
-        <v>1</v>
-      </c>
-      <c r="S91" s="39">
-        <f t="shared" si="110"/>
-        <v>1</v>
-      </c>
-      <c r="T91" s="39">
-        <f t="shared" si="110"/>
-        <v>1</v>
-      </c>
-      <c r="U91" s="39">
-        <f t="shared" si="110"/>
-        <v>1</v>
-      </c>
-      <c r="V91" s="39">
-        <f t="shared" si="110"/>
-        <v>1</v>
-      </c>
-      <c r="W91" s="39">
+      <c r="O91" s="34">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="P91" s="34">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="Q91" s="34">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="R91" s="34">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="S91" s="34">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="T91" s="34">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="U91" s="34">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="V91" s="34">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="W91" s="34">
         <f>+W90*X91</f>
         <v>1</v>
       </c>
-      <c r="X91" s="39">
+      <c r="X91" s="34">
         <f>+X90</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A93" s="41" t="s">
+      <c r="A93" s="36" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8447,23 +8447,23 @@
         <v>1</v>
       </c>
       <c r="T94" s="33">
-        <f t="shared" ref="T94:X94" si="111">+IFERROR(AVERAGE(T38:T43),1)</f>
+        <f t="shared" ref="T94:X94" si="112">+IFERROR(AVERAGE(T38:T43),1)</f>
         <v>1</v>
       </c>
       <c r="U94" s="33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1</v>
       </c>
       <c r="V94" s="33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1</v>
       </c>
       <c r="W94" s="33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1</v>
       </c>
       <c r="X94" s="33">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>1</v>
       </c>
     </row>
@@ -8472,87 +8472,87 @@
         <v>59</v>
       </c>
       <c r="B95" s="33">
-        <f t="shared" ref="B95:V95" si="112">+B94*C95</f>
+        <f t="shared" ref="B95:V95" si="113">+B94*C95</f>
         <v>29.475958069351041</v>
       </c>
       <c r="C95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>29.475958069351041</v>
       </c>
       <c r="D95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>14.605744392143405</v>
       </c>
       <c r="E95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>3.7365229921743484</v>
       </c>
       <c r="F95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>3.2785032419670825</v>
       </c>
       <c r="G95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>3.2780630931415029</v>
       </c>
       <c r="H95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>3.2780630931415029</v>
       </c>
       <c r="I95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>2.8868125012652781</v>
       </c>
       <c r="J95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>2.5679089174982326</v>
       </c>
       <c r="K95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>2.5679089174982326</v>
       </c>
       <c r="L95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>2.4652385662779226</v>
       </c>
       <c r="M95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>2.2681284222284712</v>
       </c>
       <c r="N95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1.0197679871583849</v>
       </c>
       <c r="O95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="P95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="Q95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="R95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="S95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="T95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="U95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="V95" s="33">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="W95" s="33">
@@ -8568,96 +8568,96 @@
       <c r="A96" t="s">
         <v>62</v>
       </c>
-      <c r="B96" s="39">
+      <c r="B96" s="34">
         <f>1/B95</f>
         <v>3.3925954082550933E-2</v>
       </c>
-      <c r="C96" s="39">
-        <f t="shared" ref="C96:X96" si="113">1/C95</f>
+      <c r="C96" s="34">
+        <f t="shared" ref="C96:X96" si="114">1/C95</f>
         <v>3.3925954082550933E-2</v>
       </c>
-      <c r="D96" s="39">
-        <f t="shared" si="113"/>
+      <c r="D96" s="34">
+        <f t="shared" si="114"/>
         <v>6.8466212549763039E-2</v>
       </c>
-      <c r="E96" s="39">
-        <f t="shared" si="113"/>
+      <c r="E96" s="34">
+        <f t="shared" si="114"/>
         <v>0.26762848832841851</v>
       </c>
-      <c r="F96" s="39">
-        <f t="shared" si="113"/>
+      <c r="F96" s="34">
+        <f t="shared" si="114"/>
         <v>0.30501723689008947</v>
       </c>
-      <c r="G96" s="39">
-        <f t="shared" si="113"/>
+      <c r="G96" s="34">
+        <f t="shared" si="114"/>
         <v>0.30505819186099276</v>
       </c>
-      <c r="H96" s="39">
-        <f t="shared" si="113"/>
+      <c r="H96" s="34">
+        <f t="shared" si="114"/>
         <v>0.30505819186099276</v>
       </c>
-      <c r="I96" s="39">
-        <f t="shared" si="113"/>
+      <c r="I96" s="34">
+        <f t="shared" si="114"/>
         <v>0.34640282303118203</v>
       </c>
-      <c r="J96" s="39">
-        <f t="shared" si="113"/>
+      <c r="J96" s="34">
+        <f t="shared" si="114"/>
         <v>0.38942191180762092</v>
       </c>
-      <c r="K96" s="39">
-        <f t="shared" si="113"/>
+      <c r="K96" s="34">
+        <f t="shared" si="114"/>
         <v>0.38942191180762092</v>
       </c>
-      <c r="L96" s="39">
-        <f t="shared" si="113"/>
+      <c r="L96" s="34">
+        <f t="shared" si="114"/>
         <v>0.40564025473194848</v>
       </c>
-      <c r="M96" s="39">
-        <f t="shared" si="113"/>
+      <c r="M96" s="34">
+        <f t="shared" si="114"/>
         <v>0.44089214270216875</v>
       </c>
-      <c r="N96" s="39">
-        <f t="shared" si="113"/>
+      <c r="N96" s="34">
+        <f t="shared" si="114"/>
         <v>0.98061521109966487</v>
       </c>
-      <c r="O96" s="39">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="P96" s="39">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="Q96" s="39">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="R96" s="39">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="S96" s="39">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="T96" s="39">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="U96" s="39">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="V96" s="39">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="W96" s="39">
-        <f t="shared" si="113"/>
-        <v>1</v>
-      </c>
-      <c r="X96" s="39">
-        <f t="shared" si="113"/>
+      <c r="O96" s="34">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="P96" s="34">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="Q96" s="34">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="R96" s="34">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="S96" s="34">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="T96" s="34">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="U96" s="34">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="V96" s="34">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="W96" s="34">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="X96" s="34">
+        <f t="shared" si="114"/>
         <v>1</v>
       </c>
     </row>
@@ -8665,92 +8665,92 @@
       <c r="A97" t="s">
         <v>66</v>
       </c>
-      <c r="B97" s="40">
-        <f>+C96-B96</f>
-        <v>0</v>
-      </c>
-      <c r="C97" s="40">
-        <f>+D96-C96</f>
+      <c r="B97" s="35">
+        <f t="shared" ref="B97:W97" si="115">+C96-B96</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="35">
+        <f t="shared" si="115"/>
         <v>3.4540258467212107E-2</v>
       </c>
-      <c r="D97" s="40">
-        <f>+E96-D96</f>
+      <c r="D97" s="35">
+        <f t="shared" si="115"/>
         <v>0.19916227577865547</v>
       </c>
-      <c r="E97" s="40">
-        <f>+F96-E96</f>
+      <c r="E97" s="35">
+        <f t="shared" si="115"/>
         <v>3.7388748561670959E-2</v>
       </c>
-      <c r="F97" s="40">
-        <f>+G96-F96</f>
+      <c r="F97" s="35">
+        <f t="shared" si="115"/>
         <v>4.0954970903284149E-5</v>
       </c>
-      <c r="G97" s="40">
-        <f>+H96-G96</f>
-        <v>0</v>
-      </c>
-      <c r="H97" s="40">
-        <f>+I96-H96</f>
+      <c r="G97" s="35">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="35">
+        <f t="shared" si="115"/>
         <v>4.1344631170189272E-2</v>
       </c>
-      <c r="I97" s="40">
-        <f>+J96-I96</f>
+      <c r="I97" s="35">
+        <f t="shared" si="115"/>
         <v>4.3019088776438896E-2</v>
       </c>
-      <c r="J97" s="40">
-        <f>+K96-J96</f>
-        <v>0</v>
-      </c>
-      <c r="K97" s="40">
-        <f>+L96-K96</f>
+      <c r="J97" s="35">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="35">
+        <f t="shared" si="115"/>
         <v>1.6218342924327556E-2</v>
       </c>
-      <c r="L97" s="40">
-        <f>+M96-L96</f>
+      <c r="L97" s="35">
+        <f t="shared" si="115"/>
         <v>3.5251887970220275E-2</v>
       </c>
-      <c r="M97" s="40">
-        <f>+N96-M96</f>
+      <c r="M97" s="35">
+        <f t="shared" si="115"/>
         <v>0.53972306839749606</v>
       </c>
-      <c r="N97" s="40">
-        <f>+O96-N96</f>
+      <c r="N97" s="35">
+        <f t="shared" si="115"/>
         <v>1.9384788900335126E-2</v>
       </c>
-      <c r="O97" s="40">
-        <f>+P96-O96</f>
-        <v>0</v>
-      </c>
-      <c r="P97" s="40">
-        <f>+Q96-P96</f>
-        <v>0</v>
-      </c>
-      <c r="Q97" s="40">
-        <f>+R96-Q96</f>
-        <v>0</v>
-      </c>
-      <c r="R97" s="40">
-        <f>+S96-R96</f>
-        <v>0</v>
-      </c>
-      <c r="S97" s="40">
-        <f>+T96-S96</f>
-        <v>0</v>
-      </c>
-      <c r="T97" s="40">
-        <f>+U96-T96</f>
-        <v>0</v>
-      </c>
-      <c r="U97" s="40">
-        <f>+V96-U96</f>
-        <v>0</v>
-      </c>
-      <c r="V97" s="40">
-        <f>+W96-V96</f>
-        <v>0</v>
-      </c>
-      <c r="W97" s="40">
-        <f>+X96-W96</f>
+      <c r="O97" s="35">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="35">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="35">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="R97" s="35">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="S97" s="35">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="T97" s="35">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="U97" s="35">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="V97" s="35">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="W97" s="35">
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
     </row>
@@ -8818,12 +8818,12 @@
       <c r="H4" s="8">
         <v>45382</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -11892,12 +11892,12 @@
         <v>45382</v>
       </c>
       <c r="I40" s="7"/>
-      <c r="J40" s="36" t="s">
+      <c r="J40" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="38"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="41"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
     </row>
